--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E3BEC6-D4EE-49D5-9A3C-67E47DDA9F0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649E1BA-C653-4E3E-A771-BA6C91A9274B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12103,10 +12103,10 @@
   <dimension ref="A1:H1596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D207" sqref="D207"/>
+      <selection pane="bottomRight" activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649E1BA-C653-4E3E-A771-BA6C91A9274B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D52A20-91E6-4147-A58A-9DC5589FD987}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12103,10 +12103,10 @@
   <dimension ref="A1:H1596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B443" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A211" sqref="A211"/>
+      <selection pane="bottomRight" activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20039,7 +20039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" s="29" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="44" t="s">
         <v>489</v>
       </c>

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e94e71dc1438ec8/Encuesta_MultiProposito/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{E3D52A20-91E6-4147-A58A-9DC5589FD987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6370A29D-05FA-427E-9364-67EFCD1D4A0C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E3D52A20-91E6-4147-A58A-9DC5589FD987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D31064-B3C3-4166-AAE9-F3A7E2DD8832}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12085,10 +12085,10 @@
   <dimension ref="A1:H1596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B276" sqref="B276:C276"/>
+      <selection pane="bottomRight" activeCell="B1083" sqref="B1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18599,22 +18599,22 @@
       </c>
     </row>
     <row r="286" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="38" t="s">
+      <c r="A286" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C286" s="27" t="s">
+      <c r="C286" s="46" t="s">
         <v>1849</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="46" t="s">
         <v>2378</v>
       </c>
-      <c r="E286" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F286" s="13">
+      <c r="E286" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286" s="48">
         <v>8</v>
       </c>
       <c r="G286" s="14">
@@ -18622,22 +18622,22 @@
       </c>
     </row>
     <row r="287" spans="1:7" s="14" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="38" t="s">
+      <c r="A287" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="C287" s="27" t="s">
+      <c r="C287" s="46" t="s">
         <v>1850</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="46" t="s">
         <v>2379</v>
       </c>
-      <c r="E287" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F287" s="13">
+      <c r="E287" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" s="48">
         <v>8</v>
       </c>
       <c r="G287" s="14">
@@ -18645,22 +18645,22 @@
       </c>
     </row>
     <row r="288" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="38" t="s">
+      <c r="A288" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="C288" s="27" t="s">
+      <c r="C288" s="46" t="s">
         <v>1851</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E288" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F288" s="13">
+      <c r="D288" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E288" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" s="48">
         <v>8</v>
       </c>
       <c r="G288" s="14">
@@ -18668,22 +18668,22 @@
       </c>
     </row>
     <row r="289" spans="1:7" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="38" t="s">
+      <c r="A289" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B289" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="C289" s="27" t="s">
+      <c r="C289" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E289" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F289" s="13">
+      <c r="E289" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289" s="48">
         <v>8</v>
       </c>
       <c r="G289" s="14">
@@ -18691,22 +18691,22 @@
       </c>
     </row>
     <row r="290" spans="1:7" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="38" t="s">
+      <c r="A290" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B290" s="11" t="s">
+      <c r="B290" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="C290" s="26" t="s">
+      <c r="C290" s="46" t="s">
         <v>1852</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="46" t="s">
         <v>2380</v>
       </c>
-      <c r="E290" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F290" s="13">
+      <c r="E290" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" s="48">
         <v>8</v>
       </c>
       <c r="G290" s="14">
@@ -18714,20 +18714,20 @@
       </c>
     </row>
     <row r="291" spans="1:7" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="38" t="s">
+      <c r="A291" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B291" s="11" t="s">
+      <c r="B291" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="C291" s="26" t="s">
+      <c r="C291" s="46" t="s">
         <v>2384</v>
       </c>
-      <c r="D291" s="2"/>
-      <c r="E291" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F291" s="13">
+      <c r="D291" s="46"/>
+      <c r="E291" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" s="48">
         <v>8</v>
       </c>
       <c r="G291" s="14">
@@ -18735,27 +18735,27 @@
       </c>
     </row>
     <row r="292" spans="1:7" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="38" t="s">
+      <c r="A292" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B292" s="11" t="s">
+      <c r="B292" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="C292" s="26" t="s">
+      <c r="C292" s="46" t="s">
         <v>2385</v>
       </c>
-      <c r="D292" s="2"/>
-      <c r="E292" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F292" s="13">
+      <c r="D292" s="46"/>
+      <c r="E292" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" s="48">
         <v>8</v>
       </c>
       <c r="G292" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:7" s="14" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" s="14" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="45" t="s">
         <v>419</v>
       </c>

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e94e71dc1438ec8/Encuesta_MultiProposito/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E3D52A20-91E6-4147-A58A-9DC5589FD987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D31064-B3C3-4166-AAE9-F3A7E2DD8832}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0113C8-A7B0-4B08-A12C-848DB0812996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7563" uniqueCount="3183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7564" uniqueCount="3184">
   <si>
     <t>NOMBRE TABLA</t>
   </si>
@@ -11219,6 +11219,9 @@
   </si>
   <si>
     <t>Tipo de Comercio</t>
+  </si>
+  <si>
+    <t>Falta Codificar con el formato de Departamento y Municipios</t>
   </si>
 </sst>
 </file>
@@ -11424,7 +11427,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11632,6 +11635,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12082,13 +12100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1596"/>
+  <dimension ref="A1:J1596"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1083" sqref="B1083"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18667,7 +18685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="45" t="s">
         <v>419</v>
       </c>
@@ -18690,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:7" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="45" t="s">
         <v>419</v>
       </c>
@@ -18713,49 +18731,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="45" t="s">
+    <row r="291" spans="1:10" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="B291" s="47" t="s">
+      <c r="B291" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="C291" s="46" t="s">
+      <c r="C291" s="69" t="s">
         <v>2384</v>
       </c>
-      <c r="D291" s="46"/>
-      <c r="E291" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F291" s="48">
-        <v>8</v>
-      </c>
-      <c r="G291" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="45" t="s">
+      <c r="D291" s="69"/>
+      <c r="E291" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" s="70">
+        <v>8</v>
+      </c>
+      <c r="G291" s="32">
+        <v>1</v>
+      </c>
+      <c r="H291" s="32"/>
+      <c r="I291" s="71" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J291" s="71"/>
+    </row>
+    <row r="292" spans="1:10" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="B292" s="47" t="s">
+      <c r="B292" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="C292" s="46" t="s">
+      <c r="C292" s="69" t="s">
         <v>2385</v>
       </c>
-      <c r="D292" s="46"/>
-      <c r="E292" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F292" s="48">
-        <v>8</v>
-      </c>
-      <c r="G292" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" s="14" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D292" s="69"/>
+      <c r="E292" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" s="70">
+        <v>8</v>
+      </c>
+      <c r="G292" s="32">
+        <v>1</v>
+      </c>
+      <c r="H292" s="32"/>
+      <c r="I292" s="71"/>
+      <c r="J292" s="71"/>
+    </row>
+    <row r="293" spans="1:10" s="14" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="45" t="s">
         <v>419</v>
       </c>
@@ -18778,7 +18804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" s="14" customFormat="1" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" s="14" customFormat="1" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="38" t="s">
         <v>419</v>
       </c>
@@ -18801,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="14" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" s="14" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="38" t="s">
         <v>419</v>
       </c>
@@ -18824,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" s="14" customFormat="1" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" s="14" customFormat="1" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="38" t="s">
         <v>419</v>
       </c>
@@ -18845,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" s="14" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" s="14" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="38" t="s">
         <v>419</v>
       </c>
@@ -18866,7 +18892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" s="14" customFormat="1" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" s="14" customFormat="1" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="38" t="s">
         <v>419</v>
       </c>
@@ -18889,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="14" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" s="14" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="38" t="s">
         <v>419</v>
       </c>
@@ -18912,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" s="14" customFormat="1" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" s="14" customFormat="1" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="38" t="s">
         <v>419</v>
       </c>
@@ -18935,7 +18961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" s="14" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" s="14" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="38" t="s">
         <v>419</v>
       </c>
@@ -18956,7 +18982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" s="14" customFormat="1" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" s="14" customFormat="1" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="38" t="s">
         <v>419</v>
       </c>
@@ -18977,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" s="14" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" s="14" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="38" t="s">
         <v>419</v>
       </c>
@@ -19000,7 +19026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" s="14" customFormat="1" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" s="14" customFormat="1" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="38" t="s">
         <v>419</v>
       </c>
@@ -20022,22 +20048,22 @@
       </c>
     </row>
     <row r="349" spans="1:7" s="29" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="39" t="s">
+      <c r="A349" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B349" s="24" t="s">
+      <c r="B349" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="C349" s="26" t="s">
+      <c r="C349" s="46" t="s">
         <v>2431</v>
       </c>
-      <c r="D349" s="26" t="s">
+      <c r="D349" s="46" t="s">
         <v>3030</v>
       </c>
-      <c r="E349" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F349" s="28">
+      <c r="E349" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349" s="48">
         <v>8</v>
       </c>
       <c r="G349" s="29">
@@ -20068,22 +20094,22 @@
       </c>
     </row>
     <row r="351" spans="1:7" s="29" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="39" t="s">
+      <c r="A351" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B351" s="24" t="s">
+      <c r="B351" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="C351" s="26" t="s">
+      <c r="C351" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="D351" s="26" t="s">
+      <c r="D351" s="46" t="s">
         <v>2434</v>
       </c>
-      <c r="E351" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F351" s="28">
+      <c r="E351" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F351" s="48">
         <v>8</v>
       </c>
       <c r="G351" s="29">
@@ -20229,114 +20255,114 @@
       </c>
     </row>
     <row r="358" spans="1:7" s="29" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="39" t="s">
+      <c r="A358" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B358" s="25" t="s">
+      <c r="B358" s="47" t="s">
         <v>3127</v>
       </c>
-      <c r="C358" s="26" t="s">
+      <c r="C358" s="46" t="s">
         <v>3126</v>
       </c>
-      <c r="D358" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E358" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F358" s="28">
+      <c r="D358" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E358" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F358" s="48">
         <v>8</v>
       </c>
       <c r="G358" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:7" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A359" s="39" t="s">
+    <row r="359" spans="1:7" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A359" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B359" s="33" t="s">
+      <c r="B359" s="48" t="s">
         <v>2445</v>
       </c>
-      <c r="C359" s="26" t="s">
+      <c r="C359" s="46" t="s">
         <v>2441</v>
       </c>
-      <c r="D359" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E359" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F359" s="28">
+      <c r="D359" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E359" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" s="48">
         <v>8</v>
       </c>
       <c r="G359" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A360" s="39" t="s">
+    <row r="360" spans="1:7" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A360" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B360" s="33" t="s">
+      <c r="B360" s="48" t="s">
         <v>2446</v>
       </c>
-      <c r="C360" s="26" t="s">
+      <c r="C360" s="46" t="s">
         <v>2442</v>
       </c>
-      <c r="D360" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E360" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F360" s="28">
+      <c r="D360" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E360" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F360" s="48">
         <v>8</v>
       </c>
       <c r="G360" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A361" s="39" t="s">
+    <row r="361" spans="1:7" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A361" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B361" s="33" t="s">
+      <c r="B361" s="48" t="s">
         <v>2447</v>
       </c>
-      <c r="C361" s="26" t="s">
+      <c r="C361" s="46" t="s">
         <v>2443</v>
       </c>
-      <c r="D361" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E361" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F361" s="28">
+      <c r="D361" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E361" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F361" s="48">
         <v>8</v>
       </c>
       <c r="G361" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:7" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="39" t="s">
+    <row r="362" spans="1:7" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A362" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B362" s="33" t="s">
+      <c r="B362" s="48" t="s">
         <v>2448</v>
       </c>
-      <c r="C362" s="26" t="s">
+      <c r="C362" s="46" t="s">
         <v>2444</v>
       </c>
-      <c r="D362" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E362" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F362" s="28">
+      <c r="D362" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E362" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F362" s="48">
         <v>8</v>
       </c>
       <c r="G362" s="29">
@@ -20344,22 +20370,22 @@
       </c>
     </row>
     <row r="363" spans="1:7" s="29" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="39" t="s">
+      <c r="A363" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B363" s="24" t="s">
+      <c r="B363" s="47" t="s">
         <v>500</v>
       </c>
-      <c r="C363" s="27" t="s">
+      <c r="C363" s="46" t="s">
         <v>1867</v>
       </c>
-      <c r="D363" s="26" t="s">
+      <c r="D363" s="46" t="s">
         <v>2449</v>
       </c>
-      <c r="E363" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F363" s="28">
+      <c r="E363" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F363" s="48">
         <v>8</v>
       </c>
       <c r="G363" s="29">
@@ -21194,23 +21220,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" s="29" customFormat="1" ht="344.25" x14ac:dyDescent="0.2">
-      <c r="A400" s="39" t="s">
+    <row r="400" spans="1:7" s="29" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A400" s="72" t="s">
         <v>489</v>
       </c>
-      <c r="B400" s="24" t="s">
+      <c r="B400" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="C400" s="26" t="s">
+      <c r="C400" s="74" t="s">
         <v>1885</v>
       </c>
-      <c r="D400" s="26" t="s">
+      <c r="D400" s="74" t="s">
         <v>2464</v>
       </c>
-      <c r="E400" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F400" s="28">
+      <c r="E400" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F400" s="75">
         <v>8</v>
       </c>
       <c r="G400" s="29">
@@ -27535,22 +27561,22 @@
       </c>
     </row>
     <row r="680" spans="1:7" s="29" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="39" t="s">
+      <c r="A680" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="B680" s="24" t="s">
+      <c r="B680" s="47" t="s">
         <v>838</v>
       </c>
-      <c r="C680" s="27" t="s">
+      <c r="C680" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="D680" s="26" t="s">
+      <c r="D680" s="46" t="s">
         <v>2649</v>
       </c>
-      <c r="E680" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F680" s="28">
+      <c r="E680" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F680" s="48">
         <v>8</v>
       </c>
       <c r="G680" s="29">
@@ -30682,22 +30708,22 @@
       </c>
     </row>
     <row r="821" spans="1:7" s="29" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A821" s="39" t="s">
+      <c r="A821" s="45" t="s">
         <v>925</v>
       </c>
-      <c r="B821" s="24" t="s">
+      <c r="B821" s="47" t="s">
         <v>988</v>
       </c>
-      <c r="C821" s="27" t="s">
+      <c r="C821" s="46" t="s">
         <v>2765</v>
       </c>
-      <c r="D821" s="26" t="s">
+      <c r="D821" s="46" t="s">
         <v>2766</v>
       </c>
-      <c r="E821" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F821" s="28">
+      <c r="E821" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F821" s="48">
         <v>8</v>
       </c>
       <c r="G821" s="29">
@@ -47964,6 +47990,9 @@
       <c r="F1596" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I291:J292"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0113C8-A7B0-4B08-A12C-848DB0812996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABE1E9-3D00-469E-9096-DDB10F1C3364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12103,10 +12103,10 @@
   <dimension ref="A1:J1596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B400" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20599,23 +20599,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A373" s="39" t="s">
+    <row r="373" spans="1:7" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A373" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B373" s="24" t="s">
+      <c r="B373" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="C373" s="27" t="s">
+      <c r="C373" s="46" t="s">
         <v>1869</v>
       </c>
-      <c r="D373" s="27" t="s">
+      <c r="D373" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E373" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F373" s="28">
+      <c r="E373" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F373" s="48">
         <v>8</v>
       </c>
       <c r="G373" s="29">
@@ -20784,22 +20784,22 @@
       </c>
     </row>
     <row r="381" spans="1:7" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="39" t="s">
+      <c r="A381" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B381" s="24" t="s">
+      <c r="B381" s="47" t="s">
         <v>526</v>
       </c>
-      <c r="C381" s="26" t="s">
+      <c r="C381" s="46" t="s">
         <v>2457</v>
       </c>
-      <c r="D381" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E381" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F381" s="28">
+      <c r="D381" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E381" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" s="48">
         <v>8</v>
       </c>
       <c r="G381" s="29">
@@ -20807,22 +20807,22 @@
       </c>
     </row>
     <row r="382" spans="1:7" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="39" t="s">
+      <c r="A382" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B382" s="24" t="s">
+      <c r="B382" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="C382" s="26" t="s">
+      <c r="C382" s="46" t="s">
         <v>2458</v>
       </c>
-      <c r="D382" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E382" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F382" s="28">
+      <c r="D382" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E382" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" s="48">
         <v>8</v>
       </c>
       <c r="G382" s="29">
@@ -20830,22 +20830,22 @@
       </c>
     </row>
     <row r="383" spans="1:7" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="39" t="s">
+      <c r="A383" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B383" s="24" t="s">
+      <c r="B383" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="C383" s="26" t="s">
+      <c r="C383" s="46" t="s">
         <v>2459</v>
       </c>
-      <c r="D383" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E383" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F383" s="28">
+      <c r="D383" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E383" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383" s="48">
         <v>8</v>
       </c>
       <c r="G383" s="29">
@@ -20853,22 +20853,22 @@
       </c>
     </row>
     <row r="384" spans="1:7" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="39" t="s">
+      <c r="A384" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B384" s="24" t="s">
+      <c r="B384" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="C384" s="26" t="s">
+      <c r="C384" s="46" t="s">
         <v>2460</v>
       </c>
-      <c r="D384" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E384" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F384" s="28">
+      <c r="D384" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E384" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384" s="48">
         <v>8</v>
       </c>
       <c r="G384" s="29">
@@ -20876,22 +20876,22 @@
       </c>
     </row>
     <row r="385" spans="1:7" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="39" t="s">
+      <c r="A385" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B385" s="24" t="s">
+      <c r="B385" s="47" t="s">
         <v>530</v>
       </c>
-      <c r="C385" s="26" t="s">
+      <c r="C385" s="46" t="s">
         <v>2461</v>
       </c>
-      <c r="D385" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E385" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F385" s="28">
+      <c r="D385" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E385" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F385" s="48">
         <v>8</v>
       </c>
       <c r="G385" s="29">
@@ -20944,23 +20944,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A388" s="39" t="s">
+    <row r="388" spans="1:7" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A388" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B388" s="24" t="s">
+      <c r="B388" s="47" t="s">
         <v>533</v>
       </c>
-      <c r="C388" s="26" t="s">
+      <c r="C388" s="46" t="s">
         <v>1874</v>
       </c>
-      <c r="D388" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E388" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F388" s="28">
+      <c r="D388" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E388" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F388" s="48">
         <v>8</v>
       </c>
       <c r="G388" s="29">
@@ -21566,22 +21566,22 @@
       </c>
     </row>
     <row r="415" spans="1:7" s="29" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="39" t="s">
+      <c r="A415" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B415" s="24" t="s">
+      <c r="B415" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="C415" s="26" t="s">
+      <c r="C415" s="46" t="s">
         <v>1886</v>
       </c>
-      <c r="D415" s="26" t="s">
+      <c r="D415" s="46" t="s">
         <v>2473</v>
       </c>
-      <c r="E415" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F415" s="28">
+      <c r="E415" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F415" s="48">
         <v>8</v>
       </c>
       <c r="G415" s="29">

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABE1E9-3D00-469E-9096-DDB10F1C3364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7856B2A4-6FC1-4E9C-9BC5-B362F92238DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11313,7 +11313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11345,6 +11345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -11427,7 +11433,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11637,9 +11643,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11650,6 +11653,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12103,10 +12121,10 @@
   <dimension ref="A1:J1596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B400" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B552" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A416" sqref="A416"/>
+      <selection pane="bottomRight" activeCell="A554" sqref="A554:F554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18752,10 +18770,10 @@
         <v>1</v>
       </c>
       <c r="H291" s="32"/>
-      <c r="I291" s="71" t="s">
+      <c r="I291" s="75" t="s">
         <v>3183</v>
       </c>
-      <c r="J291" s="71"/>
+      <c r="J291" s="75"/>
     </row>
     <row r="292" spans="1:10" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="67" t="s">
@@ -18778,8 +18796,8 @@
         <v>1</v>
       </c>
       <c r="H292" s="32"/>
-      <c r="I292" s="71"/>
-      <c r="J292" s="71"/>
+      <c r="I292" s="75"/>
+      <c r="J292" s="75"/>
     </row>
     <row r="293" spans="1:10" s="14" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="45" t="s">
@@ -21221,22 +21239,22 @@
       </c>
     </row>
     <row r="400" spans="1:7" s="29" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A400" s="72" t="s">
+      <c r="A400" s="71" t="s">
         <v>489</v>
       </c>
-      <c r="B400" s="73" t="s">
+      <c r="B400" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="C400" s="74" t="s">
+      <c r="C400" s="73" t="s">
         <v>1885</v>
       </c>
-      <c r="D400" s="74" t="s">
+      <c r="D400" s="73" t="s">
         <v>2464</v>
       </c>
-      <c r="E400" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F400" s="75">
+      <c r="E400" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F400" s="74">
         <v>8</v>
       </c>
       <c r="G400" s="29">
@@ -21588,23 +21606,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A416" s="39" t="s">
+    <row r="416" spans="1:7" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A416" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B416" s="24" t="s">
+      <c r="B416" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="C416" s="26" t="s">
+      <c r="C416" s="46" t="s">
         <v>2474</v>
       </c>
-      <c r="D416" s="27" t="s">
+      <c r="D416" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E416" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F416" s="28">
+      <c r="E416" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F416" s="48">
         <v>8</v>
       </c>
       <c r="G416" s="29">
@@ -21612,22 +21630,22 @@
       </c>
     </row>
     <row r="417" spans="1:7" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="39" t="s">
+      <c r="A417" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B417" s="24" t="s">
+      <c r="B417" s="47" t="s">
         <v>550</v>
       </c>
-      <c r="C417" s="26" t="s">
+      <c r="C417" s="46" t="s">
         <v>2475</v>
       </c>
-      <c r="D417" s="26" t="s">
+      <c r="D417" s="46" t="s">
         <v>2636</v>
       </c>
-      <c r="E417" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F417" s="28">
+      <c r="E417" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F417" s="48">
         <v>8</v>
       </c>
       <c r="G417" s="29">
@@ -22199,23 +22217,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A443" s="39" t="s">
+    <row r="443" spans="1:7" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A443" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B443" s="24" t="s">
+      <c r="B443" s="47" t="s">
         <v>583</v>
       </c>
-      <c r="C443" s="27" t="s">
+      <c r="C443" s="46" t="s">
         <v>1897</v>
       </c>
-      <c r="D443" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E443" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F443" s="28">
+      <c r="D443" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E443" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F443" s="48">
         <v>8</v>
       </c>
       <c r="G443" s="29">
@@ -22407,22 +22425,22 @@
       </c>
     </row>
     <row r="452" spans="1:7" s="29" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="39" t="s">
+      <c r="A452" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="B452" s="24" t="s">
+      <c r="B452" s="47" t="s">
         <v>592</v>
       </c>
-      <c r="C452" s="27" t="s">
+      <c r="C452" s="46" t="s">
         <v>1902</v>
       </c>
-      <c r="D452" s="26" t="s">
+      <c r="D452" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="E452" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F452" s="28">
+      <c r="E452" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F452" s="48">
         <v>8</v>
       </c>
       <c r="G452" s="29">
@@ -23110,45 +23128,45 @@
       </c>
     </row>
     <row r="483" spans="1:7" s="29" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="39" t="s">
+      <c r="A483" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B483" s="24" t="s">
+      <c r="B483" s="47" t="s">
         <v>622</v>
       </c>
-      <c r="C483" s="26" t="s">
+      <c r="C483" s="46" t="s">
         <v>1915</v>
       </c>
-      <c r="D483" s="26" t="s">
+      <c r="D483" s="46" t="s">
         <v>2521</v>
       </c>
-      <c r="E483" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F483" s="28">
+      <c r="E483" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F483" s="48">
         <v>8</v>
       </c>
       <c r="G483" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A484" s="39" t="s">
+    <row r="484" spans="1:7" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A484" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B484" s="24" t="s">
+      <c r="B484" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="C484" s="26" t="s">
+      <c r="C484" s="46" t="s">
         <v>2522</v>
       </c>
-      <c r="D484" s="27" t="s">
+      <c r="D484" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E484" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F484" s="28">
+      <c r="E484" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F484" s="48">
         <v>8</v>
       </c>
       <c r="G484" s="29">
@@ -23156,22 +23174,22 @@
       </c>
     </row>
     <row r="485" spans="1:7" s="29" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="39" t="s">
+      <c r="A485" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B485" s="24" t="s">
+      <c r="B485" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="C485" s="26" t="s">
+      <c r="C485" s="46" t="s">
         <v>1916</v>
       </c>
-      <c r="D485" s="26" t="s">
+      <c r="D485" s="46" t="s">
         <v>2523</v>
       </c>
-      <c r="E485" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F485" s="28">
+      <c r="E485" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F485" s="48">
         <v>8</v>
       </c>
       <c r="G485" s="29">
@@ -23179,22 +23197,22 @@
       </c>
     </row>
     <row r="486" spans="1:7" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="39" t="s">
+      <c r="A486" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B486" s="24" t="s">
+      <c r="B486" s="47" t="s">
         <v>625</v>
       </c>
-      <c r="C486" s="26" t="s">
+      <c r="C486" s="46" t="s">
         <v>2524</v>
       </c>
-      <c r="D486" s="27" t="s">
+      <c r="D486" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E486" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F486" s="28">
+      <c r="E486" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F486" s="48">
         <v>8</v>
       </c>
       <c r="G486" s="29">
@@ -23202,22 +23220,22 @@
       </c>
     </row>
     <row r="487" spans="1:7" s="29" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="39" t="s">
+      <c r="A487" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B487" s="24" t="s">
+      <c r="B487" s="47" t="s">
         <v>626</v>
       </c>
-      <c r="C487" s="27" t="s">
+      <c r="C487" s="46" t="s">
         <v>627</v>
       </c>
-      <c r="D487" s="26" t="s">
+      <c r="D487" s="46" t="s">
         <v>2525</v>
       </c>
-      <c r="E487" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F487" s="28">
+      <c r="E487" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F487" s="48">
         <v>8</v>
       </c>
       <c r="G487" s="29">
@@ -23225,22 +23243,22 @@
       </c>
     </row>
     <row r="488" spans="1:7" s="29" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="39" t="s">
+      <c r="A488" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B488" s="24" t="s">
+      <c r="B488" s="47" t="s">
         <v>628</v>
       </c>
-      <c r="C488" s="27" t="s">
+      <c r="C488" s="46" t="s">
         <v>1917</v>
       </c>
-      <c r="D488" s="26" t="s">
+      <c r="D488" s="46" t="s">
         <v>2526</v>
       </c>
-      <c r="E488" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F488" s="28">
+      <c r="E488" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F488" s="48">
         <v>8</v>
       </c>
       <c r="G488" s="29">
@@ -23248,45 +23266,45 @@
       </c>
     </row>
     <row r="489" spans="1:7" s="29" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="39" t="s">
+      <c r="A489" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B489" s="24" t="s">
+      <c r="B489" s="47" t="s">
         <v>629</v>
       </c>
-      <c r="C489" s="27" t="s">
+      <c r="C489" s="46" t="s">
         <v>1918</v>
       </c>
-      <c r="D489" s="26" t="s">
+      <c r="D489" s="46" t="s">
         <v>2527</v>
       </c>
-      <c r="E489" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F489" s="28">
+      <c r="E489" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F489" s="48">
         <v>8</v>
       </c>
       <c r="G489" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A490" s="39" t="s">
+    <row r="490" spans="1:7" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A490" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B490" s="24" t="s">
+      <c r="B490" s="47" t="s">
         <v>630</v>
       </c>
-      <c r="C490" s="26" t="s">
+      <c r="C490" s="46" t="s">
         <v>2528</v>
       </c>
-      <c r="D490" s="27" t="s">
+      <c r="D490" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E490" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F490" s="28">
+      <c r="E490" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F490" s="48">
         <v>8</v>
       </c>
       <c r="G490" s="29">
@@ -23570,114 +23588,114 @@
       </c>
     </row>
     <row r="503" spans="1:7" s="29" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="39" t="s">
+      <c r="A503" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B503" s="24" t="s">
+      <c r="B503" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="C503" s="27" t="s">
+      <c r="C503" s="46" t="s">
         <v>1925</v>
       </c>
-      <c r="D503" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E503" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F503" s="28">
+      <c r="D503" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E503" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F503" s="48">
         <v>8</v>
       </c>
       <c r="G503" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A504" s="39" t="s">
+    <row r="504" spans="1:7" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A504" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B504" s="24" t="s">
+      <c r="B504" s="47" t="s">
         <v>645</v>
       </c>
-      <c r="C504" s="26" t="s">
+      <c r="C504" s="46" t="s">
         <v>1926</v>
       </c>
-      <c r="D504" s="26" t="s">
+      <c r="D504" s="46" t="s">
         <v>2529</v>
       </c>
-      <c r="E504" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F504" s="28">
+      <c r="E504" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F504" s="48">
         <v>8</v>
       </c>
       <c r="G504" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A505" s="39" t="s">
+    <row r="505" spans="1:7" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A505" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B505" s="24" t="s">
+      <c r="B505" s="47" t="s">
         <v>646</v>
       </c>
-      <c r="C505" s="26" t="s">
+      <c r="C505" s="46" t="s">
         <v>2530</v>
       </c>
-      <c r="D505" s="27" t="s">
+      <c r="D505" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E505" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F505" s="28">
+      <c r="E505" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F505" s="48">
         <v>8</v>
       </c>
       <c r="G505" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A506" s="39" t="s">
+    <row r="506" spans="1:7" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A506" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B506" s="24" t="s">
+      <c r="B506" s="47" t="s">
         <v>647</v>
       </c>
-      <c r="C506" s="26" t="s">
+      <c r="C506" s="46" t="s">
         <v>2531</v>
       </c>
-      <c r="D506" s="27" t="s">
+      <c r="D506" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E506" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F506" s="28">
+      <c r="E506" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F506" s="48">
         <v>8</v>
       </c>
       <c r="G506" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A507" s="39" t="s">
+    <row r="507" spans="1:7" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A507" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B507" s="24" t="s">
+      <c r="B507" s="47" t="s">
         <v>648</v>
       </c>
-      <c r="C507" s="26" t="s">
+      <c r="C507" s="46" t="s">
         <v>2532</v>
       </c>
-      <c r="D507" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E507" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F507" s="28">
+      <c r="D507" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E507" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F507" s="48">
         <v>8</v>
       </c>
       <c r="G507" s="29">
@@ -23685,45 +23703,45 @@
       </c>
     </row>
     <row r="508" spans="1:7" s="29" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="39" t="s">
+      <c r="A508" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B508" s="24" t="s">
+      <c r="B508" s="47" t="s">
         <v>649</v>
       </c>
-      <c r="C508" s="27" t="s">
+      <c r="C508" s="46" t="s">
         <v>1927</v>
       </c>
-      <c r="D508" s="26" t="s">
+      <c r="D508" s="46" t="s">
         <v>2529</v>
       </c>
-      <c r="E508" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F508" s="28">
+      <c r="E508" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F508" s="48">
         <v>8</v>
       </c>
       <c r="G508" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A509" s="39" t="s">
+    <row r="509" spans="1:7" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A509" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B509" s="24" t="s">
+      <c r="B509" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="C509" s="26" t="s">
+      <c r="C509" s="46" t="s">
         <v>2530</v>
       </c>
-      <c r="D509" s="27" t="s">
+      <c r="D509" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E509" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F509" s="28">
+      <c r="E509" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F509" s="48">
         <v>8</v>
       </c>
       <c r="G509" s="29">
@@ -23731,22 +23749,22 @@
       </c>
     </row>
     <row r="510" spans="1:7" s="29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="39" t="s">
+      <c r="A510" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B510" s="24" t="s">
+      <c r="B510" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="C510" s="26" t="s">
+      <c r="C510" s="46" t="s">
         <v>2533</v>
       </c>
-      <c r="D510" s="27" t="s">
+      <c r="D510" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E510" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F510" s="28">
+      <c r="E510" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F510" s="48">
         <v>8</v>
       </c>
       <c r="G510" s="29">
@@ -23754,22 +23772,22 @@
       </c>
     </row>
     <row r="511" spans="1:7" s="29" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="39" t="s">
+      <c r="A511" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B511" s="24" t="s">
+      <c r="B511" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="C511" s="27" t="s">
+      <c r="C511" s="46" t="s">
         <v>1928</v>
       </c>
-      <c r="D511" s="26" t="s">
+      <c r="D511" s="46" t="s">
         <v>2534</v>
       </c>
-      <c r="E511" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F511" s="28">
+      <c r="E511" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F511" s="48">
         <v>8</v>
       </c>
       <c r="G511" s="29">
@@ -23800,22 +23818,22 @@
       </c>
     </row>
     <row r="513" spans="1:7" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="39" t="s">
+      <c r="A513" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="B513" s="24" t="s">
+      <c r="B513" s="47" t="s">
         <v>654</v>
       </c>
-      <c r="C513" s="27" t="s">
+      <c r="C513" s="46" t="s">
         <v>655</v>
       </c>
-      <c r="D513" s="27" t="s">
+      <c r="D513" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E513" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F513" s="28">
+      <c r="E513" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F513" s="48">
         <v>8</v>
       </c>
       <c r="G513" s="29">
@@ -23823,22 +23841,22 @@
       </c>
     </row>
     <row r="514" spans="1:7" s="29" customFormat="1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A514" s="45" t="s">
+      <c r="A514" s="76" t="s">
         <v>621</v>
       </c>
-      <c r="B514" s="47" t="s">
+      <c r="B514" s="77" t="s">
         <v>656</v>
       </c>
-      <c r="C514" s="46" t="s">
+      <c r="C514" s="78" t="s">
         <v>657</v>
       </c>
-      <c r="D514" s="46" t="s">
+      <c r="D514" s="78" t="s">
         <v>2536</v>
       </c>
-      <c r="E514" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F514" s="48">
+      <c r="E514" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F514" s="79">
         <v>8</v>
       </c>
       <c r="G514" s="29">
@@ -24665,68 +24683,68 @@
       </c>
     </row>
     <row r="552" spans="1:7" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="39" t="s">
+      <c r="A552" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="B552" s="24" t="s">
+      <c r="B552" s="47" t="s">
         <v>692</v>
       </c>
-      <c r="C552" s="27" t="s">
+      <c r="C552" s="46" t="s">
         <v>1931</v>
       </c>
-      <c r="D552" s="27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E552" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F552" s="28">
+      <c r="D552" s="46" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E552" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F552" s="48">
         <v>8</v>
       </c>
       <c r="G552" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:7" s="29" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A553" s="39" t="s">
+    <row r="553" spans="1:7" s="29" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A553" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="B553" s="24" t="s">
+      <c r="B553" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="C553" s="27" t="s">
+      <c r="C553" s="46" t="s">
         <v>1932</v>
       </c>
-      <c r="D553" s="26" t="s">
+      <c r="D553" s="46" t="s">
         <v>2558</v>
       </c>
-      <c r="E553" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F553" s="28">
+      <c r="E553" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F553" s="48">
         <v>8</v>
       </c>
       <c r="G553" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:7" s="29" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A554" s="39" t="s">
+    <row r="554" spans="1:7" s="29" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A554" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="B554" s="24" t="s">
+      <c r="B554" s="47" t="s">
         <v>694</v>
       </c>
-      <c r="C554" s="27" t="s">
+      <c r="C554" s="46" t="s">
         <v>1933</v>
       </c>
-      <c r="D554" s="27" t="s">
+      <c r="D554" s="46" t="s">
         <v>2559</v>
       </c>
-      <c r="E554" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F554" s="28">
+      <c r="E554" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F554" s="48">
         <v>8</v>
       </c>
       <c r="G554" s="29">

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34CD1B8-2E8F-4905-B0C3-E8E955C828D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F9004F-C6F4-4D7E-913A-9CF398D8EAD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F9004F-C6F4-4D7E-913A-9CF398D8EAD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4537AD-7B89-448F-8AF9-F84AD979F624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7564" uniqueCount="3184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37820" uniqueCount="3184">
   <si>
     <t>NOMBRE TABLA</t>
   </si>
@@ -11439,7 +11439,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11655,9 +11655,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11683,6 +11680,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12139,7 +12142,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B676" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A680" sqref="A680:F680"/>
+      <selection pane="bottomRight" activeCell="A768" sqref="A768:F768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18785,10 +18788,10 @@
         <v>1</v>
       </c>
       <c r="H291" s="32"/>
-      <c r="I291" s="73" t="s">
+      <c r="I291" s="82" t="s">
         <v>3183</v>
       </c>
-      <c r="J291" s="73"/>
+      <c r="J291" s="82"/>
     </row>
     <row r="292" spans="1:10" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="65" t="s">
@@ -18811,8 +18814,8 @@
         <v>1</v>
       </c>
       <c r="H292" s="32"/>
-      <c r="I292" s="73"/>
-      <c r="J292" s="73"/>
+      <c r="I292" s="82"/>
+      <c r="J292" s="82"/>
     </row>
     <row r="293" spans="1:10" s="14" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="43" t="s">
@@ -23856,22 +23859,22 @@
       </c>
     </row>
     <row r="514" spans="1:7" s="29" customFormat="1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A514" s="74" t="s">
+      <c r="A514" s="73" t="s">
         <v>621</v>
       </c>
-      <c r="B514" s="75" t="s">
+      <c r="B514" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="C514" s="76" t="s">
+      <c r="C514" s="75" t="s">
         <v>657</v>
       </c>
-      <c r="D514" s="76" t="s">
+      <c r="D514" s="75" t="s">
         <v>2536</v>
       </c>
-      <c r="E514" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F514" s="77">
+      <c r="E514" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F514" s="76">
         <v>8</v>
       </c>
       <c r="G514" s="29">
@@ -27249,22 +27252,22 @@
       </c>
     </row>
     <row r="665" spans="1:7" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A665" s="78" t="s">
+      <c r="A665" s="77" t="s">
         <v>690</v>
       </c>
-      <c r="B665" s="79" t="s">
+      <c r="B665" s="78" t="s">
         <v>820</v>
       </c>
-      <c r="C665" s="80" t="s">
+      <c r="C665" s="79" t="s">
         <v>821</v>
       </c>
-      <c r="D665" s="81" t="s">
+      <c r="D665" s="80" t="s">
         <v>2636</v>
       </c>
-      <c r="E665" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F665" s="82">
+      <c r="E665" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F665" s="81">
         <v>8</v>
       </c>
       <c r="G665" s="29">
@@ -27272,22 +27275,22 @@
       </c>
     </row>
     <row r="666" spans="1:7" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A666" s="78" t="s">
+      <c r="A666" s="77" t="s">
         <v>690</v>
       </c>
-      <c r="B666" s="79" t="s">
+      <c r="B666" s="78" t="s">
         <v>822</v>
       </c>
-      <c r="C666" s="81" t="s">
+      <c r="C666" s="80" t="s">
         <v>2535</v>
       </c>
-      <c r="D666" s="80" t="s">
+      <c r="D666" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E666" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F666" s="82">
+      <c r="E666" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F666" s="81">
         <v>8</v>
       </c>
       <c r="G666" s="29">
@@ -29592,20 +29595,20 @@
       </c>
     </row>
     <row r="768" spans="1:7" s="29" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="38" t="s">
+      <c r="A768" s="77" t="s">
         <v>925</v>
       </c>
-      <c r="B768" s="25" t="s">
+      <c r="B768" s="83" t="s">
         <v>939</v>
       </c>
-      <c r="C768" s="26" t="s">
+      <c r="C768" s="80" t="s">
         <v>2717</v>
       </c>
-      <c r="D768" s="26"/>
-      <c r="E768" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F768" s="28">
+      <c r="D768" s="80"/>
+      <c r="E768" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F768" s="81">
         <v>8</v>
       </c>
       <c r="G768" s="29">

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992B70E7-08D7-471D-8C45-841F051220E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D4AD9-3ECF-4F82-B49F-1D9960B3E09E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11430,7 +11430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -11438,6 +11438,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11689,8 +11692,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
+    <cellStyle name="Estilo 1" xfId="7" xr:uid="{076A080A-000F-42CD-84D2-1B7C3F9144FD}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Incorrecto" xfId="5" builtinId="27"/>
     <cellStyle name="Neutral" xfId="6" builtinId="28"/>
@@ -12139,10 +12143,10 @@
   <dimension ref="A1:J1596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B818" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B827" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C819" sqref="C819"/>
+      <selection pane="bottomRight" activeCell="A832" sqref="A832:F832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14494,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" s="14" customFormat="1" ht="13.5" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
         <v>119</v>
       </c>
@@ -14517,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="14" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" s="14" customFormat="1" ht="64.5" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
         <v>119</v>
       </c>
@@ -14540,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="14" customFormat="1" ht="13.5" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
         <v>119</v>
       </c>
@@ -14563,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" s="14" customFormat="1" ht="26.25" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
         <v>119</v>
       </c>
@@ -14586,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="14" customFormat="1" ht="39" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
         <v>119</v>
       </c>
@@ -14609,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="14" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="14" customFormat="1" ht="115.5" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
         <v>119</v>
       </c>
@@ -27724,7 +27728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:7" s="14" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" s="14" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A686" s="36" t="s">
         <v>840</v>
       </c>
@@ -27744,10 +27748,10 @@
         <v>1</v>
       </c>
       <c r="G686" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A687" s="36" t="s">
         <v>840</v>
       </c>
@@ -27767,10 +27771,10 @@
         <v>8</v>
       </c>
       <c r="G687" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A688" s="36" t="s">
         <v>840</v>
       </c>
@@ -27790,10 +27794,10 @@
         <v>8</v>
       </c>
       <c r="G688" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A689" s="36" t="s">
         <v>840</v>
       </c>
@@ -27813,10 +27817,10 @@
         <v>8</v>
       </c>
       <c r="G689" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A690" s="36" t="s">
         <v>840</v>
       </c>
@@ -27836,10 +27840,10 @@
         <v>8</v>
       </c>
       <c r="G690" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A691" s="36" t="s">
         <v>840</v>
       </c>
@@ -27859,10 +27863,10 @@
         <v>8</v>
       </c>
       <c r="G691" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A692" s="36" t="s">
         <v>840</v>
       </c>
@@ -27882,10 +27886,10 @@
         <v>8</v>
       </c>
       <c r="G692" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A693" s="36" t="s">
         <v>840</v>
       </c>
@@ -27905,10 +27909,10 @@
         <v>8</v>
       </c>
       <c r="G693" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A694" s="36" t="s">
         <v>840</v>
       </c>
@@ -27928,10 +27932,10 @@
         <v>8</v>
       </c>
       <c r="G694" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" s="14" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="36" t="s">
         <v>840</v>
       </c>
@@ -27951,10 +27955,10 @@
         <v>8</v>
       </c>
       <c r="G695" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696" spans="1:7" s="14" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" s="14" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A696" s="36" t="s">
         <v>840</v>
       </c>
@@ -27974,10 +27978,10 @@
         <v>8</v>
       </c>
       <c r="G696" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:7" s="14" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" s="14" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A697" s="36" t="s">
         <v>840</v>
       </c>
@@ -27997,10 +28001,10 @@
         <v>8</v>
       </c>
       <c r="G697" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:7" s="14" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="36" t="s">
         <v>840</v>
       </c>
@@ -28020,10 +28024,10 @@
         <v>8</v>
       </c>
       <c r="G698" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A699" s="36" t="s">
         <v>840</v>
       </c>
@@ -28043,10 +28047,10 @@
         <v>8</v>
       </c>
       <c r="G699" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A700" s="36" t="s">
         <v>840</v>
       </c>
@@ -28066,10 +28070,10 @@
         <v>8</v>
       </c>
       <c r="G700" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A701" s="36" t="s">
         <v>840</v>
       </c>
@@ -28089,10 +28093,10 @@
         <v>8</v>
       </c>
       <c r="G701" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A702" s="36" t="s">
         <v>840</v>
       </c>
@@ -28112,10 +28116,10 @@
         <v>8</v>
       </c>
       <c r="G702" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A703" s="36" t="s">
         <v>840</v>
       </c>
@@ -28135,10 +28139,10 @@
         <v>8</v>
       </c>
       <c r="G703" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A704" s="36" t="s">
         <v>840</v>
       </c>
@@ -28158,10 +28162,10 @@
         <v>8</v>
       </c>
       <c r="G704" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="705" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A705" s="36" t="s">
         <v>840</v>
       </c>
@@ -28181,10 +28185,10 @@
         <v>8</v>
       </c>
       <c r="G705" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="706" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A706" s="36" t="s">
         <v>840</v>
       </c>
@@ -28204,10 +28208,10 @@
         <v>8</v>
       </c>
       <c r="G706" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A707" s="36" t="s">
         <v>840</v>
       </c>
@@ -28227,10 +28231,10 @@
         <v>8</v>
       </c>
       <c r="G707" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A708" s="36" t="s">
         <v>840</v>
       </c>
@@ -28250,10 +28254,10 @@
         <v>8</v>
       </c>
       <c r="G708" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A709" s="36" t="s">
         <v>840</v>
       </c>
@@ -28273,10 +28277,10 @@
         <v>8</v>
       </c>
       <c r="G709" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="710" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A710" s="36" t="s">
         <v>840</v>
       </c>
@@ -28296,10 +28300,10 @@
         <v>8</v>
       </c>
       <c r="G710" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A711" s="36" t="s">
         <v>840</v>
       </c>
@@ -28319,10 +28323,10 @@
         <v>8</v>
       </c>
       <c r="G711" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A712" s="36" t="s">
         <v>840</v>
       </c>
@@ -28342,10 +28346,10 @@
         <v>8</v>
       </c>
       <c r="G712" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A713" s="36" t="s">
         <v>840</v>
       </c>
@@ -28365,10 +28369,10 @@
         <v>8</v>
       </c>
       <c r="G713" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A714" s="36" t="s">
         <v>840</v>
       </c>
@@ -28388,10 +28392,10 @@
         <v>8</v>
       </c>
       <c r="G714" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A715" s="36" t="s">
         <v>840</v>
       </c>
@@ -28411,10 +28415,10 @@
         <v>8</v>
       </c>
       <c r="G715" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A716" s="36" t="s">
         <v>840</v>
       </c>
@@ -28434,10 +28438,10 @@
         <v>8</v>
       </c>
       <c r="G716" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="1:7" s="14" customFormat="1" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="36" t="s">
         <v>840</v>
       </c>
@@ -28457,10 +28461,10 @@
         <v>8</v>
       </c>
       <c r="G717" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="1:7" s="14" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="36" t="s">
         <v>840</v>
       </c>
@@ -28480,10 +28484,10 @@
         <v>8</v>
       </c>
       <c r="G718" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719" spans="1:7" s="14" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="36" t="s">
         <v>840</v>
       </c>
@@ -28503,10 +28507,10 @@
         <v>8</v>
       </c>
       <c r="G719" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720" spans="1:7" s="14" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="36" t="s">
         <v>840</v>
       </c>
@@ -28526,10 +28530,10 @@
         <v>8</v>
       </c>
       <c r="G720" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A721" s="36" t="s">
         <v>840</v>
       </c>
@@ -28549,10 +28553,10 @@
         <v>8</v>
       </c>
       <c r="G721" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A722" s="36" t="s">
         <v>840</v>
       </c>
@@ -28572,10 +28576,10 @@
         <v>8</v>
       </c>
       <c r="G722" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A723" s="36" t="s">
         <v>840</v>
       </c>
@@ -28595,10 +28599,10 @@
         <v>8</v>
       </c>
       <c r="G723" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A724" s="36" t="s">
         <v>840</v>
       </c>
@@ -28618,10 +28622,10 @@
         <v>8</v>
       </c>
       <c r="G724" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="1:7" s="14" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" s="14" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="36" t="s">
         <v>840</v>
       </c>
@@ -28641,10 +28645,10 @@
         <v>8</v>
       </c>
       <c r="G725" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726" spans="1:7" s="14" customFormat="1" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" s="14" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="36" t="s">
         <v>840</v>
       </c>
@@ -28664,10 +28668,10 @@
         <v>8</v>
       </c>
       <c r="G726" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="1:7" s="14" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="36" t="s">
         <v>840</v>
       </c>
@@ -28685,10 +28689,10 @@
         <v>8</v>
       </c>
       <c r="G727" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A728" s="36" t="s">
         <v>840</v>
       </c>
@@ -28706,10 +28710,10 @@
         <v>8</v>
       </c>
       <c r="G728" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A729" s="36" t="s">
         <v>840</v>
       </c>
@@ -28727,10 +28731,10 @@
         <v>8</v>
       </c>
       <c r="G729" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="36" t="s">
         <v>840</v>
       </c>
@@ -28750,10 +28754,10 @@
         <v>8</v>
       </c>
       <c r="G730" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="36" t="s">
         <v>840</v>
       </c>
@@ -28773,10 +28777,10 @@
         <v>8</v>
       </c>
       <c r="G731" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="1:7" s="14" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="36" t="s">
         <v>840</v>
       </c>
@@ -28796,10 +28800,10 @@
         <v>8</v>
       </c>
       <c r="G732" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="1:7" s="14" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="41" t="s">
         <v>840</v>
       </c>
@@ -28819,10 +28823,10 @@
         <v>8</v>
       </c>
       <c r="G733" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="1:7" s="14" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="41" t="s">
         <v>840</v>
       </c>
@@ -28842,10 +28846,10 @@
         <v>8</v>
       </c>
       <c r="G734" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" s="14" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="41" t="s">
         <v>840</v>
       </c>
@@ -28865,10 +28869,10 @@
         <v>8</v>
       </c>
       <c r="G735" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736" spans="1:7" s="14" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" s="14" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="41" t="s">
         <v>840</v>
       </c>
@@ -28888,10 +28892,10 @@
         <v>8</v>
       </c>
       <c r="G736" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="1:7" s="14" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="41" t="s">
         <v>840</v>
       </c>
@@ -28911,10 +28915,10 @@
         <v>8</v>
       </c>
       <c r="G737" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="41" t="s">
         <v>840</v>
       </c>
@@ -28934,10 +28938,10 @@
         <v>8</v>
       </c>
       <c r="G738" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="41" t="s">
         <v>840</v>
       </c>
@@ -28957,10 +28961,10 @@
         <v>8</v>
       </c>
       <c r="G739" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A740" s="36" t="s">
         <v>840</v>
       </c>
@@ -28980,10 +28984,10 @@
         <v>8</v>
       </c>
       <c r="G740" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A741" s="36" t="s">
         <v>840</v>
       </c>
@@ -29003,10 +29007,10 @@
         <v>8</v>
       </c>
       <c r="G741" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A742" s="36" t="s">
         <v>840</v>
       </c>
@@ -29026,10 +29030,10 @@
         <v>8</v>
       </c>
       <c r="G742" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A743" s="36" t="s">
         <v>840</v>
       </c>
@@ -29049,10 +29053,10 @@
         <v>8</v>
       </c>
       <c r="G743" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A744" s="36" t="s">
         <v>840</v>
       </c>
@@ -29072,10 +29076,10 @@
         <v>8</v>
       </c>
       <c r="G744" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A745" s="36" t="s">
         <v>840</v>
       </c>
@@ -29095,10 +29099,10 @@
         <v>8</v>
       </c>
       <c r="G745" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A746" s="36" t="s">
         <v>840</v>
       </c>
@@ -29118,10 +29122,10 @@
         <v>8</v>
       </c>
       <c r="G746" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A747" s="36" t="s">
         <v>840</v>
       </c>
@@ -29141,10 +29145,10 @@
         <v>8</v>
       </c>
       <c r="G747" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A748" s="36" t="s">
         <v>840</v>
       </c>
@@ -29164,10 +29168,10 @@
         <v>8</v>
       </c>
       <c r="G748" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749" spans="1:7" s="14" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" s="14" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="36" t="s">
         <v>840</v>
       </c>
@@ -29187,10 +29191,10 @@
         <v>8</v>
       </c>
       <c r="G749" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="36" t="s">
         <v>840</v>
       </c>
@@ -29210,10 +29214,10 @@
         <v>8</v>
       </c>
       <c r="G750" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="36" t="s">
         <v>840</v>
       </c>
@@ -29233,10 +29237,10 @@
         <v>8</v>
       </c>
       <c r="G751" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="36" t="s">
         <v>840</v>
       </c>
@@ -29256,10 +29260,10 @@
         <v>8</v>
       </c>
       <c r="G752" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="36" t="s">
         <v>840</v>
       </c>
@@ -29279,10 +29283,10 @@
         <v>8</v>
       </c>
       <c r="G753" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="36" t="s">
         <v>840</v>
       </c>
@@ -29302,10 +29306,10 @@
         <v>8</v>
       </c>
       <c r="G754" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="36" t="s">
         <v>840</v>
       </c>
@@ -29325,10 +29329,10 @@
         <v>8</v>
       </c>
       <c r="G755" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="36" t="s">
         <v>840</v>
       </c>
@@ -29348,10 +29352,10 @@
         <v>8</v>
       </c>
       <c r="G756" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="36" t="s">
         <v>840</v>
       </c>
@@ -29371,10 +29375,10 @@
         <v>8</v>
       </c>
       <c r="G757" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="36" t="s">
         <v>840</v>
       </c>
@@ -29394,10 +29398,10 @@
         <v>8</v>
       </c>
       <c r="G758" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="36" t="s">
         <v>840</v>
       </c>
@@ -29417,10 +29421,10 @@
         <v>8</v>
       </c>
       <c r="G759" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="36" t="s">
         <v>840</v>
       </c>
@@ -29440,10 +29444,10 @@
         <v>8</v>
       </c>
       <c r="G760" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="36" t="s">
         <v>840</v>
       </c>
@@ -29463,10 +29467,10 @@
         <v>8</v>
       </c>
       <c r="G761" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="1:7" s="14" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="36" t="s">
         <v>840</v>
       </c>
@@ -29486,10 +29490,10 @@
         <v>8</v>
       </c>
       <c r="G762" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:7" s="14" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="36" t="s">
         <v>925</v>
       </c>
@@ -29507,10 +29511,10 @@
         <v>8</v>
       </c>
       <c r="G763" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="1:7" s="14" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="36" t="s">
         <v>925</v>
       </c>
@@ -29528,7 +29532,7 @@
         <v>8</v>
       </c>
       <c r="G764" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:7" s="14" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -30872,22 +30876,22 @@
       </c>
     </row>
     <row r="827" spans="1:7" s="29" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A827" s="37" t="s">
+      <c r="A827" s="42" t="s">
         <v>989</v>
       </c>
-      <c r="B827" s="24" t="s">
+      <c r="B827" s="44" t="s">
         <v>990</v>
       </c>
-      <c r="C827" s="27" t="s">
+      <c r="C827" s="43" t="s">
         <v>1955</v>
       </c>
-      <c r="D827" s="26" t="s">
+      <c r="D827" s="43" t="s">
         <v>991</v>
       </c>
-      <c r="E827" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F827" s="28">
+      <c r="E827" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F827" s="45">
         <v>8</v>
       </c>
       <c r="G827" s="29">
@@ -30987,22 +30991,22 @@
       </c>
     </row>
     <row r="832" spans="1:7" s="29" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="37" t="s">
+      <c r="A832" s="42" t="s">
         <v>989</v>
       </c>
-      <c r="B832" s="24" t="s">
+      <c r="B832" s="44" t="s">
         <v>996</v>
       </c>
-      <c r="C832" s="27" t="s">
+      <c r="C832" s="43" t="s">
         <v>1960</v>
       </c>
-      <c r="D832" s="26" t="s">
+      <c r="D832" s="43" t="s">
         <v>2768</v>
       </c>
-      <c r="E832" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F832" s="28">
+      <c r="E832" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F832" s="45">
         <v>8</v>
       </c>
       <c r="G832" s="29">

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C3EEA-2DE8-4695-8266-1D97E07FD39D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C866D-1B01-4C29-8F99-52010BA7F009}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11222,7 +11222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11299,8 +11299,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11327,6 +11334,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -11376,7 +11388,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -11386,8 +11398,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11516,17 +11529,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
     <cellStyle name="Estilo 1" xfId="6" xr:uid="{076A080A-000F-42CD-84D2-1B7C3F9144FD}"/>
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -11697,11 +11726,6 @@
   <autoFilter ref="A1:H1594" xr:uid="{7BA6E771-EFED-4A55-A56A-8EC9E3AF690F}">
     <filterColumn colId="3">
       <colorFilter dxfId="0"/>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
@@ -11984,10 +12008,10 @@
   <dimension ref="A1:J1595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B482" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A482" sqref="A482"/>
+      <selection pane="bottomRight" activeCell="C733" sqref="C733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18613,10 +18637,10 @@
       <c r="G290">
         <v>1</v>
       </c>
-      <c r="I290" s="44" t="s">
+      <c r="I290" s="47" t="s">
         <v>3181</v>
       </c>
-      <c r="J290" s="44"/>
+      <c r="J290" s="47"/>
     </row>
     <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="43" t="s">
@@ -18638,8 +18662,8 @@
       <c r="G291">
         <v>1</v>
       </c>
-      <c r="I291" s="44"/>
-      <c r="J291" s="44"/>
+      <c r="I291" s="47"/>
+      <c r="J291" s="47"/>
     </row>
     <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="43" t="s">
@@ -19907,26 +19931,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" s="46" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="45" t="s">
+    <row r="348" spans="1:7" s="45" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B348" s="45" t="s">
+      <c r="B348" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="C348" s="45" t="s">
+      <c r="C348" s="44" t="s">
         <v>2431</v>
       </c>
-      <c r="D348" s="45" t="s">
+      <c r="D348" s="44" t="s">
         <v>3030</v>
       </c>
-      <c r="E348" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F348" s="46">
-        <v>8</v>
-      </c>
-      <c r="G348" s="46">
+      <c r="E348" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F348" s="45">
+        <v>8</v>
+      </c>
+      <c r="G348" s="45">
         <v>1</v>
       </c>
     </row>
@@ -19953,26 +19977,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" s="46" customFormat="1" ht="161.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="45" t="s">
+    <row r="350" spans="1:7" s="45" customFormat="1" ht="161.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B350" s="45" t="s">
+      <c r="B350" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="C350" s="45" t="s">
+      <c r="C350" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="D350" s="45" t="s">
+      <c r="D350" s="44" t="s">
         <v>2434</v>
       </c>
-      <c r="E350" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F350" s="46">
-        <v>8</v>
-      </c>
-      <c r="G350" s="46">
+      <c r="E350" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F350" s="45">
+        <v>8</v>
+      </c>
+      <c r="G350" s="45">
         <v>1</v>
       </c>
     </row>
@@ -20114,141 +20138,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" s="46" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="45" t="s">
+    <row r="357" spans="1:7" s="45" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B357" s="45" t="s">
+      <c r="B357" s="44" t="s">
         <v>3127</v>
       </c>
-      <c r="C357" s="45" t="s">
+      <c r="C357" s="44" t="s">
         <v>3126</v>
       </c>
-      <c r="D357" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E357" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F357" s="46">
-        <v>8</v>
-      </c>
-      <c r="G357" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="45" t="s">
+      <c r="D357" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E357" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F357" s="45">
+        <v>8</v>
+      </c>
+      <c r="G357" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B358" s="46" t="s">
+      <c r="B358" s="45" t="s">
         <v>2445</v>
       </c>
-      <c r="C358" s="45" t="s">
+      <c r="C358" s="44" t="s">
         <v>2441</v>
       </c>
-      <c r="D358" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E358" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F358" s="46">
-        <v>8</v>
-      </c>
-      <c r="G358" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="45" t="s">
+      <c r="D358" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E358" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F358" s="45">
+        <v>8</v>
+      </c>
+      <c r="G358" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B359" s="46" t="s">
+      <c r="B359" s="45" t="s">
         <v>2446</v>
       </c>
-      <c r="C359" s="45" t="s">
+      <c r="C359" s="44" t="s">
         <v>2442</v>
       </c>
-      <c r="D359" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E359" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F359" s="46">
-        <v>8</v>
-      </c>
-      <c r="G359" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="45" t="s">
+      <c r="D359" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E359" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" s="45">
+        <v>8</v>
+      </c>
+      <c r="G359" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B360" s="46" t="s">
+      <c r="B360" s="45" t="s">
         <v>2447</v>
       </c>
-      <c r="C360" s="45" t="s">
+      <c r="C360" s="44" t="s">
         <v>2443</v>
       </c>
-      <c r="D360" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E360" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F360" s="46">
-        <v>8</v>
-      </c>
-      <c r="G360" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="45" t="s">
+      <c r="D360" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E360" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F360" s="45">
+        <v>8</v>
+      </c>
+      <c r="G360" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B361" s="46" t="s">
+      <c r="B361" s="45" t="s">
         <v>2448</v>
       </c>
-      <c r="C361" s="45" t="s">
+      <c r="C361" s="44" t="s">
         <v>2444</v>
       </c>
-      <c r="D361" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E361" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F361" s="46">
-        <v>8</v>
-      </c>
-      <c r="G361" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" s="46" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="45" t="s">
+      <c r="D361" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E361" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F361" s="45">
+        <v>8</v>
+      </c>
+      <c r="G361" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" s="45" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B362" s="45" t="s">
+      <c r="B362" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="C362" s="45" t="s">
+      <c r="C362" s="44" t="s">
         <v>1867</v>
       </c>
-      <c r="D362" s="45" t="s">
+      <c r="D362" s="44" t="s">
         <v>2449</v>
       </c>
-      <c r="E362" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F362" s="46">
-        <v>8</v>
-      </c>
-      <c r="G362" s="46">
+      <c r="E362" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F362" s="45">
+        <v>8</v>
+      </c>
+      <c r="G362" s="45">
         <v>1</v>
       </c>
     </row>
@@ -20459,26 +20483,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="45" t="s">
+    <row r="372" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B372" s="45" t="s">
+      <c r="B372" s="44" t="s">
         <v>518</v>
       </c>
-      <c r="C372" s="45" t="s">
+      <c r="C372" s="44" t="s">
         <v>1869</v>
       </c>
-      <c r="D372" s="45" t="s">
+      <c r="D372" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E372" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F372" s="46">
-        <v>8</v>
-      </c>
-      <c r="G372" s="46">
+      <c r="E372" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F372" s="45">
+        <v>8</v>
+      </c>
+      <c r="G372" s="45">
         <v>1</v>
       </c>
     </row>
@@ -20643,118 +20667,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" s="46" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="45" t="s">
+    <row r="380" spans="1:7" s="45" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B380" s="45" t="s">
+      <c r="B380" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="C380" s="45" t="s">
+      <c r="C380" s="44" t="s">
         <v>2457</v>
       </c>
-      <c r="D380" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E380" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F380" s="46">
-        <v>8</v>
-      </c>
-      <c r="G380" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" s="46" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="45" t="s">
+      <c r="D380" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E380" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" s="45">
+        <v>8</v>
+      </c>
+      <c r="G380" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" s="45" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B381" s="45" t="s">
+      <c r="B381" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="C381" s="45" t="s">
+      <c r="C381" s="44" t="s">
         <v>2458</v>
       </c>
-      <c r="D381" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E381" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F381" s="46">
-        <v>8</v>
-      </c>
-      <c r="G381" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" s="46" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="45" t="s">
+      <c r="D381" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E381" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F381" s="45">
+        <v>8</v>
+      </c>
+      <c r="G381" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" s="45" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B382" s="45" t="s">
+      <c r="B382" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="C382" s="45" t="s">
+      <c r="C382" s="44" t="s">
         <v>2459</v>
       </c>
-      <c r="D382" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E382" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F382" s="46">
-        <v>8</v>
-      </c>
-      <c r="G382" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" s="46" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="45" t="s">
+      <c r="D382" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E382" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" s="45">
+        <v>8</v>
+      </c>
+      <c r="G382" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" s="45" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B383" s="45" t="s">
+      <c r="B383" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="C383" s="45" t="s">
+      <c r="C383" s="44" t="s">
         <v>2460</v>
       </c>
-      <c r="D383" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E383" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F383" s="46">
-        <v>8</v>
-      </c>
-      <c r="G383" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" s="46" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="45" t="s">
+      <c r="D383" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E383" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383" s="45">
+        <v>8</v>
+      </c>
+      <c r="G383" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="45" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B384" s="45" t="s">
+      <c r="B384" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="C384" s="45" t="s">
+      <c r="C384" s="44" t="s">
         <v>2461</v>
       </c>
-      <c r="D384" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E384" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F384" s="46">
-        <v>8</v>
-      </c>
-      <c r="G384" s="46">
+      <c r="D384" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E384" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384" s="45">
+        <v>8</v>
+      </c>
+      <c r="G384" s="45">
         <v>1</v>
       </c>
     </row>
@@ -20804,26 +20828,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="45" t="s">
+    <row r="387" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B387" s="45" t="s">
+      <c r="B387" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="C387" s="45" t="s">
+      <c r="C387" s="44" t="s">
         <v>1874</v>
       </c>
-      <c r="D387" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E387" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F387" s="46">
-        <v>8</v>
-      </c>
-      <c r="G387" s="46">
+      <c r="D387" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E387" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F387" s="45">
+        <v>8</v>
+      </c>
+      <c r="G387" s="45">
         <v>1</v>
       </c>
     </row>
@@ -21080,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" s="47" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" s="46" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="36" t="s">
         <v>489</v>
       </c>
@@ -21099,7 +21123,7 @@
       <c r="F399" s="39">
         <v>8</v>
       </c>
-      <c r="G399" s="47">
+      <c r="G399" s="46">
         <v>1</v>
       </c>
     </row>
@@ -21425,72 +21449,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="46" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="45" t="s">
+    <row r="414" spans="1:7" s="45" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B414" s="45" t="s">
+      <c r="B414" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="C414" s="45" t="s">
+      <c r="C414" s="44" t="s">
         <v>1886</v>
       </c>
-      <c r="D414" s="45" t="s">
+      <c r="D414" s="44" t="s">
         <v>2473</v>
       </c>
-      <c r="E414" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F414" s="46">
-        <v>8</v>
-      </c>
-      <c r="G414" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="45" t="s">
+      <c r="E414" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F414" s="45">
+        <v>8</v>
+      </c>
+      <c r="G414" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B415" s="45" t="s">
+      <c r="B415" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="C415" s="45" t="s">
+      <c r="C415" s="44" t="s">
         <v>2474</v>
       </c>
-      <c r="D415" s="45" t="s">
+      <c r="D415" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E415" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F415" s="46">
-        <v>8</v>
-      </c>
-      <c r="G415" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" s="46" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="45" t="s">
+      <c r="E415" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F415" s="45">
+        <v>8</v>
+      </c>
+      <c r="G415" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" s="45" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B416" s="45" t="s">
+      <c r="B416" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="C416" s="45" t="s">
+      <c r="C416" s="44" t="s">
         <v>2475</v>
       </c>
-      <c r="D416" s="45" t="s">
+      <c r="D416" s="44" t="s">
         <v>2636</v>
       </c>
-      <c r="E416" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F416" s="46">
-        <v>8</v>
-      </c>
-      <c r="G416" s="46">
+      <c r="E416" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F416" s="45">
+        <v>8</v>
+      </c>
+      <c r="G416" s="45">
         <v>1</v>
       </c>
     </row>
@@ -22059,26 +22083,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" s="46" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="45" t="s">
+    <row r="442" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B442" s="45" t="s">
+      <c r="B442" s="44" t="s">
         <v>583</v>
       </c>
-      <c r="C442" s="45" t="s">
+      <c r="C442" s="44" t="s">
         <v>1897</v>
       </c>
-      <c r="D442" s="45" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E442" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F442" s="46">
-        <v>8</v>
-      </c>
-      <c r="G442" s="46">
+      <c r="D442" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E442" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F442" s="45">
+        <v>8</v>
+      </c>
+      <c r="G442" s="45">
         <v>1</v>
       </c>
     </row>
@@ -22266,49 +22290,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7" s="46" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="45" t="s">
+    <row r="451" spans="1:7" s="45" customFormat="1" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B451" s="45" t="s">
+      <c r="B451" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="C451" s="45" t="s">
+      <c r="C451" s="44" t="s">
         <v>1902</v>
       </c>
-      <c r="D451" s="45" t="s">
+      <c r="D451" s="44" t="s">
         <v>593</v>
       </c>
-      <c r="E451" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F451" s="46">
-        <v>8</v>
-      </c>
-      <c r="G451" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" s="46" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="45" t="s">
+      <c r="E451" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F451" s="45">
+        <v>8</v>
+      </c>
+      <c r="G451" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" s="45" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B452" s="45" t="s">
+      <c r="B452" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="C452" s="45" t="s">
+      <c r="C452" s="44" t="s">
         <v>1903</v>
       </c>
-      <c r="D452" s="45" t="s">
+      <c r="D452" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="E452" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F452" s="46">
-        <v>8</v>
-      </c>
-      <c r="G452" s="46">
+      <c r="E452" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F452" s="45">
+        <v>8</v>
+      </c>
+      <c r="G452" s="45">
         <v>1</v>
       </c>
     </row>
@@ -22969,187 +22993,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" s="23" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="32" t="s">
+    <row r="482" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B482" s="34" t="s">
+      <c r="B482" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="C482" s="33" t="s">
+      <c r="C482" s="44" t="s">
         <v>1915</v>
       </c>
-      <c r="D482" s="33" t="s">
+      <c r="D482" s="44" t="s">
         <v>2521</v>
       </c>
-      <c r="E482" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F482" s="35">
-        <v>8</v>
-      </c>
-      <c r="G482" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A483" s="32" t="s">
+      <c r="E482" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F482" s="45">
+        <v>8</v>
+      </c>
+      <c r="G482" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B483" s="34" t="s">
+      <c r="B483" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="C483" s="33" t="s">
+      <c r="C483" s="44" t="s">
         <v>2522</v>
       </c>
-      <c r="D483" s="33" t="s">
+      <c r="D483" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E483" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F483" s="35">
-        <v>8</v>
-      </c>
-      <c r="G483" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" s="23" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="32" t="s">
+      <c r="E483" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F483" s="45">
+        <v>8</v>
+      </c>
+      <c r="G483" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B484" s="34" t="s">
+      <c r="B484" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="C484" s="33" t="s">
+      <c r="C484" s="44" t="s">
         <v>1916</v>
       </c>
-      <c r="D484" s="33" t="s">
+      <c r="D484" s="44" t="s">
         <v>2523</v>
       </c>
-      <c r="E484" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F484" s="35">
-        <v>8</v>
-      </c>
-      <c r="G484" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="32" t="s">
+      <c r="E484" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F484" s="45">
+        <v>8</v>
+      </c>
+      <c r="G484" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B485" s="34" t="s">
+      <c r="B485" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="C485" s="33" t="s">
+      <c r="C485" s="44" t="s">
         <v>2524</v>
       </c>
-      <c r="D485" s="33" t="s">
+      <c r="D485" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E485" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F485" s="35">
-        <v>8</v>
-      </c>
-      <c r="G485" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" s="23" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="32" t="s">
+      <c r="E485" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F485" s="45">
+        <v>8</v>
+      </c>
+      <c r="G485" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B486" s="34" t="s">
+      <c r="B486" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="C486" s="33" t="s">
+      <c r="C486" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="D486" s="33" t="s">
+      <c r="D486" s="44" t="s">
         <v>2525</v>
       </c>
-      <c r="E486" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F486" s="35">
-        <v>8</v>
-      </c>
-      <c r="G486" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" s="23" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="32" t="s">
+      <c r="E486" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F486" s="45">
+        <v>8</v>
+      </c>
+      <c r="G486" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B487" s="34" t="s">
+      <c r="B487" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="C487" s="33" t="s">
+      <c r="C487" s="44" t="s">
         <v>1917</v>
       </c>
-      <c r="D487" s="33" t="s">
+      <c r="D487" s="44" t="s">
         <v>2526</v>
       </c>
-      <c r="E487" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F487" s="35">
-        <v>8</v>
-      </c>
-      <c r="G487" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" s="23" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="32" t="s">
+      <c r="E487" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F487" s="45">
+        <v>8</v>
+      </c>
+      <c r="G487" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B488" s="34" t="s">
+      <c r="B488" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="C488" s="33" t="s">
+      <c r="C488" s="44" t="s">
         <v>1918</v>
       </c>
-      <c r="D488" s="33" t="s">
+      <c r="D488" s="44" t="s">
         <v>2527</v>
       </c>
-      <c r="E488" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F488" s="35">
-        <v>8</v>
-      </c>
-      <c r="G488" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A489" s="32" t="s">
+      <c r="E488" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F488" s="45">
+        <v>8</v>
+      </c>
+      <c r="G488" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B489" s="34" t="s">
+      <c r="B489" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="C489" s="33" t="s">
+      <c r="C489" s="44" t="s">
         <v>2528</v>
       </c>
-      <c r="D489" s="33" t="s">
+      <c r="D489" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E489" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F489" s="35">
-        <v>8</v>
-      </c>
-      <c r="G489" s="23">
+      <c r="E489" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F489" s="45">
+        <v>8</v>
+      </c>
+      <c r="G489" s="45">
         <v>1</v>
       </c>
     </row>
@@ -23429,279 +23453,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7" s="23" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="32" t="s">
+    <row r="502" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B502" s="34" t="s">
+      <c r="B502" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="C502" s="33" t="s">
+      <c r="C502" s="44" t="s">
         <v>1925</v>
       </c>
-      <c r="D502" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E502" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F502" s="35">
-        <v>8</v>
-      </c>
-      <c r="G502" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A503" s="32" t="s">
+      <c r="D502" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E502" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F502" s="45">
+        <v>8</v>
+      </c>
+      <c r="G502" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B503" s="34" t="s">
+      <c r="B503" s="44" t="s">
         <v>645</v>
       </c>
-      <c r="C503" s="33" t="s">
+      <c r="C503" s="44" t="s">
         <v>1926</v>
       </c>
-      <c r="D503" s="33" t="s">
+      <c r="D503" s="44" t="s">
         <v>2529</v>
       </c>
-      <c r="E503" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F503" s="35">
-        <v>8</v>
-      </c>
-      <c r="G503" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A504" s="32" t="s">
+      <c r="E503" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F503" s="45">
+        <v>8</v>
+      </c>
+      <c r="G503" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B504" s="34" t="s">
+      <c r="B504" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="C504" s="33" t="s">
+      <c r="C504" s="44" t="s">
         <v>2530</v>
       </c>
-      <c r="D504" s="33" t="s">
+      <c r="D504" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E504" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F504" s="35">
-        <v>8</v>
-      </c>
-      <c r="G504" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A505" s="32" t="s">
+      <c r="E504" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F504" s="45">
+        <v>8</v>
+      </c>
+      <c r="G504" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B505" s="34" t="s">
+      <c r="B505" s="44" t="s">
         <v>647</v>
       </c>
-      <c r="C505" s="33" t="s">
+      <c r="C505" s="44" t="s">
         <v>2531</v>
       </c>
-      <c r="D505" s="33" t="s">
+      <c r="D505" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E505" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F505" s="35">
-        <v>8</v>
-      </c>
-      <c r="G505" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A506" s="32" t="s">
+      <c r="E505" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F505" s="45">
+        <v>8</v>
+      </c>
+      <c r="G505" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B506" s="34" t="s">
+      <c r="B506" s="44" t="s">
         <v>648</v>
       </c>
-      <c r="C506" s="33" t="s">
+      <c r="C506" s="44" t="s">
         <v>2532</v>
       </c>
-      <c r="D506" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E506" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F506" s="35">
-        <v>8</v>
-      </c>
-      <c r="G506" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="32" t="s">
+      <c r="D506" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E506" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F506" s="45">
+        <v>8</v>
+      </c>
+      <c r="G506" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B507" s="34" t="s">
+      <c r="B507" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="C507" s="33" t="s">
+      <c r="C507" s="44" t="s">
         <v>1927</v>
       </c>
-      <c r="D507" s="33" t="s">
+      <c r="D507" s="44" t="s">
         <v>2529</v>
       </c>
-      <c r="E507" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F507" s="35">
-        <v>8</v>
-      </c>
-      <c r="G507" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A508" s="32" t="s">
+      <c r="E507" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F507" s="45">
+        <v>8</v>
+      </c>
+      <c r="G507" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B508" s="34" t="s">
+      <c r="B508" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="C508" s="33" t="s">
+      <c r="C508" s="44" t="s">
         <v>2530</v>
       </c>
-      <c r="D508" s="33" t="s">
+      <c r="D508" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E508" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F508" s="35">
-        <v>8</v>
-      </c>
-      <c r="G508" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" s="23" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="32" t="s">
+      <c r="E508" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F508" s="45">
+        <v>8</v>
+      </c>
+      <c r="G508" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B509" s="34" t="s">
+      <c r="B509" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="C509" s="33" t="s">
+      <c r="C509" s="44" t="s">
         <v>2533</v>
       </c>
-      <c r="D509" s="33" t="s">
+      <c r="D509" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E509" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F509" s="35">
-        <v>8</v>
-      </c>
-      <c r="G509" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="32" t="s">
+      <c r="E509" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F509" s="45">
+        <v>8</v>
+      </c>
+      <c r="G509" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B510" s="34" t="s">
+      <c r="B510" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="C510" s="33" t="s">
+      <c r="C510" s="44" t="s">
         <v>1928</v>
       </c>
-      <c r="D510" s="33" t="s">
+      <c r="D510" s="44" t="s">
         <v>2534</v>
       </c>
-      <c r="E510" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F510" s="35">
-        <v>8</v>
-      </c>
-      <c r="G510" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A511" s="32" t="s">
+      <c r="E510" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F510" s="45">
+        <v>8</v>
+      </c>
+      <c r="G510" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B511" s="34" t="s">
+      <c r="B511" s="44" t="s">
         <v>653</v>
       </c>
-      <c r="C511" s="33" t="s">
+      <c r="C511" s="44" t="s">
         <v>2535</v>
       </c>
-      <c r="D511" s="33" t="s">
+      <c r="D511" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E511" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F511" s="35">
-        <v>8</v>
-      </c>
-      <c r="G511" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="32" t="s">
+      <c r="E511" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F511" s="45">
+        <v>8</v>
+      </c>
+      <c r="G511" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" s="45" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B512" s="34" t="s">
+      <c r="B512" s="44" t="s">
         <v>654</v>
       </c>
-      <c r="C512" s="33" t="s">
+      <c r="C512" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="D512" s="33" t="s">
+      <c r="D512" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E512" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F512" s="35">
-        <v>8</v>
-      </c>
-      <c r="G512" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" s="23" customFormat="1" ht="195" x14ac:dyDescent="0.2">
-      <c r="A513" s="32" t="s">
+      <c r="E512" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F512" s="45">
+        <v>8</v>
+      </c>
+      <c r="G512" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B513" s="34" t="s">
+      <c r="B513" s="44" t="s">
         <v>656</v>
       </c>
-      <c r="C513" s="33" t="s">
+      <c r="C513" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="D513" s="33" t="s">
+      <c r="D513" s="44" t="s">
         <v>2536</v>
       </c>
-      <c r="E513" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F513" s="35">
-        <v>8</v>
-      </c>
-      <c r="G513" s="23">
+      <c r="E513" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F513" s="45">
+        <v>8</v>
+      </c>
+      <c r="G513" s="45">
         <v>1</v>
       </c>
     </row>
@@ -24524,93 +24548,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="32" t="s">
+    <row r="551" spans="1:7" s="45" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B551" s="34" t="s">
+      <c r="B551" s="44" t="s">
         <v>692</v>
       </c>
-      <c r="C551" s="33" t="s">
+      <c r="C551" s="44" t="s">
         <v>1931</v>
       </c>
-      <c r="D551" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E551" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F551" s="35">
-        <v>8</v>
-      </c>
-      <c r="G551" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" s="23" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A552" s="32" t="s">
+      <c r="D551" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E551" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F551" s="45">
+        <v>8</v>
+      </c>
+      <c r="G551" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" s="45" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B552" s="34" t="s">
+      <c r="B552" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="C552" s="33" t="s">
+      <c r="C552" s="44" t="s">
         <v>1932</v>
       </c>
-      <c r="D552" s="33" t="s">
+      <c r="D552" s="44" t="s">
         <v>2558</v>
       </c>
-      <c r="E552" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F552" s="35">
-        <v>8</v>
-      </c>
-      <c r="G552" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" s="23" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A553" s="32" t="s">
+      <c r="E552" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F552" s="45">
+        <v>8</v>
+      </c>
+      <c r="G552" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" s="45" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B553" s="34" t="s">
+      <c r="B553" s="44" t="s">
         <v>694</v>
       </c>
-      <c r="C553" s="33" t="s">
+      <c r="C553" s="44" t="s">
         <v>1933</v>
       </c>
-      <c r="D553" s="33" t="s">
+      <c r="D553" s="44" t="s">
         <v>2559</v>
       </c>
-      <c r="E553" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F553" s="35">
-        <v>8</v>
-      </c>
-      <c r="G553" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A554" s="32" t="s">
+      <c r="E553" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F553" s="45">
+        <v>8</v>
+      </c>
+      <c r="G553" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B554" s="34" t="s">
+      <c r="B554" s="44" t="s">
         <v>695</v>
       </c>
-      <c r="C554" s="33" t="s">
+      <c r="C554" s="44" t="s">
         <v>696</v>
       </c>
-      <c r="D554" s="33"/>
-      <c r="E554" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F554" s="35">
-        <v>8</v>
-      </c>
-      <c r="G554" s="23">
+      <c r="D554" s="44"/>
+      <c r="E554" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F554" s="45">
+        <v>8</v>
+      </c>
+      <c r="G554" s="45">
         <v>1</v>
       </c>
     </row>
@@ -24681,26 +24705,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A558" s="32" t="s">
+    <row r="558" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B558" s="34" t="s">
+      <c r="B558" s="44" t="s">
         <v>702</v>
       </c>
-      <c r="C558" s="33" t="s">
+      <c r="C558" s="44" t="s">
         <v>703</v>
       </c>
-      <c r="D558" s="33" t="s">
+      <c r="D558" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E558" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F558" s="35">
-        <v>8</v>
-      </c>
-      <c r="G558" s="23">
+      <c r="E558" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F558" s="45">
+        <v>8</v>
+      </c>
+      <c r="G558" s="45">
         <v>1</v>
       </c>
     </row>
@@ -25089,394 +25113,394 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A576" s="32" t="s">
+    <row r="576" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B576" s="34" t="s">
+      <c r="B576" s="44" t="s">
         <v>725</v>
       </c>
-      <c r="C576" s="33" t="s">
+      <c r="C576" s="44" t="s">
         <v>2571</v>
       </c>
-      <c r="D576" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E576" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F576" s="35">
-        <v>8</v>
-      </c>
-      <c r="G576" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A577" s="32" t="s">
+      <c r="D576" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E576" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F576" s="45">
+        <v>8</v>
+      </c>
+      <c r="G576" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B577" s="34" t="s">
+      <c r="B577" s="44" t="s">
         <v>726</v>
       </c>
-      <c r="C577" s="33" t="s">
+      <c r="C577" s="44" t="s">
         <v>2572</v>
       </c>
-      <c r="D577" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E577" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F577" s="35">
-        <v>8</v>
-      </c>
-      <c r="G577" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A578" s="32" t="s">
+      <c r="D577" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E577" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F577" s="45">
+        <v>8</v>
+      </c>
+      <c r="G577" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B578" s="34" t="s">
+      <c r="B578" s="44" t="s">
         <v>727</v>
       </c>
-      <c r="C578" s="33" t="s">
+      <c r="C578" s="44" t="s">
         <v>2573</v>
       </c>
-      <c r="D578" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E578" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F578" s="35">
-        <v>8</v>
-      </c>
-      <c r="G578" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A579" s="32" t="s">
+      <c r="D578" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E578" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F578" s="45">
+        <v>8</v>
+      </c>
+      <c r="G578" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B579" s="34" t="s">
+      <c r="B579" s="44" t="s">
         <v>728</v>
       </c>
-      <c r="C579" s="33" t="s">
+      <c r="C579" s="44" t="s">
         <v>2574</v>
       </c>
-      <c r="D579" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E579" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F579" s="35">
-        <v>8</v>
-      </c>
-      <c r="G579" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="580" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A580" s="32" t="s">
+      <c r="D579" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E579" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F579" s="45">
+        <v>8</v>
+      </c>
+      <c r="G579" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B580" s="34" t="s">
+      <c r="B580" s="44" t="s">
         <v>729</v>
       </c>
-      <c r="C580" s="33" t="s">
+      <c r="C580" s="44" t="s">
         <v>2575</v>
       </c>
-      <c r="D580" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E580" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F580" s="35">
-        <v>8</v>
-      </c>
-      <c r="G580" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A581" s="32" t="s">
+      <c r="D580" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E580" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F580" s="45">
+        <v>8</v>
+      </c>
+      <c r="G580" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B581" s="34" t="s">
+      <c r="B581" s="44" t="s">
         <v>730</v>
       </c>
-      <c r="C581" s="33" t="s">
+      <c r="C581" s="44" t="s">
         <v>2576</v>
       </c>
-      <c r="D581" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E581" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F581" s="35">
-        <v>8</v>
-      </c>
-      <c r="G581" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A582" s="32" t="s">
+      <c r="D581" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E581" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F581" s="45">
+        <v>8</v>
+      </c>
+      <c r="G581" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B582" s="34" t="s">
+      <c r="B582" s="44" t="s">
         <v>731</v>
       </c>
-      <c r="C582" s="33" t="s">
+      <c r="C582" s="44" t="s">
         <v>2577</v>
       </c>
-      <c r="D582" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E582" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F582" s="35">
-        <v>8</v>
-      </c>
-      <c r="G582" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A583" s="32" t="s">
+      <c r="D582" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E582" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F582" s="45">
+        <v>8</v>
+      </c>
+      <c r="G582" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B583" s="34" t="s">
+      <c r="B583" s="44" t="s">
         <v>732</v>
       </c>
-      <c r="C583" s="33" t="s">
+      <c r="C583" s="44" t="s">
         <v>2578</v>
       </c>
-      <c r="D583" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E583" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F583" s="35">
-        <v>8</v>
-      </c>
-      <c r="G583" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A584" s="32" t="s">
+      <c r="D583" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E583" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F583" s="45">
+        <v>8</v>
+      </c>
+      <c r="G583" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B584" s="34" t="s">
+      <c r="B584" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="C584" s="33" t="s">
+      <c r="C584" s="44" t="s">
         <v>2579</v>
       </c>
-      <c r="D584" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E584" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F584" s="35">
-        <v>8</v>
-      </c>
-      <c r="G584" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A585" s="32" t="s">
+      <c r="D584" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E584" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F584" s="45">
+        <v>8</v>
+      </c>
+      <c r="G584" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B585" s="34" t="s">
+      <c r="B585" s="44" t="s">
         <v>734</v>
       </c>
-      <c r="C585" s="33" t="s">
+      <c r="C585" s="44" t="s">
         <v>2580</v>
       </c>
-      <c r="D585" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E585" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F585" s="35">
-        <v>8</v>
-      </c>
-      <c r="G585" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A586" s="32" t="s">
+      <c r="D585" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E585" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F585" s="45">
+        <v>8</v>
+      </c>
+      <c r="G585" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B586" s="34" t="s">
+      <c r="B586" s="44" t="s">
         <v>735</v>
       </c>
-      <c r="C586" s="33" t="s">
+      <c r="C586" s="44" t="s">
         <v>2581</v>
       </c>
-      <c r="D586" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E586" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F586" s="35">
-        <v>8</v>
-      </c>
-      <c r="G586" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A587" s="32" t="s">
+      <c r="D586" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E586" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F586" s="45">
+        <v>8</v>
+      </c>
+      <c r="G586" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B587" s="34" t="s">
+      <c r="B587" s="44" t="s">
         <v>736</v>
       </c>
-      <c r="C587" s="33" t="s">
+      <c r="C587" s="44" t="s">
         <v>2582</v>
       </c>
-      <c r="D587" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E587" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F587" s="35">
-        <v>8</v>
-      </c>
-      <c r="G587" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A588" s="32" t="s">
+      <c r="D587" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E587" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F587" s="45">
+        <v>8</v>
+      </c>
+      <c r="G587" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B588" s="34" t="s">
+      <c r="B588" s="44" t="s">
         <v>737</v>
       </c>
-      <c r="C588" s="33" t="s">
+      <c r="C588" s="44" t="s">
         <v>2583</v>
       </c>
-      <c r="D588" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E588" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F588" s="35">
-        <v>8</v>
-      </c>
-      <c r="G588" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A589" s="32" t="s">
+      <c r="D588" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E588" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F588" s="45">
+        <v>8</v>
+      </c>
+      <c r="G588" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B589" s="34" t="s">
+      <c r="B589" s="44" t="s">
         <v>738</v>
       </c>
-      <c r="C589" s="33" t="s">
+      <c r="C589" s="44" t="s">
         <v>2584</v>
       </c>
-      <c r="D589" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E589" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F589" s="35">
-        <v>8</v>
-      </c>
-      <c r="G589" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A590" s="32" t="s">
+      <c r="D589" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E589" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F589" s="45">
+        <v>8</v>
+      </c>
+      <c r="G589" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B590" s="34" t="s">
+      <c r="B590" s="44" t="s">
         <v>739</v>
       </c>
-      <c r="C590" s="33" t="s">
+      <c r="C590" s="44" t="s">
         <v>2585</v>
       </c>
-      <c r="D590" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E590" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F590" s="35">
-        <v>8</v>
-      </c>
-      <c r="G590" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A591" s="32" t="s">
+      <c r="D590" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E590" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F590" s="45">
+        <v>8</v>
+      </c>
+      <c r="G590" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B591" s="34" t="s">
+      <c r="B591" s="44" t="s">
         <v>740</v>
       </c>
-      <c r="C591" s="33" t="s">
+      <c r="C591" s="44" t="s">
         <v>2586</v>
       </c>
-      <c r="D591" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E591" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F591" s="35">
-        <v>8</v>
-      </c>
-      <c r="G591" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="32" t="s">
+      <c r="D591" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E591" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F591" s="45">
+        <v>8</v>
+      </c>
+      <c r="G591" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B592" s="34" t="s">
+      <c r="B592" s="44" t="s">
         <v>741</v>
       </c>
-      <c r="C592" s="33" t="s">
+      <c r="C592" s="44" t="s">
         <v>2587</v>
       </c>
-      <c r="D592" s="33" t="s">
+      <c r="D592" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E592" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F592" s="35">
-        <v>8</v>
-      </c>
-      <c r="G592" s="23">
+      <c r="E592" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F592" s="45">
+        <v>8</v>
+      </c>
+      <c r="G592" s="45">
         <v>1</v>
       </c>
     </row>
@@ -25503,7 +25527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="28" t="s">
         <v>690</v>
       </c>
@@ -25526,7 +25550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="28" t="s">
         <v>690</v>
       </c>
@@ -25549,7 +25573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:7" s="13" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" s="13" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="28" t="s">
         <v>690</v>
       </c>
@@ -25572,7 +25596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="28" t="s">
         <v>690</v>
       </c>
@@ -25595,7 +25619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:7" s="13" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" s="13" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="28" t="s">
         <v>690</v>
       </c>
@@ -25618,7 +25642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="28" t="s">
         <v>690</v>
       </c>
@@ -25641,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:7" s="13" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" s="13" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="28" t="s">
         <v>690</v>
       </c>
@@ -25664,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="28" t="s">
         <v>690</v>
       </c>
@@ -25687,7 +25711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:7" s="13" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" s="13" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="28" t="s">
         <v>690</v>
       </c>
@@ -25710,7 +25734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="28" t="s">
         <v>690</v>
       </c>
@@ -25756,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="28" t="s">
         <v>690</v>
       </c>
@@ -25802,7 +25826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:7" s="13" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="28" t="s">
         <v>690</v>
       </c>
@@ -25892,7 +25916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:7" s="13" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" s="13" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="31" t="s">
         <v>690</v>
       </c>
@@ -25915,7 +25939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:7" s="13" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" s="13" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="31" t="s">
         <v>690</v>
       </c>
@@ -25936,7 +25960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:7" s="13" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="31" t="s">
         <v>690</v>
       </c>
@@ -25959,7 +25983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:7" s="13" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" s="13" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="31" t="s">
         <v>690</v>
       </c>
@@ -25982,7 +26006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:7" s="13" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" s="13" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="28" t="s">
         <v>690</v>
       </c>
@@ -26005,7 +26029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:7" s="13" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" s="13" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="28" t="s">
         <v>690</v>
       </c>
@@ -26026,7 +26050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:7" s="13" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" s="13" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="28" t="s">
         <v>690</v>
       </c>
@@ -26047,7 +26071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:7" s="13" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" s="13" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="28" t="s">
         <v>690</v>
       </c>
@@ -26068,7 +26092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:7" s="13" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" s="13" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="28" t="s">
         <v>690</v>
       </c>
@@ -26089,7 +26113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:7" s="13" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" s="13" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="28" t="s">
         <v>690</v>
       </c>
@@ -26173,7 +26197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:7" s="13" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" s="13" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="28" t="s">
         <v>690</v>
       </c>
@@ -26194,263 +26218,263 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="23" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="32" t="s">
+    <row r="625" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B625" s="34" t="s">
+      <c r="B625" s="44" t="s">
         <v>780</v>
       </c>
-      <c r="C625" s="33" t="s">
+      <c r="C625" s="44" t="s">
         <v>1943</v>
       </c>
-      <c r="D625" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E625" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F625" s="35">
-        <v>8</v>
-      </c>
-      <c r="G625" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="32" t="s">
+      <c r="D625" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E625" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F625" s="45">
+        <v>8</v>
+      </c>
+      <c r="G625" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B626" s="34" t="s">
+      <c r="B626" s="44" t="s">
         <v>781</v>
       </c>
-      <c r="C626" s="33" t="s">
+      <c r="C626" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="D626" s="33" t="s">
+      <c r="D626" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E626" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F626" s="35">
-        <v>8</v>
-      </c>
-      <c r="G626" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="627" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="32" t="s">
+      <c r="E626" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F626" s="45">
+        <v>8</v>
+      </c>
+      <c r="G626" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B627" s="34" t="s">
+      <c r="B627" s="44" t="s">
         <v>782</v>
       </c>
-      <c r="C627" s="33" t="s">
+      <c r="C627" s="44" t="s">
         <v>783</v>
       </c>
-      <c r="D627" s="33" t="s">
+      <c r="D627" s="44" t="s">
         <v>2455</v>
       </c>
-      <c r="E627" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F627" s="35">
-        <v>8</v>
-      </c>
-      <c r="G627" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="628" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="32" t="s">
+      <c r="E627" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F627" s="45">
+        <v>8</v>
+      </c>
+      <c r="G627" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B628" s="34" t="s">
+      <c r="B628" s="44" t="s">
         <v>784</v>
       </c>
-      <c r="C628" s="33" t="s">
+      <c r="C628" s="44" t="s">
         <v>2604</v>
       </c>
-      <c r="D628" s="33" t="s">
+      <c r="D628" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="E628" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F628" s="35">
-        <v>8</v>
-      </c>
-      <c r="G628" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="629" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A629" s="32" t="s">
+      <c r="E628" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F628" s="45">
+        <v>8</v>
+      </c>
+      <c r="G628" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B629" s="34" t="s">
+      <c r="B629" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C629" s="33" t="s">
+      <c r="C629" s="44" t="s">
         <v>2605</v>
       </c>
-      <c r="D629" s="33"/>
-      <c r="E629" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F629" s="35">
-        <v>8</v>
-      </c>
-      <c r="G629" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="630" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="32" t="s">
+      <c r="D629" s="44"/>
+      <c r="E629" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F629" s="45">
+        <v>8</v>
+      </c>
+      <c r="G629" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B630" s="34" t="s">
+      <c r="B630" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="C630" s="33" t="s">
+      <c r="C630" s="44" t="s">
         <v>2606</v>
       </c>
-      <c r="D630" s="33"/>
-      <c r="E630" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F630" s="35">
-        <v>8</v>
-      </c>
-      <c r="G630" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="631" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="32" t="s">
+      <c r="D630" s="44"/>
+      <c r="E630" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F630" s="45">
+        <v>8</v>
+      </c>
+      <c r="G630" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B631" s="34" t="s">
+      <c r="B631" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="C631" s="33" t="s">
+      <c r="C631" s="44" t="s">
         <v>2607</v>
       </c>
-      <c r="D631" s="33"/>
-      <c r="E631" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F631" s="35">
-        <v>8</v>
-      </c>
-      <c r="G631" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="632" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="32" t="s">
+      <c r="D631" s="44"/>
+      <c r="E631" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F631" s="45">
+        <v>8</v>
+      </c>
+      <c r="G631" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B632" s="34" t="s">
+      <c r="B632" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C632" s="33" t="s">
+      <c r="C632" s="44" t="s">
         <v>2608</v>
       </c>
-      <c r="D632" s="33"/>
-      <c r="E632" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F632" s="35">
-        <v>8</v>
-      </c>
-      <c r="G632" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="633" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="32" t="s">
+      <c r="D632" s="44"/>
+      <c r="E632" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F632" s="45">
+        <v>8</v>
+      </c>
+      <c r="G632" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B633" s="34" t="s">
+      <c r="B633" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C633" s="33" t="s">
+      <c r="C633" s="44" t="s">
         <v>2611</v>
       </c>
-      <c r="D633" s="33"/>
-      <c r="E633" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F633" s="35">
-        <v>8</v>
-      </c>
-      <c r="G633" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="32" t="s">
+      <c r="D633" s="44"/>
+      <c r="E633" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F633" s="45">
+        <v>8</v>
+      </c>
+      <c r="G633" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B634" s="34" t="s">
+      <c r="B634" s="44" t="s">
         <v>790</v>
       </c>
-      <c r="C634" s="33" t="s">
+      <c r="C634" s="44" t="s">
         <v>2609</v>
       </c>
-      <c r="D634" s="33"/>
-      <c r="E634" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F634" s="35">
-        <v>8</v>
-      </c>
-      <c r="G634" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="635" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="32" t="s">
+      <c r="D634" s="44"/>
+      <c r="E634" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F634" s="45">
+        <v>8</v>
+      </c>
+      <c r="G634" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B635" s="34" t="s">
+      <c r="B635" s="44" t="s">
         <v>791</v>
       </c>
-      <c r="C635" s="33" t="s">
+      <c r="C635" s="44" t="s">
         <v>2610</v>
       </c>
-      <c r="D635" s="33"/>
-      <c r="E635" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F635" s="35">
-        <v>8</v>
-      </c>
-      <c r="G635" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A636" s="32" t="s">
+      <c r="D635" s="44"/>
+      <c r="E635" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F635" s="45">
+        <v>8</v>
+      </c>
+      <c r="G635" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B636" s="34" t="s">
+      <c r="B636" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="C636" s="33" t="s">
+      <c r="C636" s="44" t="s">
         <v>2612</v>
       </c>
-      <c r="D636" s="33"/>
-      <c r="E636" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F636" s="35">
-        <v>8</v>
-      </c>
-      <c r="G636" s="23">
+      <c r="D636" s="44"/>
+      <c r="E636" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F636" s="45">
+        <v>8</v>
+      </c>
+      <c r="G636" s="45">
         <v>1</v>
       </c>
     </row>
@@ -27052,72 +27076,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A663" s="32" t="s">
+    <row r="663" spans="1:7" s="45" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B663" s="34" t="s">
+      <c r="B663" s="44" t="s">
         <v>819</v>
       </c>
-      <c r="C663" s="33" t="s">
+      <c r="C663" s="44" t="s">
         <v>1944</v>
       </c>
-      <c r="D663" s="33" t="s">
+      <c r="D663" s="44" t="s">
         <v>2635</v>
       </c>
-      <c r="E663" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F663" s="35">
-        <v>8</v>
-      </c>
-      <c r="G663" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="664" spans="1:7" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A664" s="32" t="s">
+      <c r="E663" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F663" s="45">
+        <v>8</v>
+      </c>
+      <c r="G663" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" s="45" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B664" s="34" t="s">
+      <c r="B664" s="44" t="s">
         <v>820</v>
       </c>
-      <c r="C664" s="33" t="s">
+      <c r="C664" s="44" t="s">
         <v>821</v>
       </c>
-      <c r="D664" s="33" t="s">
+      <c r="D664" s="44" t="s">
         <v>2636</v>
       </c>
-      <c r="E664" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F664" s="35">
-        <v>8</v>
-      </c>
-      <c r="G664" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="665" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A665" s="32" t="s">
+      <c r="E664" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F664" s="45">
+        <v>8</v>
+      </c>
+      <c r="G664" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B665" s="34" t="s">
+      <c r="B665" s="44" t="s">
         <v>822</v>
       </c>
-      <c r="C665" s="33" t="s">
+      <c r="C665" s="44" t="s">
         <v>2535</v>
       </c>
-      <c r="D665" s="33" t="s">
+      <c r="D665" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E665" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F665" s="35">
-        <v>8</v>
-      </c>
-      <c r="G665" s="23">
+      <c r="E665" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F665" s="45">
+        <v>8</v>
+      </c>
+      <c r="G665" s="45">
         <v>1</v>
       </c>
     </row>
@@ -27167,279 +27191,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A668" s="32" t="s">
+    <row r="668" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B668" s="34" t="s">
+      <c r="B668" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C668" s="33" t="s">
+      <c r="C668" s="44" t="s">
         <v>2638</v>
       </c>
-      <c r="D668" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E668" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F668" s="35">
-        <v>8</v>
-      </c>
-      <c r="G668" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="669" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A669" s="32" t="s">
+      <c r="D668" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E668" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F668" s="45">
+        <v>8</v>
+      </c>
+      <c r="G668" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B669" s="34" t="s">
+      <c r="B669" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C669" s="33" t="s">
+      <c r="C669" s="44" t="s">
         <v>2639</v>
       </c>
-      <c r="D669" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E669" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F669" s="35">
-        <v>8</v>
-      </c>
-      <c r="G669" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A670" s="32" t="s">
+      <c r="D669" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E669" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F669" s="45">
+        <v>8</v>
+      </c>
+      <c r="G669" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B670" s="34" t="s">
+      <c r="B670" s="44" t="s">
         <v>829</v>
       </c>
-      <c r="C670" s="33" t="s">
+      <c r="C670" s="44" t="s">
         <v>2640</v>
       </c>
-      <c r="D670" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E670" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F670" s="35">
-        <v>8</v>
-      </c>
-      <c r="G670" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="671" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A671" s="32" t="s">
+      <c r="D670" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E670" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F670" s="45">
+        <v>8</v>
+      </c>
+      <c r="G670" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B671" s="34" t="s">
+      <c r="B671" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C671" s="33" t="s">
+      <c r="C671" s="44" t="s">
         <v>2641</v>
       </c>
-      <c r="D671" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E671" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F671" s="35">
-        <v>8</v>
-      </c>
-      <c r="G671" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A672" s="32" t="s">
+      <c r="D671" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E671" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F671" s="45">
+        <v>8</v>
+      </c>
+      <c r="G671" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B672" s="34" t="s">
+      <c r="B672" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="C672" s="33" t="s">
+      <c r="C672" s="44" t="s">
         <v>2642</v>
       </c>
-      <c r="D672" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E672" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F672" s="35">
-        <v>8</v>
-      </c>
-      <c r="G672" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A673" s="32" t="s">
+      <c r="D672" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E672" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F672" s="45">
+        <v>8</v>
+      </c>
+      <c r="G672" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B673" s="34" t="s">
+      <c r="B673" s="44" t="s">
         <v>832</v>
       </c>
-      <c r="C673" s="33" t="s">
+      <c r="C673" s="44" t="s">
         <v>2646</v>
       </c>
-      <c r="D673" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E673" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F673" s="35">
-        <v>8</v>
-      </c>
-      <c r="G673" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A674" s="32" t="s">
+      <c r="D673" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E673" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F673" s="45">
+        <v>8</v>
+      </c>
+      <c r="G673" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B674" s="34" t="s">
+      <c r="B674" s="44" t="s">
         <v>833</v>
       </c>
-      <c r="C674" s="33" t="s">
+      <c r="C674" s="44" t="s">
         <v>2643</v>
       </c>
-      <c r="D674" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E674" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F674" s="35">
-        <v>8</v>
-      </c>
-      <c r="G674" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A675" s="32" t="s">
+      <c r="D674" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E674" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F674" s="45">
+        <v>8</v>
+      </c>
+      <c r="G674" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B675" s="34" t="s">
+      <c r="B675" s="44" t="s">
         <v>834</v>
       </c>
-      <c r="C675" s="33" t="s">
+      <c r="C675" s="44" t="s">
         <v>2644</v>
       </c>
-      <c r="D675" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E675" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F675" s="35">
-        <v>8</v>
-      </c>
-      <c r="G675" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A676" s="32" t="s">
+      <c r="D675" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E675" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F675" s="45">
+        <v>8</v>
+      </c>
+      <c r="G675" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B676" s="34" t="s">
+      <c r="B676" s="44" t="s">
         <v>835</v>
       </c>
-      <c r="C676" s="33" t="s">
+      <c r="C676" s="44" t="s">
         <v>2645</v>
       </c>
-      <c r="D676" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E676" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F676" s="35">
-        <v>8</v>
-      </c>
-      <c r="G676" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A677" s="32" t="s">
+      <c r="D676" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E676" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F676" s="45">
+        <v>8</v>
+      </c>
+      <c r="G676" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B677" s="34" t="s">
+      <c r="B677" s="44" t="s">
         <v>836</v>
       </c>
-      <c r="C677" s="33" t="s">
+      <c r="C677" s="44" t="s">
         <v>2647</v>
       </c>
-      <c r="D677" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E677" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F677" s="35">
-        <v>8</v>
-      </c>
-      <c r="G677" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:7" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A678" s="32" t="s">
+      <c r="D677" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E677" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F677" s="45">
+        <v>8</v>
+      </c>
+      <c r="G677" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" s="52" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="48" t="s">
         <v>690</v>
       </c>
-      <c r="B678" s="34" t="s">
+      <c r="B678" s="49" t="s">
         <v>837</v>
       </c>
-      <c r="C678" s="33" t="s">
+      <c r="C678" s="50" t="s">
         <v>2648</v>
       </c>
-      <c r="D678" s="33" t="s">
+      <c r="D678" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E678" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F678" s="35">
-        <v>8</v>
-      </c>
-      <c r="G678" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A679" s="32" t="s">
+      <c r="E678" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F678" s="51">
+        <v>8</v>
+      </c>
+      <c r="G678" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" s="45" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="B679" s="34" t="s">
+      <c r="B679" s="44" t="s">
         <v>838</v>
       </c>
-      <c r="C679" s="33" t="s">
+      <c r="C679" s="44" t="s">
         <v>839</v>
       </c>
-      <c r="D679" s="33" t="s">
+      <c r="D679" s="44" t="s">
         <v>2649</v>
       </c>
-      <c r="E679" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F679" s="35">
-        <v>8</v>
-      </c>
-      <c r="G679" s="23">
+      <c r="E679" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F679" s="45">
+        <v>8</v>
+      </c>
+      <c r="G679" s="45">
         <v>1</v>
       </c>
     </row>
@@ -27548,1009 +27572,1009 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.2">
-      <c r="A685" s="32" t="s">
+    <row r="685" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B685" s="34" t="s">
+      <c r="B685" s="44" t="s">
         <v>841</v>
       </c>
-      <c r="C685" s="33" t="s">
+      <c r="C685" s="44" t="s">
         <v>1945</v>
       </c>
-      <c r="D685" s="33" t="s">
+      <c r="D685" s="44" t="s">
         <v>842</v>
       </c>
-      <c r="E685" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F685" s="35">
-        <v>1</v>
-      </c>
-      <c r="G685" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="686" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A686" s="32" t="s">
+      <c r="E685" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F685" s="45">
+        <v>1</v>
+      </c>
+      <c r="G685" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B686" s="34" t="s">
+      <c r="B686" s="44" t="s">
         <v>843</v>
       </c>
-      <c r="C686" s="33" t="s">
+      <c r="C686" s="44" t="s">
         <v>2650</v>
       </c>
-      <c r="D686" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E686" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F686" s="35">
-        <v>8</v>
-      </c>
-      <c r="G686" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A687" s="32" t="s">
+      <c r="D686" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E686" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F686" s="45">
+        <v>8</v>
+      </c>
+      <c r="G686" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B687" s="34" t="s">
+      <c r="B687" s="44" t="s">
         <v>844</v>
       </c>
-      <c r="C687" s="33" t="s">
+      <c r="C687" s="44" t="s">
         <v>2651</v>
       </c>
-      <c r="D687" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E687" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F687" s="35">
-        <v>8</v>
-      </c>
-      <c r="G687" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="688" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A688" s="32" t="s">
+      <c r="D687" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E687" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F687" s="45">
+        <v>8</v>
+      </c>
+      <c r="G687" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B688" s="34" t="s">
+      <c r="B688" s="44" t="s">
         <v>845</v>
       </c>
-      <c r="C688" s="33" t="s">
+      <c r="C688" s="44" t="s">
         <v>2652</v>
       </c>
-      <c r="D688" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E688" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F688" s="35">
-        <v>8</v>
-      </c>
-      <c r="G688" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A689" s="32" t="s">
+      <c r="D688" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E688" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F688" s="45">
+        <v>8</v>
+      </c>
+      <c r="G688" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B689" s="34" t="s">
+      <c r="B689" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="C689" s="33" t="s">
+      <c r="C689" s="44" t="s">
         <v>2653</v>
       </c>
-      <c r="D689" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E689" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F689" s="35">
-        <v>8</v>
-      </c>
-      <c r="G689" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A690" s="32" t="s">
+      <c r="D689" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E689" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F689" s="45">
+        <v>8</v>
+      </c>
+      <c r="G689" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B690" s="34" t="s">
+      <c r="B690" s="44" t="s">
         <v>847</v>
       </c>
-      <c r="C690" s="33" t="s">
+      <c r="C690" s="44" t="s">
         <v>2654</v>
       </c>
-      <c r="D690" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E690" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F690" s="35">
-        <v>8</v>
-      </c>
-      <c r="G690" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="691" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A691" s="32" t="s">
+      <c r="D690" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E690" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F690" s="45">
+        <v>8</v>
+      </c>
+      <c r="G690" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B691" s="34" t="s">
+      <c r="B691" s="44" t="s">
         <v>848</v>
       </c>
-      <c r="C691" s="33" t="s">
+      <c r="C691" s="44" t="s">
         <v>2655</v>
       </c>
-      <c r="D691" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E691" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F691" s="35">
-        <v>8</v>
-      </c>
-      <c r="G691" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="692" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A692" s="32" t="s">
+      <c r="D691" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E691" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F691" s="45">
+        <v>8</v>
+      </c>
+      <c r="G691" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B692" s="34" t="s">
+      <c r="B692" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="C692" s="33" t="s">
+      <c r="C692" s="44" t="s">
         <v>2656</v>
       </c>
-      <c r="D692" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E692" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F692" s="35">
-        <v>8</v>
-      </c>
-      <c r="G692" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A693" s="32" t="s">
+      <c r="D692" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E692" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F692" s="45">
+        <v>8</v>
+      </c>
+      <c r="G692" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B693" s="34" t="s">
+      <c r="B693" s="44" t="s">
         <v>850</v>
       </c>
-      <c r="C693" s="33" t="s">
+      <c r="C693" s="44" t="s">
         <v>2657</v>
       </c>
-      <c r="D693" s="33" t="s">
+      <c r="D693" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E693" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F693" s="35">
-        <v>8</v>
-      </c>
-      <c r="G693" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:7" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A694" s="32" t="s">
+      <c r="E693" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F693" s="45">
+        <v>8</v>
+      </c>
+      <c r="G693" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" s="45" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B694" s="34" t="s">
+      <c r="B694" s="44" t="s">
         <v>851</v>
       </c>
-      <c r="C694" s="33" t="s">
+      <c r="C694" s="44" t="s">
         <v>1946</v>
       </c>
-      <c r="D694" s="33" t="s">
+      <c r="D694" s="44" t="s">
         <v>852</v>
       </c>
-      <c r="E694" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F694" s="35">
-        <v>8</v>
-      </c>
-      <c r="G694" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="695" spans="1:7" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A695" s="32" t="s">
+      <c r="E694" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F694" s="45">
+        <v>8</v>
+      </c>
+      <c r="G694" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B695" s="34" t="s">
+      <c r="B695" s="44" t="s">
         <v>853</v>
       </c>
-      <c r="C695" s="33" t="s">
+      <c r="C695" s="44" t="s">
         <v>1947</v>
       </c>
-      <c r="D695" s="33" t="s">
+      <c r="D695" s="44" t="s">
         <v>854</v>
       </c>
-      <c r="E695" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F695" s="35">
-        <v>8</v>
-      </c>
-      <c r="G695" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="696" spans="1:7" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.2">
-      <c r="A696" s="32" t="s">
+      <c r="E695" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F695" s="45">
+        <v>8</v>
+      </c>
+      <c r="G695" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B696" s="34" t="s">
+      <c r="B696" s="44" t="s">
         <v>855</v>
       </c>
-      <c r="C696" s="33" t="s">
+      <c r="C696" s="44" t="s">
         <v>1948</v>
       </c>
-      <c r="D696" s="33" t="s">
+      <c r="D696" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="E696" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F696" s="35">
-        <v>8</v>
-      </c>
-      <c r="G696" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="697" spans="1:7" s="13" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A697" s="32" t="s">
+      <c r="E696" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F696" s="45">
+        <v>8</v>
+      </c>
+      <c r="G696" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" s="45" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B697" s="34" t="s">
+      <c r="B697" s="44" t="s">
         <v>857</v>
       </c>
-      <c r="C697" s="33" t="s">
+      <c r="C697" s="44" t="s">
         <v>2659</v>
       </c>
-      <c r="D697" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E697" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F697" s="35">
-        <v>8</v>
-      </c>
-      <c r="G697" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="698" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A698" s="32" t="s">
+      <c r="D697" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E697" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F697" s="45">
+        <v>8</v>
+      </c>
+      <c r="G697" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B698" s="34" t="s">
+      <c r="B698" s="44" t="s">
         <v>858</v>
       </c>
-      <c r="C698" s="33" t="s">
+      <c r="C698" s="44" t="s">
         <v>2660</v>
       </c>
-      <c r="D698" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E698" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F698" s="35">
-        <v>8</v>
-      </c>
-      <c r="G698" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="699" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A699" s="32" t="s">
+      <c r="D698" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E698" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F698" s="45">
+        <v>8</v>
+      </c>
+      <c r="G698" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B699" s="34" t="s">
+      <c r="B699" s="44" t="s">
         <v>859</v>
       </c>
-      <c r="C699" s="33" t="s">
+      <c r="C699" s="44" t="s">
         <v>2661</v>
       </c>
-      <c r="D699" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E699" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F699" s="35">
-        <v>8</v>
-      </c>
-      <c r="G699" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="700" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A700" s="32" t="s">
+      <c r="D699" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E699" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F699" s="45">
+        <v>8</v>
+      </c>
+      <c r="G699" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B700" s="34" t="s">
+      <c r="B700" s="44" t="s">
         <v>860</v>
       </c>
-      <c r="C700" s="33" t="s">
+      <c r="C700" s="44" t="s">
         <v>2662</v>
       </c>
-      <c r="D700" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E700" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F700" s="35">
-        <v>8</v>
-      </c>
-      <c r="G700" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="701" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A701" s="32" t="s">
+      <c r="D700" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E700" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F700" s="45">
+        <v>8</v>
+      </c>
+      <c r="G700" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B701" s="34" t="s">
+      <c r="B701" s="44" t="s">
         <v>861</v>
       </c>
-      <c r="C701" s="33" t="s">
+      <c r="C701" s="44" t="s">
         <v>2658</v>
       </c>
-      <c r="D701" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E701" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F701" s="35">
-        <v>8</v>
-      </c>
-      <c r="G701" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="702" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A702" s="32" t="s">
+      <c r="D701" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E701" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F701" s="45">
+        <v>8</v>
+      </c>
+      <c r="G701" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B702" s="34" t="s">
+      <c r="B702" s="44" t="s">
         <v>862</v>
       </c>
-      <c r="C702" s="33" t="s">
+      <c r="C702" s="44" t="s">
         <v>2663</v>
       </c>
-      <c r="D702" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E702" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F702" s="35">
-        <v>8</v>
-      </c>
-      <c r="G702" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="703" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A703" s="32" t="s">
+      <c r="D702" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E702" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F702" s="45">
+        <v>8</v>
+      </c>
+      <c r="G702" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B703" s="34" t="s">
+      <c r="B703" s="44" t="s">
         <v>863</v>
       </c>
-      <c r="C703" s="33" t="s">
+      <c r="C703" s="44" t="s">
         <v>2664</v>
       </c>
-      <c r="D703" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E703" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F703" s="35">
-        <v>8</v>
-      </c>
-      <c r="G703" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="704" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A704" s="32" t="s">
+      <c r="D703" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E703" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F703" s="45">
+        <v>8</v>
+      </c>
+      <c r="G703" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B704" s="34" t="s">
+      <c r="B704" s="44" t="s">
         <v>864</v>
       </c>
-      <c r="C704" s="33" t="s">
+      <c r="C704" s="44" t="s">
         <v>2665</v>
       </c>
-      <c r="D704" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E704" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F704" s="35">
-        <v>8</v>
-      </c>
-      <c r="G704" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="705" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A705" s="32" t="s">
+      <c r="D704" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E704" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F704" s="45">
+        <v>8</v>
+      </c>
+      <c r="G704" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B705" s="34" t="s">
+      <c r="B705" s="44" t="s">
         <v>865</v>
       </c>
-      <c r="C705" s="33" t="s">
+      <c r="C705" s="44" t="s">
         <v>2666</v>
       </c>
-      <c r="D705" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E705" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F705" s="35">
-        <v>8</v>
-      </c>
-      <c r="G705" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="706" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A706" s="32" t="s">
+      <c r="D705" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E705" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F705" s="45">
+        <v>8</v>
+      </c>
+      <c r="G705" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B706" s="34" t="s">
+      <c r="B706" s="44" t="s">
         <v>866</v>
       </c>
-      <c r="C706" s="33" t="s">
+      <c r="C706" s="44" t="s">
         <v>2667</v>
       </c>
-      <c r="D706" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E706" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F706" s="35">
-        <v>8</v>
-      </c>
-      <c r="G706" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="707" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A707" s="32" t="s">
+      <c r="D706" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E706" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F706" s="45">
+        <v>8</v>
+      </c>
+      <c r="G706" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B707" s="34" t="s">
+      <c r="B707" s="44" t="s">
         <v>867</v>
       </c>
-      <c r="C707" s="33" t="s">
+      <c r="C707" s="44" t="s">
         <v>2668</v>
       </c>
-      <c r="D707" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E707" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F707" s="35">
-        <v>8</v>
-      </c>
-      <c r="G707" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="708" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A708" s="32" t="s">
+      <c r="D707" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E707" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F707" s="45">
+        <v>8</v>
+      </c>
+      <c r="G707" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B708" s="34" t="s">
+      <c r="B708" s="44" t="s">
         <v>868</v>
       </c>
-      <c r="C708" s="33" t="s">
+      <c r="C708" s="44" t="s">
         <v>2669</v>
       </c>
-      <c r="D708" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E708" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F708" s="35">
-        <v>8</v>
-      </c>
-      <c r="G708" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="709" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A709" s="32" t="s">
+      <c r="D708" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E708" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F708" s="45">
+        <v>8</v>
+      </c>
+      <c r="G708" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B709" s="34" t="s">
+      <c r="B709" s="44" t="s">
         <v>869</v>
       </c>
-      <c r="C709" s="33" t="s">
+      <c r="C709" s="44" t="s">
         <v>2670</v>
       </c>
-      <c r="D709" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E709" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F709" s="35">
-        <v>8</v>
-      </c>
-      <c r="G709" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="710" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A710" s="32" t="s">
+      <c r="D709" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E709" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F709" s="45">
+        <v>8</v>
+      </c>
+      <c r="G709" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B710" s="34" t="s">
+      <c r="B710" s="44" t="s">
         <v>870</v>
       </c>
-      <c r="C710" s="33" t="s">
+      <c r="C710" s="44" t="s">
         <v>2671</v>
       </c>
-      <c r="D710" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E710" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F710" s="35">
-        <v>8</v>
-      </c>
-      <c r="G710" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="711" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A711" s="32" t="s">
+      <c r="D710" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E710" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F710" s="45">
+        <v>8</v>
+      </c>
+      <c r="G710" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B711" s="34" t="s">
+      <c r="B711" s="44" t="s">
         <v>871</v>
       </c>
-      <c r="C711" s="33" t="s">
+      <c r="C711" s="44" t="s">
         <v>2672</v>
       </c>
-      <c r="D711" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E711" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F711" s="35">
-        <v>8</v>
-      </c>
-      <c r="G711" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="712" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A712" s="32" t="s">
+      <c r="D711" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E711" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F711" s="45">
+        <v>8</v>
+      </c>
+      <c r="G711" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B712" s="34" t="s">
+      <c r="B712" s="44" t="s">
         <v>872</v>
       </c>
-      <c r="C712" s="33" t="s">
+      <c r="C712" s="44" t="s">
         <v>2673</v>
       </c>
-      <c r="D712" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E712" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F712" s="35">
-        <v>8</v>
-      </c>
-      <c r="G712" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="713" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A713" s="32" t="s">
+      <c r="D712" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E712" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F712" s="45">
+        <v>8</v>
+      </c>
+      <c r="G712" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B713" s="34" t="s">
+      <c r="B713" s="44" t="s">
         <v>873</v>
       </c>
-      <c r="C713" s="33" t="s">
+      <c r="C713" s="44" t="s">
         <v>2674</v>
       </c>
-      <c r="D713" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E713" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F713" s="35">
-        <v>8</v>
-      </c>
-      <c r="G713" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="714" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A714" s="32" t="s">
+      <c r="D713" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E713" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F713" s="45">
+        <v>8</v>
+      </c>
+      <c r="G713" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B714" s="34" t="s">
+      <c r="B714" s="44" t="s">
         <v>874</v>
       </c>
-      <c r="C714" s="33" t="s">
+      <c r="C714" s="44" t="s">
         <v>2675</v>
       </c>
-      <c r="D714" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E714" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F714" s="35">
-        <v>8</v>
-      </c>
-      <c r="G714" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="715" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A715" s="32" t="s">
+      <c r="D714" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E714" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F714" s="45">
+        <v>8</v>
+      </c>
+      <c r="G714" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B715" s="34" t="s">
+      <c r="B715" s="44" t="s">
         <v>875</v>
       </c>
-      <c r="C715" s="33" t="s">
+      <c r="C715" s="44" t="s">
         <v>2676</v>
       </c>
-      <c r="D715" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E715" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F715" s="35">
-        <v>8</v>
-      </c>
-      <c r="G715" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="716" spans="1:7" s="13" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="32" t="s">
+      <c r="D715" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E715" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F715" s="45">
+        <v>8</v>
+      </c>
+      <c r="G715" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" s="45" customFormat="1" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B716" s="34" t="s">
+      <c r="B716" s="44" t="s">
         <v>876</v>
       </c>
-      <c r="C716" s="33" t="s">
+      <c r="C716" s="44" t="s">
         <v>2677</v>
       </c>
-      <c r="D716" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E716" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F716" s="35">
-        <v>8</v>
-      </c>
-      <c r="G716" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="717" spans="1:7" s="13" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="32" t="s">
+      <c r="D716" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E716" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F716" s="45">
+        <v>8</v>
+      </c>
+      <c r="G716" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" s="45" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B717" s="34" t="s">
+      <c r="B717" s="44" t="s">
         <v>877</v>
       </c>
-      <c r="C717" s="33" t="s">
+      <c r="C717" s="44" t="s">
         <v>2678</v>
       </c>
-      <c r="D717" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E717" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F717" s="35">
-        <v>8</v>
-      </c>
-      <c r="G717" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="718" spans="1:7" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="32" t="s">
+      <c r="D717" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E717" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F717" s="45">
+        <v>8</v>
+      </c>
+      <c r="G717" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" s="45" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B718" s="34" t="s">
+      <c r="B718" s="44" t="s">
         <v>878</v>
       </c>
-      <c r="C718" s="33" t="s">
+      <c r="C718" s="44" t="s">
         <v>2679</v>
       </c>
-      <c r="D718" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E718" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F718" s="35">
-        <v>8</v>
-      </c>
-      <c r="G718" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:7" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="32" t="s">
+      <c r="D718" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E718" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F718" s="45">
+        <v>8</v>
+      </c>
+      <c r="G718" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" s="45" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B719" s="34" t="s">
+      <c r="B719" s="44" t="s">
         <v>879</v>
       </c>
-      <c r="C719" s="33" t="s">
+      <c r="C719" s="44" t="s">
         <v>2680</v>
       </c>
-      <c r="D719" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E719" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F719" s="35">
-        <v>8</v>
-      </c>
-      <c r="G719" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="720" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A720" s="32" t="s">
+      <c r="D719" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E719" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F719" s="45">
+        <v>8</v>
+      </c>
+      <c r="G719" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B720" s="34" t="s">
+      <c r="B720" s="44" t="s">
         <v>880</v>
       </c>
-      <c r="C720" s="33" t="s">
+      <c r="C720" s="44" t="s">
         <v>2681</v>
       </c>
-      <c r="D720" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E720" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F720" s="35">
-        <v>8</v>
-      </c>
-      <c r="G720" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="721" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A721" s="32" t="s">
+      <c r="D720" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E720" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F720" s="45">
+        <v>8</v>
+      </c>
+      <c r="G720" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B721" s="34" t="s">
+      <c r="B721" s="44" t="s">
         <v>881</v>
       </c>
-      <c r="C721" s="33" t="s">
+      <c r="C721" s="44" t="s">
         <v>2682</v>
       </c>
-      <c r="D721" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E721" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F721" s="35">
-        <v>8</v>
-      </c>
-      <c r="G721" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="722" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A722" s="32" t="s">
+      <c r="D721" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E721" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F721" s="45">
+        <v>8</v>
+      </c>
+      <c r="G721" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B722" s="34" t="s">
+      <c r="B722" s="44" t="s">
         <v>882</v>
       </c>
-      <c r="C722" s="33" t="s">
+      <c r="C722" s="44" t="s">
         <v>2683</v>
       </c>
-      <c r="D722" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E722" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F722" s="35">
-        <v>8</v>
-      </c>
-      <c r="G722" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="723" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A723" s="32" t="s">
+      <c r="D722" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E722" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F722" s="45">
+        <v>8</v>
+      </c>
+      <c r="G722" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B723" s="34" t="s">
+      <c r="B723" s="44" t="s">
         <v>883</v>
       </c>
-      <c r="C723" s="33" t="s">
+      <c r="C723" s="44" t="s">
         <v>2684</v>
       </c>
-      <c r="D723" s="33" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E723" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F723" s="35">
-        <v>8</v>
-      </c>
-      <c r="G723" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="724" spans="1:7" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="32" t="s">
+      <c r="D723" s="44" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E723" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F723" s="45">
+        <v>8</v>
+      </c>
+      <c r="G723" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" s="45" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B724" s="34" t="s">
+      <c r="B724" s="44" t="s">
         <v>884</v>
       </c>
-      <c r="C724" s="33" t="s">
+      <c r="C724" s="44" t="s">
         <v>885</v>
       </c>
-      <c r="D724" s="33" t="s">
+      <c r="D724" s="44" t="s">
         <v>2685</v>
       </c>
-      <c r="E724" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F724" s="35">
-        <v>8</v>
-      </c>
-      <c r="G724" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="725" spans="1:7" s="13" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A725" s="32" t="s">
+      <c r="E724" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F724" s="45">
+        <v>8</v>
+      </c>
+      <c r="G724" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" s="45" customFormat="1" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B725" s="34" t="s">
+      <c r="B725" s="44" t="s">
         <v>886</v>
       </c>
-      <c r="C725" s="33" t="s">
+      <c r="C725" s="44" t="s">
         <v>2686</v>
       </c>
-      <c r="D725" s="33" t="s">
+      <c r="D725" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="E725" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F725" s="35">
-        <v>8</v>
-      </c>
-      <c r="G725" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="726" spans="1:7" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A726" s="32" t="s">
+      <c r="E725" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F725" s="45">
+        <v>8</v>
+      </c>
+      <c r="G725" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" s="45" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B726" s="34" t="s">
+      <c r="B726" s="44" t="s">
         <v>887</v>
       </c>
-      <c r="C726" s="33" t="s">
+      <c r="C726" s="44" t="s">
         <v>2688</v>
       </c>
-      <c r="D726" s="33"/>
-      <c r="E726" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F726" s="35">
-        <v>8</v>
-      </c>
-      <c r="G726" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="727" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A727" s="32" t="s">
+      <c r="D726" s="44"/>
+      <c r="E726" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F726" s="45">
+        <v>8</v>
+      </c>
+      <c r="G726" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B727" s="34" t="s">
+      <c r="B727" s="44" t="s">
         <v>888</v>
       </c>
-      <c r="C727" s="33" t="s">
+      <c r="C727" s="44" t="s">
         <v>2687</v>
       </c>
-      <c r="D727" s="33"/>
-      <c r="E727" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F727" s="35">
-        <v>8</v>
-      </c>
-      <c r="G727" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="728" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A728" s="32" t="s">
+      <c r="D727" s="44"/>
+      <c r="E727" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F727" s="45">
+        <v>8</v>
+      </c>
+      <c r="G727" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" s="45" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="B728" s="34" t="s">
+      <c r="B728" s="44" t="s">
         <v>889</v>
       </c>
-      <c r="C728" s="33" t="s">
+      <c r="C728" s="44" t="s">
         <v>2689</v>
       </c>
-      <c r="D728" s="33"/>
-      <c r="E728" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F728" s="35">
-        <v>8</v>
-      </c>
-      <c r="G728" s="13">
+      <c r="D728" s="44"/>
+      <c r="E728" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F728" s="45">
+        <v>8</v>
+      </c>
+      <c r="G728" s="45">
         <v>1</v>
       </c>
     </row>

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -11562,7 +11562,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11584,6 +11583,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
@@ -12042,10 +12042,10 @@
   <dimension ref="A1:J1595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B998" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1011" sqref="B1011"/>
+      <selection pane="bottomRight" activeCell="B1142" sqref="B1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18671,10 +18671,10 @@
       <c r="G290">
         <v>1</v>
       </c>
-      <c r="I290" s="52" t="s">
+      <c r="I290" s="59" t="s">
         <v>3181</v>
       </c>
-      <c r="J290" s="52"/>
+      <c r="J290" s="59"/>
     </row>
     <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="40" t="s">
@@ -18696,8 +18696,8 @@
       <c r="G291">
         <v>1</v>
       </c>
-      <c r="I291" s="52"/>
-      <c r="J291" s="52"/>
+      <c r="I291" s="59"/>
+      <c r="J291" s="59"/>
     </row>
     <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="40" t="s">
@@ -29371,45 +29371,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:7" s="58" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A762" s="53" t="s">
+    <row r="762" spans="1:7" s="57" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A762" s="52" t="s">
         <v>925</v>
       </c>
-      <c r="B762" s="54" t="s">
+      <c r="B762" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C762" s="55" t="s">
+      <c r="C762" s="54" t="s">
         <v>3145</v>
       </c>
-      <c r="D762" s="55"/>
-      <c r="E762" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F762" s="57">
-        <v>8</v>
-      </c>
-      <c r="G762" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="763" spans="1:7" s="58" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="53" t="s">
+      <c r="D762" s="54"/>
+      <c r="E762" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F762" s="56">
+        <v>8</v>
+      </c>
+      <c r="G762" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" s="57" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A763" s="52" t="s">
         <v>925</v>
       </c>
-      <c r="B763" s="54" t="s">
+      <c r="B763" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C763" s="55" t="s">
+      <c r="C763" s="54" t="s">
         <v>3146</v>
       </c>
-      <c r="D763" s="59"/>
-      <c r="E763" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F763" s="57">
-        <v>8</v>
-      </c>
-      <c r="G763" s="58">
+      <c r="D763" s="58"/>
+      <c r="E763" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F763" s="56">
+        <v>8</v>
+      </c>
+      <c r="G763" s="57">
         <v>1</v>
       </c>
     </row>

--- a/Datos/diccionario_propio.xlsx
+++ b/Datos/diccionario_propio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e94e71dc1438ec8/Encuesta_MultiProposito/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson.pinzon\Desktop\Otros Proyectos\Encuesta Multiproposito\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{2F3C866D-1B01-4C29-8F99-52010BA7F009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{911038EC-1084-4933-B1D0-D51079D7A4B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA13E71-87A4-43D7-B1FB-DC0E652372D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11413,7 +11413,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11584,6 +11584,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
@@ -11596,6 +11599,14 @@
     <cellStyle name="Normal 3 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -11715,14 +11726,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -11759,18 +11762,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E39CF90A-90E9-4A70-9D10-3EC91B321F24}" name="Tabla1" displayName="Tabla1" ref="A1:H1594" totalsRowShown="0" tableBorderDxfId="9">
   <autoFilter ref="A1:H1594" xr:uid="{7BA6E771-EFED-4A55-A56A-8EC9E3AF690F}">
     <filterColumn colId="3">
-      <colorFilter dxfId="8"/>
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{771D3DB3-F6FB-49ED-891B-6E22AAF5695D}" name="NOMBRE TABLA" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{186DEF53-18F9-4878-80C7-214DF170C0B7}" name="NOMBRE COLUMNA" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{79D7EA3A-EB7C-480E-8183-13BB01847702}" name="TEXTO_PREGUNTA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E310C081-D946-4740-957E-1527CEA57EA0}" name="DESCRIPCIÓN_VALORES_LISTA" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8696669D-BEB4-4DAD-9AD4-96AEE94D87D3}" name="TIPO " dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{12C86028-9EFF-4F1B-997C-97D5438AB858}" name="TAMAÑO" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A39920EE-A4BA-47F5-A98A-F28FCA2409EE}" name="ID" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{6C3FE06C-3422-4AFD-B852-07708E42C269}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{771D3DB3-F6FB-49ED-891B-6E22AAF5695D}" name="NOMBRE TABLA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{186DEF53-18F9-4878-80C7-214DF170C0B7}" name="NOMBRE COLUMNA" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{79D7EA3A-EB7C-480E-8183-13BB01847702}" name="TEXTO_PREGUNTA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E310C081-D946-4740-957E-1527CEA57EA0}" name="DESCRIPCIÓN_VALORES_LISTA" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8696669D-BEB4-4DAD-9AD4-96AEE94D87D3}" name="TIPO " dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{12C86028-9EFF-4F1B-997C-97D5438AB858}" name="TAMAÑO" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A39920EE-A4BA-47F5-A98A-F28FCA2409EE}" name="ID" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6C3FE06C-3422-4AFD-B852-07708E42C269}" name="Columna1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12042,18 +12050,18 @@
   <dimension ref="A1:J1595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1142" sqref="B1142"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="57" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -12174,17 +12182,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3143</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="60" t="s">
         <v>3144</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="40" t="s">
         <v>8</v>
       </c>
@@ -12195,17 +12203,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>3128</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="60" t="s">
         <v>3129</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="60"/>
       <c r="E7" t="s">
         <v>12</v>
       </c>
@@ -12216,17 +12224,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>3130</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="60" t="s">
         <v>3132</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="40" t="s">
         <v>8</v>
       </c>
@@ -12237,17 +12245,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>3131</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="60" t="s">
         <v>3133</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="60"/>
       <c r="E9" t="s">
         <v>12</v>
       </c>
@@ -12258,17 +12266,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>3139</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="60" t="s">
         <v>3141</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="60"/>
       <c r="E10" t="s">
         <v>8</v>
       </c>
@@ -12279,17 +12287,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>3140</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="60" t="s">
         <v>3142</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="60"/>
       <c r="E11" t="s">
         <v>12</v>
       </c>
@@ -12342,17 +12350,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="60" t="s">
         <v>2249</v>
       </c>
       <c r="E14" s="40" t="s">
@@ -12365,17 +12373,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="60" t="s">
         <v>2248</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -12388,17 +12396,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E16" s="40" t="s">
@@ -12411,17 +12419,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E17" s="40" t="s">
@@ -12434,17 +12442,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="60" t="s">
         <v>2247</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -12457,17 +12465,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -12480,17 +12488,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -12733,17 +12741,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E31" s="40" t="s">
@@ -12756,17 +12764,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="60" t="s">
         <v>2236</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E32" s="40" t="s">
@@ -12779,17 +12787,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="60" t="s">
         <v>2237</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -12802,17 +12810,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="60" t="s">
         <v>2238</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E34" s="40" t="s">
@@ -12825,17 +12833,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="60" t="s">
         <v>2239</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E35" s="40" t="s">
@@ -12848,17 +12856,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="60" t="s">
         <v>2246</v>
       </c>
       <c r="E36" s="40" t="s">
@@ -12871,17 +12879,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="60" t="s">
         <v>2240</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E37" s="40" t="s">
@@ -12894,17 +12902,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="40" t="s">
@@ -12920,17 +12928,17 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="60" t="s">
         <v>2241</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -12943,17 +12951,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="60" t="s">
         <v>2242</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E40" s="40" t="s">
@@ -12966,17 +12974,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="60" t="s">
         <v>2243</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -13058,17 +13066,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E45" s="40" t="s">
@@ -13081,17 +13089,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E46" s="40" t="s">
@@ -13104,17 +13112,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E47" s="40" t="s">
@@ -13127,17 +13135,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E48" s="40" t="s">
@@ -13150,17 +13158,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E49" s="40" t="s">
@@ -13173,17 +13181,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E50" s="40" t="s">
@@ -13196,17 +13204,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E51" s="40" t="s">
@@ -13219,17 +13227,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E52" s="40" t="s">
@@ -13242,17 +13250,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E53" s="40" t="s">
@@ -13265,17 +13273,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E54" s="40" t="s">
@@ -13288,17 +13296,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E55" s="40" t="s">
@@ -13311,17 +13319,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E56" s="40" t="s">
@@ -13334,17 +13342,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="60" t="s">
         <v>2250</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E57" s="40" t="s">
@@ -13357,17 +13365,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="60" t="s">
         <v>2251</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E58" s="40" t="s">
@@ -13380,17 +13388,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="60" t="s">
         <v>2252</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E59" s="40" t="s">
@@ -13403,17 +13411,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="60" t="s">
         <v>2253</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E60" s="40" t="s">
@@ -13426,17 +13434,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="60" t="s">
         <v>2254</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E61" s="40" t="s">
@@ -13449,17 +13457,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="60" t="s">
         <v>2255</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E62" s="40" t="s">
@@ -13472,17 +13480,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="60" t="s">
         <v>2256</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E63" s="40" t="s">
@@ -13495,17 +13503,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="60" t="s">
         <v>2257</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E64" s="40" t="s">
@@ -13518,17 +13526,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="60" t="s">
         <v>2258</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E65" s="40" t="s">
@@ -13541,17 +13549,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="60" t="s">
         <v>2259</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E66" s="40" t="s">
@@ -13564,17 +13572,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="60" t="s">
         <v>2260</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E67" s="40" t="s">
@@ -13587,17 +13595,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="60" t="s">
         <v>2261</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E68" s="40" t="s">
@@ -13610,17 +13618,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="60" t="s">
         <v>2262</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E69" s="40" t="s">
@@ -13725,17 +13733,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="40" t="s">
@@ -13811,17 +13819,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B78" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="C78" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="D78" s="60" t="s">
         <v>123</v>
       </c>
       <c r="E78" s="40" t="s">
@@ -13834,17 +13842,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B79" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="40" t="s">
@@ -13987,17 +13995,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B86" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="C86" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D86" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="40" t="s">
@@ -14033,17 +14041,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B88" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="40" t="s">
+      <c r="C88" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D88" s="40" t="s">
+      <c r="D88" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="40" t="s">
@@ -14056,17 +14064,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A89" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B89" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="60" t="s">
         <v>2267</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E89" s="40" t="s">
@@ -14079,17 +14087,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A90" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B90" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="60" t="s">
         <v>2268</v>
       </c>
-      <c r="D90" s="40" t="s">
+      <c r="D90" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E90" s="40" t="s">
@@ -14102,17 +14110,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B91" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="60" t="s">
         <v>2269</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E91" s="40" t="s">
@@ -14125,17 +14133,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B92" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="60" t="s">
         <v>2270</v>
       </c>
-      <c r="D92" s="40" t="s">
+      <c r="D92" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E92" s="40" t="s">
@@ -14148,17 +14156,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A93" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B93" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="60" t="s">
         <v>2271</v>
       </c>
-      <c r="D93" s="40" t="s">
+      <c r="D93" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E93" s="40" t="s">
@@ -14171,17 +14179,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A94" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B94" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="60" t="s">
         <v>2272</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="D94" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E94" s="40" t="s">
@@ -14194,17 +14202,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A95" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B95" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="60" t="s">
         <v>2273</v>
       </c>
-      <c r="D95" s="40" t="s">
+      <c r="D95" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E95" s="40" t="s">
@@ -14217,17 +14225,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B96" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="60" t="s">
         <v>2274</v>
       </c>
-      <c r="D96" s="40" t="s">
+      <c r="D96" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E96" s="40" t="s">
@@ -14240,17 +14248,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B97" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="40" t="s">
+      <c r="C97" s="60" t="s">
         <v>2275</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="D97" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E97" s="40" t="s">
@@ -14263,17 +14271,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A98" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B98" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="40" t="s">
+      <c r="C98" s="60" t="s">
         <v>2276</v>
       </c>
-      <c r="D98" s="40" t="s">
+      <c r="D98" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E98" s="40" t="s">
@@ -14309,17 +14317,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B100" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="40" t="s">
+      <c r="C100" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D100" s="40" t="s">
+      <c r="D100" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="40" t="s">
@@ -14332,17 +14340,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B101" s="40" t="s">
         <v>2277</v>
       </c>
-      <c r="C101" s="40" t="s">
+      <c r="C101" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D101" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E101" s="40" t="s">
@@ -14355,17 +14363,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A102" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B102" s="40" t="s">
         <v>2278</v>
       </c>
-      <c r="C102" s="40" t="s">
+      <c r="C102" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="D102" s="40" t="s">
+      <c r="D102" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E102" s="40" t="s">
@@ -14516,17 +14524,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="40" t="s">
+      <c r="C109" s="60" t="s">
         <v>2285</v>
       </c>
-      <c r="D109" s="40" t="s">
+      <c r="D109" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E109" s="40" t="s">
@@ -14539,17 +14547,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B110" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="40" t="s">
+      <c r="C110" s="60" t="s">
         <v>2286</v>
       </c>
-      <c r="D110" s="40" t="s">
+      <c r="D110" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E110" s="40" t="s">
@@ -14562,17 +14570,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C111" s="60" t="s">
         <v>2287</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D111" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E111" s="40" t="s">
@@ -14585,17 +14593,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="40" t="s">
+      <c r="C112" s="60" t="s">
         <v>2288</v>
       </c>
-      <c r="D112" s="40" t="s">
+      <c r="D112" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E112" s="40" t="s">
@@ -14608,17 +14616,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="C113" s="40" t="s">
+      <c r="C113" s="60" t="s">
         <v>2289</v>
       </c>
-      <c r="D113" s="40" t="s">
+      <c r="D113" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E113" s="40" t="s">
@@ -14631,17 +14639,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B114" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="40" t="s">
+      <c r="C114" s="60" t="s">
         <v>2290</v>
       </c>
-      <c r="D114" s="40" t="s">
+      <c r="D114" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E114" s="40" t="s">
@@ -14654,17 +14662,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B115" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="C115" s="40" t="s">
+      <c r="C115" s="60" t="s">
         <v>2291</v>
       </c>
-      <c r="D115" s="40" t="s">
+      <c r="D115" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E115" s="40" t="s">
@@ -14677,17 +14685,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C116" s="40" t="s">
+      <c r="C116" s="60" t="s">
         <v>2292</v>
       </c>
-      <c r="D116" s="40" t="s">
+      <c r="D116" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E116" s="40" t="s">
@@ -14700,17 +14708,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B117" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="C117" s="40" t="s">
+      <c r="C117" s="60" t="s">
         <v>2293</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="D117" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E117" s="40" t="s">
@@ -14723,17 +14731,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C118" s="40" t="s">
+      <c r="C118" s="60" t="s">
         <v>2294</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="D118" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E118" s="40" t="s">
@@ -14838,17 +14846,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B123" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C123" s="40" t="s">
+      <c r="C123" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="D123" s="40" t="s">
+      <c r="D123" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="40" t="s">
@@ -14907,17 +14915,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B126" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C126" s="40" t="s">
+      <c r="C126" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D126" s="40" t="s">
+      <c r="D126" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="40" t="s">
@@ -15137,17 +15145,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B136" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="C136" s="40" t="s">
+      <c r="C136" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="D136" s="40" t="s">
+      <c r="D136" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="40" t="s">
@@ -15160,17 +15168,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A137" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B137" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C137" s="40" t="s">
+      <c r="C137" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="D137" s="40" t="s">
+      <c r="D137" s="60" t="s">
         <v>2300</v>
       </c>
       <c r="E137" s="40" t="s">
@@ -15183,17 +15191,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B138" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C138" s="40" t="s">
+      <c r="C138" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="D138" s="40" t="s">
+      <c r="D138" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E138" s="40" t="s">
@@ -15206,17 +15214,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B139" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="C139" s="40" t="s">
+      <c r="C139" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D139" s="40" t="s">
+      <c r="D139" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="40" t="s">
@@ -15229,17 +15237,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B140" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C140" s="40" t="s">
+      <c r="C140" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="D140" s="40" t="s">
+      <c r="D140" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E140" s="40" t="s">
@@ -15252,17 +15260,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B141" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="40" t="s">
+      <c r="C141" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D141" s="40" t="s">
+      <c r="D141" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="40" t="s">
@@ -15482,17 +15490,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A151" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B151" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="C151" s="40" t="s">
+      <c r="C151" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="D151" s="40" t="s">
+      <c r="D151" s="60" t="s">
         <v>2305</v>
       </c>
       <c r="E151" s="40" t="s">
@@ -15505,17 +15513,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B152" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="40" t="s">
+      <c r="C152" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D152" s="40" t="s">
+      <c r="D152" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E152" s="40" t="s">
@@ -15528,17 +15536,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A153" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B153" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="C153" s="40" t="s">
+      <c r="C153" s="60" t="s">
         <v>2306</v>
       </c>
-      <c r="D153" s="40" t="s">
+      <c r="D153" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E153" s="40" t="s">
@@ -15551,17 +15559,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B154" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="40" t="s">
+      <c r="C154" s="60" t="s">
         <v>2307</v>
       </c>
-      <c r="D154" s="40" t="s">
+      <c r="D154" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E154" s="40" t="s">
@@ -15574,17 +15582,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A155" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B155" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="C155" s="40" t="s">
+      <c r="C155" s="60" t="s">
         <v>2308</v>
       </c>
-      <c r="D155" s="40" t="s">
+      <c r="D155" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E155" s="40" t="s">
@@ -15597,17 +15605,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B156" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="40" t="s">
+      <c r="C156" s="60" t="s">
         <v>2309</v>
       </c>
-      <c r="D156" s="40" t="s">
+      <c r="D156" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E156" s="40" t="s">
@@ -15620,17 +15628,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A157" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B157" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="C157" s="40" t="s">
+      <c r="C157" s="60" t="s">
         <v>2310</v>
       </c>
-      <c r="D157" s="40" t="s">
+      <c r="D157" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E157" s="40" t="s">
@@ -15643,17 +15651,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B158" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="40" t="s">
+      <c r="C158" s="60" t="s">
         <v>2311</v>
       </c>
-      <c r="D158" s="40" t="s">
+      <c r="D158" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E158" s="40" t="s">
@@ -15666,17 +15674,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A159" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B159" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="C159" s="40" t="s">
+      <c r="C159" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="D159" s="40" t="s">
+      <c r="D159" s="60" t="s">
         <v>255</v>
       </c>
       <c r="E159" s="40" t="s">
@@ -15689,17 +15697,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B160" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="C160" s="40" t="s">
+      <c r="C160" s="60" t="s">
         <v>2312</v>
       </c>
-      <c r="D160" s="40" t="s">
+      <c r="D160" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E160" s="40" t="s">
@@ -15712,17 +15720,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B161" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="C161" s="40" t="s">
+      <c r="C161" s="60" t="s">
         <v>2313</v>
       </c>
-      <c r="D161" s="40" t="s">
+      <c r="D161" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E161" s="40" t="s">
@@ -15735,17 +15743,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B162" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C162" s="40" t="s">
+      <c r="C162" s="60" t="s">
         <v>2314</v>
       </c>
-      <c r="D162" s="40" t="s">
+      <c r="D162" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E162" s="40" t="s">
@@ -15758,17 +15766,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B163" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="C163" s="40" t="s">
+      <c r="C163" s="60" t="s">
         <v>2315</v>
       </c>
-      <c r="D163" s="40" t="s">
+      <c r="D163" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E163" s="40" t="s">
@@ -15781,17 +15789,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A164" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B164" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="C164" s="40" t="s">
+      <c r="C164" s="60" t="s">
         <v>2316</v>
       </c>
-      <c r="D164" s="40" t="s">
+      <c r="D164" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E164" s="40" t="s">
@@ -15804,17 +15812,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B165" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="C165" s="40" t="s">
+      <c r="C165" s="60" t="s">
         <v>2317</v>
       </c>
-      <c r="D165" s="40" t="s">
+      <c r="D165" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E165" s="40" t="s">
@@ -15827,17 +15835,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B166" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C166" s="40" t="s">
+      <c r="C166" s="60" t="s">
         <v>2318</v>
       </c>
-      <c r="D166" s="40" t="s">
+      <c r="D166" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E166" s="40" t="s">
@@ -15850,17 +15858,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B167" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="C167" s="40" t="s">
+      <c r="C167" s="60" t="s">
         <v>2319</v>
       </c>
-      <c r="D167" s="40" t="s">
+      <c r="D167" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E167" s="40" t="s">
@@ -15873,17 +15881,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B168" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="C168" s="40" t="s">
+      <c r="C168" s="60" t="s">
         <v>2320</v>
       </c>
-      <c r="D168" s="40" t="s">
+      <c r="D168" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E168" s="40" t="s">
@@ -16264,17 +16272,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A185" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B185" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="C185" s="40" t="s">
+      <c r="C185" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="D185" s="40" t="s">
+      <c r="D185" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E185" s="40" t="s">
@@ -16379,17 +16387,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A190" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B190" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="C190" s="40" t="s">
+      <c r="C190" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="D190" s="40" t="s">
+      <c r="D190" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E190" s="40" t="s">
@@ -16448,17 +16456,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A193" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B193" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="C193" s="40" t="s">
+      <c r="C193" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="D193" s="40" t="s">
+      <c r="D193" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E193" s="40" t="s">
@@ -16471,17 +16479,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B194" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="C194" s="40" t="s">
+      <c r="C194" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D194" s="40" t="s">
+      <c r="D194" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="40" t="s">
@@ -16494,17 +16502,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A195" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B195" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="C195" s="40" t="s">
+      <c r="C195" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="D195" s="40" t="s">
+      <c r="D195" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="40" t="s">
@@ -16517,17 +16525,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A196" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B196" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="C196" s="40" t="s">
+      <c r="C196" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="D196" s="40" t="s">
+      <c r="D196" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E196" s="40" t="s">
@@ -16540,17 +16548,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A197" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B197" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="C197" s="40" t="s">
+      <c r="C197" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D197" s="40" t="s">
+      <c r="D197" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E197" s="40" t="s">
@@ -16563,17 +16571,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B198" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="C198" s="40" t="s">
+      <c r="C198" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="D198" s="40" t="s">
+      <c r="D198" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E198" s="40" t="s">
@@ -16586,17 +16594,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B199" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="C199" s="40" t="s">
+      <c r="C199" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="D199" s="40" t="s">
+      <c r="D199" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="40" t="s">
@@ -16609,17 +16617,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B200" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="C200" s="40" t="s">
+      <c r="C200" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="D200" s="40" t="s">
+      <c r="D200" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E200" s="40" t="s">
@@ -16632,17 +16640,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B201" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="C201" s="40" t="s">
+      <c r="C201" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="D201" s="40" t="s">
+      <c r="D201" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E201" s="40" t="s">
@@ -16655,17 +16663,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B202" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="C202" s="40" t="s">
+      <c r="C202" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="D202" s="40" t="s">
+      <c r="D202" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="40" t="s">
@@ -16678,17 +16686,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B203" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="C203" s="40" t="s">
+      <c r="C203" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="D203" s="40" t="s">
+      <c r="D203" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E203" s="40" t="s">
@@ -16701,17 +16709,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B204" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="C204" s="40" t="s">
+      <c r="C204" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="D204" s="40" t="s">
+      <c r="D204" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E204" s="40" t="s">
@@ -16724,17 +16732,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B205" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="C205" s="40" t="s">
+      <c r="C205" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D205" s="40" t="s">
+      <c r="D205" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E205" s="40" t="s">
@@ -16747,17 +16755,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B206" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="C206" s="40" t="s">
+      <c r="C206" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="D206" s="40" t="s">
+      <c r="D206" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E206" s="40" t="s">
@@ -16770,17 +16778,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B207" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="C207" s="40" t="s">
+      <c r="C207" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="D207" s="40" t="s">
+      <c r="D207" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E207" s="40" t="s">
@@ -16793,17 +16801,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A208" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B208" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="C208" s="40" t="s">
+      <c r="C208" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="D208" s="40" t="s">
+      <c r="D208" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E208" s="40" t="s">
@@ -16816,17 +16824,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B209" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="C209" s="40" t="s">
+      <c r="C209" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="D209" s="40" t="s">
+      <c r="D209" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E209" s="40" t="s">
@@ -16839,17 +16847,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B210" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="C210" s="40" t="s">
+      <c r="C210" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="D210" s="40" t="s">
+      <c r="D210" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E210" s="40" t="s">
@@ -17063,17 +17071,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B220" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="C220" s="40" t="s">
+      <c r="C220" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="D220" s="40" t="s">
+      <c r="D220" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E220" s="40" t="s">
@@ -17385,17 +17393,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B234" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="C234" s="40" t="s">
+      <c r="C234" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="D234" s="40" t="s">
+      <c r="D234" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E234" s="40" t="s">
@@ -17408,17 +17416,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B235" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="C235" s="40" t="s">
+      <c r="C235" s="60" t="s">
         <v>2350</v>
       </c>
-      <c r="D235" s="40" t="s">
+      <c r="D235" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E235" s="40" t="s">
@@ -17431,17 +17439,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A236" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B236" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="C236" s="40" t="s">
+      <c r="C236" s="60" t="s">
         <v>2359</v>
       </c>
-      <c r="D236" s="40" t="s">
+      <c r="D236" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E236" s="40" t="s">
@@ -17563,17 +17571,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A242" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B242" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="C242" s="40" t="s">
+      <c r="C242" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="D242" s="40" t="s">
+      <c r="D242" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E242" s="40" t="s">
@@ -17609,17 +17617,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A244" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B244" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="C244" s="40" t="s">
+      <c r="C244" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="D244" s="40" t="s">
+      <c r="D244" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E244" s="40" t="s">
@@ -17632,17 +17640,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B245" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="C245" s="40" t="s">
+      <c r="C245" s="60" t="s">
         <v>2356</v>
       </c>
-      <c r="D245" s="40" t="s">
+      <c r="D245" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E245" s="40" t="s">
@@ -17655,17 +17663,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B246" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="C246" s="40" t="s">
+      <c r="C246" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="D246" s="40" t="s">
+      <c r="D246" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E246" s="40" t="s">
@@ -17678,17 +17686,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B247" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="C247" s="40" t="s">
+      <c r="C247" s="60" t="s">
         <v>2357</v>
       </c>
-      <c r="D247" s="40" t="s">
+      <c r="D247" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E247" s="40" t="s">
@@ -17701,17 +17709,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A248" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B248" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="C248" s="40" t="s">
+      <c r="C248" s="60" t="s">
         <v>2358</v>
       </c>
-      <c r="D248" s="40" t="s">
+      <c r="D248" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E248" s="40" t="s">
@@ -17862,17 +17870,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A255" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B255" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="C255" s="40" t="s">
+      <c r="C255" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="D255" s="40" t="s">
+      <c r="D255" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E255" s="40" t="s">
@@ -17885,17 +17893,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B256" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="C256" s="40" t="s">
+      <c r="C256" s="60" t="s">
         <v>2363</v>
       </c>
-      <c r="D256" s="40" t="s">
+      <c r="D256" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E256" s="40" t="s">
@@ -17908,17 +17916,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A257" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B257" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C257" s="40" t="s">
+      <c r="C257" s="60" t="s">
         <v>2364</v>
       </c>
-      <c r="D257" s="40" t="s">
+      <c r="D257" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E257" s="40" t="s">
@@ -17931,17 +17939,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A258" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B258" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="C258" s="40" t="s">
+      <c r="C258" s="60" t="s">
         <v>2365</v>
       </c>
-      <c r="D258" s="40" t="s">
+      <c r="D258" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E258" s="40" t="s">
@@ -17954,17 +17962,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A259" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B259" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C259" s="40" t="s">
+      <c r="C259" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="D259" s="40" t="s">
+      <c r="D259" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E259" s="40" t="s">
@@ -17977,17 +17985,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A260" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B260" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="C260" s="40" t="s">
+      <c r="C260" s="60" t="s">
         <v>2366</v>
       </c>
-      <c r="D260" s="40" t="s">
+      <c r="D260" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E260" s="40" t="s">
@@ -18000,17 +18008,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B261" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="C261" s="40" t="s">
+      <c r="C261" s="60" t="s">
         <v>2367</v>
       </c>
-      <c r="D261" s="40" t="s">
+      <c r="D261" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E261" s="40" t="s">
@@ -18023,17 +18031,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A262" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B262" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="C262" s="40" t="s">
+      <c r="C262" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="D262" s="40" t="s">
+      <c r="D262" s="60" t="s">
         <v>2355</v>
       </c>
       <c r="E262" s="40" t="s">
@@ -18046,17 +18054,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B263" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="C263" s="40" t="s">
+      <c r="C263" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="D263" s="40" t="s">
+      <c r="D263" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E263" s="40" t="s">
@@ -18293,17 +18301,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A274" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B274" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="C274" s="40" t="s">
+      <c r="C274" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="D274" s="40" t="s">
+      <c r="D274" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E274" s="40" t="s">
@@ -18316,17 +18324,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="40" t="s">
         <v>334</v>
       </c>
       <c r="B275" s="40" t="s">
         <v>2376</v>
       </c>
-      <c r="C275" s="40" t="s">
+      <c r="C275" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="D275" s="40" t="s">
+      <c r="D275" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E275" s="40" t="s">
@@ -18536,17 +18544,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A285" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B285" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="C285" s="40" t="s">
+      <c r="C285" s="60" t="s">
         <v>1849</v>
       </c>
-      <c r="D285" s="40" t="s">
+      <c r="D285" s="60" t="s">
         <v>2378</v>
       </c>
       <c r="E285" s="40" t="s">
@@ -18559,17 +18567,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A286" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B286" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="C286" s="40" t="s">
+      <c r="C286" s="60" t="s">
         <v>1850</v>
       </c>
-      <c r="D286" s="40" t="s">
+      <c r="D286" s="60" t="s">
         <v>2379</v>
       </c>
       <c r="E286" s="40" t="s">
@@ -18582,17 +18590,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A287" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B287" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="C287" s="40" t="s">
+      <c r="C287" s="60" t="s">
         <v>1851</v>
       </c>
-      <c r="D287" s="40" t="s">
+      <c r="D287" s="60" t="s">
         <v>3026</v>
       </c>
       <c r="E287" s="40" t="s">
@@ -18605,17 +18613,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B288" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="C288" s="40" t="s">
+      <c r="C288" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="D288" s="40" t="s">
+      <c r="D288" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E288" s="40" t="s">
@@ -18628,17 +18636,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A289" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B289" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="C289" s="40" t="s">
+      <c r="C289" s="60" t="s">
         <v>1852</v>
       </c>
-      <c r="D289" s="40" t="s">
+      <c r="D289" s="60" t="s">
         <v>2380</v>
       </c>
       <c r="E289" s="40" t="s">
@@ -18651,17 +18659,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A290" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B290" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="C290" s="40" t="s">
+      <c r="C290" s="60" t="s">
         <v>2384</v>
       </c>
-      <c r="D290" s="40"/>
+      <c r="D290" s="60"/>
       <c r="E290" s="40" t="s">
         <v>8</v>
       </c>
@@ -18676,17 +18684,17 @@
       </c>
       <c r="J290" s="59"/>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A291" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B291" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="C291" s="40" t="s">
+      <c r="C291" s="60" t="s">
         <v>2385</v>
       </c>
-      <c r="D291" s="40"/>
+      <c r="D291" s="60"/>
       <c r="E291" s="40" t="s">
         <v>8</v>
       </c>
@@ -18699,17 +18707,17 @@
       <c r="I291" s="59"/>
       <c r="J291" s="59"/>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A292" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B292" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="C292" s="40" t="s">
+      <c r="C292" s="60" t="s">
         <v>2386</v>
       </c>
-      <c r="D292" s="40" t="s">
+      <c r="D292" s="60" t="s">
         <v>435</v>
       </c>
       <c r="E292" s="40" t="s">
@@ -19965,17 +19973,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A348" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B348" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="C348" s="41" t="s">
+      <c r="C348" s="50" t="s">
         <v>2431</v>
       </c>
-      <c r="D348" s="41" t="s">
+      <c r="D348" s="50" t="s">
         <v>3030</v>
       </c>
       <c r="E348" s="41" t="s">
@@ -20011,17 +20019,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" s="42" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A350" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B350" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="C350" s="41" t="s">
+      <c r="C350" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="D350" s="41" t="s">
+      <c r="D350" s="50" t="s">
         <v>2434</v>
       </c>
       <c r="E350" s="41" t="s">
@@ -20172,17 +20180,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A357" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B357" s="41" t="s">
         <v>3127</v>
       </c>
-      <c r="C357" s="41" t="s">
+      <c r="C357" s="50" t="s">
         <v>3126</v>
       </c>
-      <c r="D357" s="41" t="s">
+      <c r="D357" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E357" s="41" t="s">
@@ -20195,17 +20203,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B358" s="42" t="s">
         <v>2445</v>
       </c>
-      <c r="C358" s="41" t="s">
+      <c r="C358" s="50" t="s">
         <v>2441</v>
       </c>
-      <c r="D358" s="41" t="s">
+      <c r="D358" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E358" s="41" t="s">
@@ -20218,17 +20226,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B359" s="42" t="s">
         <v>2446</v>
       </c>
-      <c r="C359" s="41" t="s">
+      <c r="C359" s="50" t="s">
         <v>2442</v>
       </c>
-      <c r="D359" s="41" t="s">
+      <c r="D359" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E359" s="41" t="s">
@@ -20241,17 +20249,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B360" s="42" t="s">
         <v>2447</v>
       </c>
-      <c r="C360" s="41" t="s">
+      <c r="C360" s="50" t="s">
         <v>2443</v>
       </c>
-      <c r="D360" s="41" t="s">
+      <c r="D360" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E360" s="41" t="s">
@@ -20264,17 +20272,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B361" s="42" t="s">
         <v>2448</v>
       </c>
-      <c r="C361" s="41" t="s">
+      <c r="C361" s="50" t="s">
         <v>2444</v>
       </c>
-      <c r="D361" s="41" t="s">
+      <c r="D361" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E361" s="41" t="s">
@@ -20287,17 +20295,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A362" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B362" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="C362" s="41" t="s">
+      <c r="C362" s="50" t="s">
         <v>1867</v>
       </c>
-      <c r="D362" s="41" t="s">
+      <c r="D362" s="50" t="s">
         <v>2449</v>
       </c>
       <c r="E362" s="41" t="s">
@@ -20517,17 +20525,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B372" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="C372" s="41" t="s">
+      <c r="C372" s="50" t="s">
         <v>1869</v>
       </c>
-      <c r="D372" s="41" t="s">
+      <c r="D372" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E372" s="41" t="s">
@@ -20701,17 +20709,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B380" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="C380" s="41" t="s">
+      <c r="C380" s="50" t="s">
         <v>2457</v>
       </c>
-      <c r="D380" s="41" t="s">
+      <c r="D380" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E380" s="41" t="s">
@@ -20724,17 +20732,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B381" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="C381" s="41" t="s">
+      <c r="C381" s="50" t="s">
         <v>2458</v>
       </c>
-      <c r="D381" s="41" t="s">
+      <c r="D381" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E381" s="41" t="s">
@@ -20747,17 +20755,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B382" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="C382" s="41" t="s">
+      <c r="C382" s="50" t="s">
         <v>2459</v>
       </c>
-      <c r="D382" s="41" t="s">
+      <c r="D382" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E382" s="41" t="s">
@@ -20770,17 +20778,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B383" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="C383" s="41" t="s">
+      <c r="C383" s="50" t="s">
         <v>2460</v>
       </c>
-      <c r="D383" s="41" t="s">
+      <c r="D383" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E383" s="41" t="s">
@@ -20793,17 +20801,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B384" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="C384" s="41" t="s">
+      <c r="C384" s="50" t="s">
         <v>2461</v>
       </c>
-      <c r="D384" s="41" t="s">
+      <c r="D384" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E384" s="41" t="s">
@@ -20862,17 +20870,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B387" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="C387" s="41" t="s">
+      <c r="C387" s="50" t="s">
         <v>1874</v>
       </c>
-      <c r="D387" s="41" t="s">
+      <c r="D387" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E387" s="41" t="s">
@@ -21483,17 +21491,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B414" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="C414" s="41" t="s">
+      <c r="C414" s="50" t="s">
         <v>1886</v>
       </c>
-      <c r="D414" s="41" t="s">
+      <c r="D414" s="50" t="s">
         <v>2473</v>
       </c>
       <c r="E414" s="41" t="s">
@@ -21506,17 +21514,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B415" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="C415" s="41" t="s">
+      <c r="C415" s="50" t="s">
         <v>2474</v>
       </c>
-      <c r="D415" s="41" t="s">
+      <c r="D415" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E415" s="41" t="s">
@@ -21529,17 +21537,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B416" s="41" t="s">
         <v>550</v>
       </c>
-      <c r="C416" s="41" t="s">
+      <c r="C416" s="50" t="s">
         <v>2475</v>
       </c>
-      <c r="D416" s="41" t="s">
+      <c r="D416" s="50" t="s">
         <v>2636</v>
       </c>
       <c r="E416" s="41" t="s">
@@ -22117,17 +22125,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B442" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="C442" s="41" t="s">
+      <c r="C442" s="50" t="s">
         <v>1897</v>
       </c>
-      <c r="D442" s="41" t="s">
+      <c r="D442" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E442" s="41" t="s">
@@ -22324,17 +22332,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B451" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="C451" s="41" t="s">
+      <c r="C451" s="50" t="s">
         <v>1902</v>
       </c>
-      <c r="D451" s="41" t="s">
+      <c r="D451" s="50" t="s">
         <v>593</v>
       </c>
       <c r="E451" s="41" t="s">
@@ -22347,17 +22355,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A452" s="41" t="s">
         <v>489</v>
       </c>
       <c r="B452" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="C452" s="41" t="s">
+      <c r="C452" s="50" t="s">
         <v>1903</v>
       </c>
-      <c r="D452" s="41" t="s">
+      <c r="D452" s="50" t="s">
         <v>595</v>
       </c>
       <c r="E452" s="41" t="s">
@@ -23027,17 +23035,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" s="42" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A482" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B482" s="41" t="s">
         <v>622</v>
       </c>
-      <c r="C482" s="41" t="s">
+      <c r="C482" s="50" t="s">
         <v>1915</v>
       </c>
-      <c r="D482" s="41" t="s">
+      <c r="D482" s="50" t="s">
         <v>2521</v>
       </c>
       <c r="E482" s="41" t="s">
@@ -23050,17 +23058,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B483" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="C483" s="41" t="s">
+      <c r="C483" s="50" t="s">
         <v>2522</v>
       </c>
-      <c r="D483" s="41" t="s">
+      <c r="D483" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E483" s="41" t="s">
@@ -23073,17 +23081,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" s="42" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A484" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B484" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="C484" s="41" t="s">
+      <c r="C484" s="50" t="s">
         <v>1916</v>
       </c>
-      <c r="D484" s="41" t="s">
+      <c r="D484" s="50" t="s">
         <v>2523</v>
       </c>
       <c r="E484" s="41" t="s">
@@ -23096,17 +23104,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A485" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B485" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="C485" s="41" t="s">
+      <c r="C485" s="50" t="s">
         <v>2524</v>
       </c>
-      <c r="D485" s="41" t="s">
+      <c r="D485" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E485" s="41" t="s">
@@ -23119,17 +23127,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" s="42" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A486" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B486" s="41" t="s">
         <v>626</v>
       </c>
-      <c r="C486" s="41" t="s">
+      <c r="C486" s="50" t="s">
         <v>627</v>
       </c>
-      <c r="D486" s="41" t="s">
+      <c r="D486" s="50" t="s">
         <v>2525</v>
       </c>
       <c r="E486" s="41" t="s">
@@ -23142,17 +23150,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A487" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B487" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="C487" s="41" t="s">
+      <c r="C487" s="50" t="s">
         <v>1917</v>
       </c>
-      <c r="D487" s="41" t="s">
+      <c r="D487" s="50" t="s">
         <v>2526</v>
       </c>
       <c r="E487" s="41" t="s">
@@ -23165,17 +23173,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A488" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B488" s="41" t="s">
         <v>629</v>
       </c>
-      <c r="C488" s="41" t="s">
+      <c r="C488" s="50" t="s">
         <v>1918</v>
       </c>
-      <c r="D488" s="41" t="s">
+      <c r="D488" s="50" t="s">
         <v>2527</v>
       </c>
       <c r="E488" s="41" t="s">
@@ -23188,17 +23196,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B489" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="C489" s="41" t="s">
+      <c r="C489" s="50" t="s">
         <v>2528</v>
       </c>
-      <c r="D489" s="41" t="s">
+      <c r="D489" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E489" s="41" t="s">
@@ -23487,17 +23495,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B502" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="C502" s="41" t="s">
+      <c r="C502" s="50" t="s">
         <v>1925</v>
       </c>
-      <c r="D502" s="41" t="s">
+      <c r="D502" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E502" s="41" t="s">
@@ -23510,17 +23518,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B503" s="41" t="s">
         <v>645</v>
       </c>
-      <c r="C503" s="41" t="s">
+      <c r="C503" s="50" t="s">
         <v>1926</v>
       </c>
-      <c r="D503" s="41" t="s">
+      <c r="D503" s="50" t="s">
         <v>2529</v>
       </c>
       <c r="E503" s="41" t="s">
@@ -23533,17 +23541,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B504" s="41" t="s">
         <v>646</v>
       </c>
-      <c r="C504" s="41" t="s">
+      <c r="C504" s="50" t="s">
         <v>2530</v>
       </c>
-      <c r="D504" s="41" t="s">
+      <c r="D504" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E504" s="41" t="s">
@@ -23556,17 +23564,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B505" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="C505" s="41" t="s">
+      <c r="C505" s="50" t="s">
         <v>2531</v>
       </c>
-      <c r="D505" s="41" t="s">
+      <c r="D505" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E505" s="41" t="s">
@@ -23579,17 +23587,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B506" s="41" t="s">
         <v>648</v>
       </c>
-      <c r="C506" s="41" t="s">
+      <c r="C506" s="50" t="s">
         <v>2532</v>
       </c>
-      <c r="D506" s="41" t="s">
+      <c r="D506" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E506" s="41" t="s">
@@ -23602,17 +23610,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A507" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B507" s="41" t="s">
         <v>649</v>
       </c>
-      <c r="C507" s="41" t="s">
+      <c r="C507" s="50" t="s">
         <v>1927</v>
       </c>
-      <c r="D507" s="41" t="s">
+      <c r="D507" s="50" t="s">
         <v>2529</v>
       </c>
       <c r="E507" s="41" t="s">
@@ -23625,17 +23633,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B508" s="41" t="s">
         <v>650</v>
       </c>
-      <c r="C508" s="41" t="s">
+      <c r="C508" s="50" t="s">
         <v>2530</v>
       </c>
-      <c r="D508" s="41" t="s">
+      <c r="D508" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E508" s="41" t="s">
@@ -23648,17 +23656,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B509" s="41" t="s">
         <v>651</v>
       </c>
-      <c r="C509" s="41" t="s">
+      <c r="C509" s="50" t="s">
         <v>2533</v>
       </c>
-      <c r="D509" s="41" t="s">
+      <c r="D509" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E509" s="41" t="s">
@@ -23671,17 +23679,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B510" s="41" t="s">
         <v>652</v>
       </c>
-      <c r="C510" s="41" t="s">
+      <c r="C510" s="50" t="s">
         <v>1928</v>
       </c>
-      <c r="D510" s="41" t="s">
+      <c r="D510" s="50" t="s">
         <v>2534</v>
       </c>
       <c r="E510" s="41" t="s">
@@ -23694,17 +23702,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B511" s="41" t="s">
         <v>653</v>
       </c>
-      <c r="C511" s="41" t="s">
+      <c r="C511" s="50" t="s">
         <v>2535</v>
       </c>
-      <c r="D511" s="41" t="s">
+      <c r="D511" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E511" s="41" t="s">
@@ -23717,17 +23725,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B512" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="C512" s="41" t="s">
+      <c r="C512" s="50" t="s">
         <v>655</v>
       </c>
-      <c r="D512" s="41" t="s">
+      <c r="D512" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E512" s="41" t="s">
@@ -23740,17 +23748,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" s="42" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A513" s="41" t="s">
         <v>621</v>
       </c>
       <c r="B513" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="C513" s="41" t="s">
+      <c r="C513" s="50" t="s">
         <v>657</v>
       </c>
-      <c r="D513" s="41" t="s">
+      <c r="D513" s="50" t="s">
         <v>2536</v>
       </c>
       <c r="E513" s="41" t="s">
@@ -24582,17 +24590,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B551" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="C551" s="41" t="s">
+      <c r="C551" s="50" t="s">
         <v>1931</v>
       </c>
-      <c r="D551" s="41" t="s">
+      <c r="D551" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E551" s="41" t="s">
@@ -24605,17 +24613,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" s="42" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A552" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B552" s="41" t="s">
         <v>693</v>
       </c>
-      <c r="C552" s="41" t="s">
+      <c r="C552" s="50" t="s">
         <v>1932</v>
       </c>
-      <c r="D552" s="41" t="s">
+      <c r="D552" s="50" t="s">
         <v>2558</v>
       </c>
       <c r="E552" s="41" t="s">
@@ -24628,17 +24636,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" s="42" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A553" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B553" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="C553" s="41" t="s">
+      <c r="C553" s="50" t="s">
         <v>1933</v>
       </c>
-      <c r="D553" s="41" t="s">
+      <c r="D553" s="50" t="s">
         <v>2559</v>
       </c>
       <c r="E553" s="41" t="s">
@@ -24651,17 +24659,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B554" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="C554" s="41" t="s">
+      <c r="C554" s="50" t="s">
         <v>696</v>
       </c>
-      <c r="D554" s="41"/>
+      <c r="D554" s="50"/>
       <c r="E554" s="41" t="s">
         <v>8</v>
       </c>
@@ -24739,17 +24747,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B558" s="41" t="s">
         <v>702</v>
       </c>
-      <c r="C558" s="41" t="s">
+      <c r="C558" s="50" t="s">
         <v>703</v>
       </c>
-      <c r="D558" s="41" t="s">
+      <c r="D558" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E558" s="41" t="s">
@@ -25147,17 +25155,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B576" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="C576" s="41" t="s">
+      <c r="C576" s="50" t="s">
         <v>2571</v>
       </c>
-      <c r="D576" s="41" t="s">
+      <c r="D576" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E576" s="41" t="s">
@@ -25170,17 +25178,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B577" s="41" t="s">
         <v>726</v>
       </c>
-      <c r="C577" s="41" t="s">
+      <c r="C577" s="50" t="s">
         <v>2572</v>
       </c>
-      <c r="D577" s="41" t="s">
+      <c r="D577" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E577" s="41" t="s">
@@ -25193,17 +25201,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B578" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="C578" s="41" t="s">
+      <c r="C578" s="50" t="s">
         <v>2573</v>
       </c>
-      <c r="D578" s="41" t="s">
+      <c r="D578" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E578" s="41" t="s">
@@ -25216,17 +25224,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A579" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B579" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="C579" s="41" t="s">
+      <c r="C579" s="50" t="s">
         <v>2574</v>
       </c>
-      <c r="D579" s="41" t="s">
+      <c r="D579" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E579" s="41" t="s">
@@ -25239,17 +25247,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A580" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B580" s="41" t="s">
         <v>729</v>
       </c>
-      <c r="C580" s="41" t="s">
+      <c r="C580" s="50" t="s">
         <v>2575</v>
       </c>
-      <c r="D580" s="41" t="s">
+      <c r="D580" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E580" s="41" t="s">
@@ -25262,17 +25270,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B581" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="C581" s="41" t="s">
+      <c r="C581" s="50" t="s">
         <v>2576</v>
       </c>
-      <c r="D581" s="41" t="s">
+      <c r="D581" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E581" s="41" t="s">
@@ -25285,17 +25293,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B582" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="C582" s="41" t="s">
+      <c r="C582" s="50" t="s">
         <v>2577</v>
       </c>
-      <c r="D582" s="41" t="s">
+      <c r="D582" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E582" s="41" t="s">
@@ -25308,17 +25316,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B583" s="41" t="s">
         <v>732</v>
       </c>
-      <c r="C583" s="41" t="s">
+      <c r="C583" s="50" t="s">
         <v>2578</v>
       </c>
-      <c r="D583" s="41" t="s">
+      <c r="D583" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E583" s="41" t="s">
@@ -25331,17 +25339,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B584" s="41" t="s">
         <v>733</v>
       </c>
-      <c r="C584" s="41" t="s">
+      <c r="C584" s="50" t="s">
         <v>2579</v>
       </c>
-      <c r="D584" s="41" t="s">
+      <c r="D584" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E584" s="41" t="s">
@@ -25354,17 +25362,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B585" s="41" t="s">
         <v>734</v>
       </c>
-      <c r="C585" s="41" t="s">
+      <c r="C585" s="50" t="s">
         <v>2580</v>
       </c>
-      <c r="D585" s="41" t="s">
+      <c r="D585" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E585" s="41" t="s">
@@ -25377,17 +25385,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B586" s="41" t="s">
         <v>735</v>
       </c>
-      <c r="C586" s="41" t="s">
+      <c r="C586" s="50" t="s">
         <v>2581</v>
       </c>
-      <c r="D586" s="41" t="s">
+      <c r="D586" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E586" s="41" t="s">
@@ -25400,17 +25408,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B587" s="41" t="s">
         <v>736</v>
       </c>
-      <c r="C587" s="41" t="s">
+      <c r="C587" s="50" t="s">
         <v>2582</v>
       </c>
-      <c r="D587" s="41" t="s">
+      <c r="D587" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E587" s="41" t="s">
@@ -25423,17 +25431,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B588" s="41" t="s">
         <v>737</v>
       </c>
-      <c r="C588" s="41" t="s">
+      <c r="C588" s="50" t="s">
         <v>2583</v>
       </c>
-      <c r="D588" s="41" t="s">
+      <c r="D588" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E588" s="41" t="s">
@@ -25446,17 +25454,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B589" s="41" t="s">
         <v>738</v>
       </c>
-      <c r="C589" s="41" t="s">
+      <c r="C589" s="50" t="s">
         <v>2584</v>
       </c>
-      <c r="D589" s="41" t="s">
+      <c r="D589" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E589" s="41" t="s">
@@ -25469,17 +25477,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B590" s="41" t="s">
         <v>739</v>
       </c>
-      <c r="C590" s="41" t="s">
+      <c r="C590" s="50" t="s">
         <v>2585</v>
       </c>
-      <c r="D590" s="41" t="s">
+      <c r="D590" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E590" s="41" t="s">
@@ -25492,17 +25500,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A591" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B591" s="41" t="s">
         <v>740</v>
       </c>
-      <c r="C591" s="41" t="s">
+      <c r="C591" s="50" t="s">
         <v>2586</v>
       </c>
-      <c r="D591" s="41" t="s">
+      <c r="D591" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E591" s="41" t="s">
@@ -25515,17 +25523,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A592" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B592" s="41" t="s">
         <v>741</v>
       </c>
-      <c r="C592" s="41" t="s">
+      <c r="C592" s="50" t="s">
         <v>2587</v>
       </c>
-      <c r="D592" s="41" t="s">
+      <c r="D592" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E592" s="41" t="s">
@@ -26252,17 +26260,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B625" s="41" t="s">
         <v>780</v>
       </c>
-      <c r="C625" s="41" t="s">
+      <c r="C625" s="50" t="s">
         <v>1943</v>
       </c>
-      <c r="D625" s="41" t="s">
+      <c r="D625" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E625" s="41" t="s">
@@ -26275,17 +26283,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B626" s="41" t="s">
         <v>781</v>
       </c>
-      <c r="C626" s="41" t="s">
+      <c r="C626" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D626" s="41" t="s">
+      <c r="D626" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E626" s="41" t="s">
@@ -26298,17 +26306,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A627" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B627" s="41" t="s">
         <v>782</v>
       </c>
-      <c r="C627" s="41" t="s">
+      <c r="C627" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="D627" s="41" t="s">
+      <c r="D627" s="50" t="s">
         <v>2455</v>
       </c>
       <c r="E627" s="41" t="s">
@@ -26321,17 +26329,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A628" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B628" s="41" t="s">
         <v>784</v>
       </c>
-      <c r="C628" s="41" t="s">
+      <c r="C628" s="50" t="s">
         <v>2604</v>
       </c>
-      <c r="D628" s="41" t="s">
+      <c r="D628" s="50" t="s">
         <v>405</v>
       </c>
       <c r="E628" s="41" t="s">
@@ -26344,17 +26352,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B629" s="41" t="s">
         <v>785</v>
       </c>
-      <c r="C629" s="41" t="s">
+      <c r="C629" s="50" t="s">
         <v>2605</v>
       </c>
-      <c r="D629" s="41"/>
+      <c r="D629" s="50"/>
       <c r="E629" s="41" t="s">
         <v>8</v>
       </c>
@@ -26365,17 +26373,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B630" s="41" t="s">
         <v>786</v>
       </c>
-      <c r="C630" s="41" t="s">
+      <c r="C630" s="50" t="s">
         <v>2606</v>
       </c>
-      <c r="D630" s="41"/>
+      <c r="D630" s="50"/>
       <c r="E630" s="41" t="s">
         <v>8</v>
       </c>
@@ -26386,17 +26394,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B631" s="41" t="s">
         <v>787</v>
       </c>
-      <c r="C631" s="41" t="s">
+      <c r="C631" s="50" t="s">
         <v>2607</v>
       </c>
-      <c r="D631" s="41"/>
+      <c r="D631" s="50"/>
       <c r="E631" s="41" t="s">
         <v>8</v>
       </c>
@@ -26407,17 +26415,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B632" s="41" t="s">
         <v>788</v>
       </c>
-      <c r="C632" s="41" t="s">
+      <c r="C632" s="50" t="s">
         <v>2608</v>
       </c>
-      <c r="D632" s="41"/>
+      <c r="D632" s="50"/>
       <c r="E632" s="41" t="s">
         <v>8</v>
       </c>
@@ -26428,17 +26436,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B633" s="41" t="s">
         <v>789</v>
       </c>
-      <c r="C633" s="41" t="s">
+      <c r="C633" s="50" t="s">
         <v>2611</v>
       </c>
-      <c r="D633" s="41"/>
+      <c r="D633" s="50"/>
       <c r="E633" s="41" t="s">
         <v>8</v>
       </c>
@@ -26449,17 +26457,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A634" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B634" s="41" t="s">
         <v>790</v>
       </c>
-      <c r="C634" s="41" t="s">
+      <c r="C634" s="50" t="s">
         <v>2609</v>
       </c>
-      <c r="D634" s="41"/>
+      <c r="D634" s="50"/>
       <c r="E634" s="41" t="s">
         <v>8</v>
       </c>
@@ -26470,17 +26478,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B635" s="41" t="s">
         <v>791</v>
       </c>
-      <c r="C635" s="41" t="s">
+      <c r="C635" s="50" t="s">
         <v>2610</v>
       </c>
-      <c r="D635" s="41"/>
+      <c r="D635" s="50"/>
       <c r="E635" s="41" t="s">
         <v>8</v>
       </c>
@@ -26491,17 +26499,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B636" s="41" t="s">
         <v>792</v>
       </c>
-      <c r="C636" s="41" t="s">
+      <c r="C636" s="50" t="s">
         <v>2612</v>
       </c>
-      <c r="D636" s="41"/>
+      <c r="D636" s="50"/>
       <c r="E636" s="41" t="s">
         <v>8</v>
       </c>
@@ -27110,17 +27118,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A663" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B663" s="41" t="s">
         <v>819</v>
       </c>
-      <c r="C663" s="41" t="s">
+      <c r="C663" s="50" t="s">
         <v>1944</v>
       </c>
-      <c r="D663" s="41" t="s">
+      <c r="D663" s="50" t="s">
         <v>2635</v>
       </c>
       <c r="E663" s="41" t="s">
@@ -27133,17 +27141,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B664" s="41" t="s">
         <v>820</v>
       </c>
-      <c r="C664" s="41" t="s">
+      <c r="C664" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="D664" s="41" t="s">
+      <c r="D664" s="50" t="s">
         <v>2636</v>
       </c>
       <c r="E664" s="41" t="s">
@@ -27156,17 +27164,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B665" s="41" t="s">
         <v>822</v>
       </c>
-      <c r="C665" s="41" t="s">
+      <c r="C665" s="50" t="s">
         <v>2535</v>
       </c>
-      <c r="D665" s="41" t="s">
+      <c r="D665" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E665" s="41" t="s">
@@ -27225,17 +27233,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B668" s="41" t="s">
         <v>827</v>
       </c>
-      <c r="C668" s="41" t="s">
+      <c r="C668" s="50" t="s">
         <v>2638</v>
       </c>
-      <c r="D668" s="41" t="s">
+      <c r="D668" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E668" s="41" t="s">
@@ -27248,17 +27256,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A669" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B669" s="41" t="s">
         <v>828</v>
       </c>
-      <c r="C669" s="41" t="s">
+      <c r="C669" s="50" t="s">
         <v>2639</v>
       </c>
-      <c r="D669" s="41" t="s">
+      <c r="D669" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E669" s="41" t="s">
@@ -27271,17 +27279,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B670" s="41" t="s">
         <v>829</v>
       </c>
-      <c r="C670" s="41" t="s">
+      <c r="C670" s="50" t="s">
         <v>2640</v>
       </c>
-      <c r="D670" s="41" t="s">
+      <c r="D670" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E670" s="41" t="s">
@@ -27294,17 +27302,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B671" s="41" t="s">
         <v>830</v>
       </c>
-      <c r="C671" s="41" t="s">
+      <c r="C671" s="50" t="s">
         <v>2641</v>
       </c>
-      <c r="D671" s="41" t="s">
+      <c r="D671" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E671" s="41" t="s">
@@ -27317,17 +27325,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A672" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B672" s="41" t="s">
         <v>831</v>
       </c>
-      <c r="C672" s="41" t="s">
+      <c r="C672" s="50" t="s">
         <v>2642</v>
       </c>
-      <c r="D672" s="41" t="s">
+      <c r="D672" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E672" s="41" t="s">
@@ -27340,17 +27348,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A673" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B673" s="41" t="s">
         <v>832</v>
       </c>
-      <c r="C673" s="41" t="s">
+      <c r="C673" s="50" t="s">
         <v>2646</v>
       </c>
-      <c r="D673" s="41" t="s">
+      <c r="D673" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E673" s="41" t="s">
@@ -27363,17 +27371,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A674" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B674" s="41" t="s">
         <v>833</v>
       </c>
-      <c r="C674" s="41" t="s">
+      <c r="C674" s="50" t="s">
         <v>2643</v>
       </c>
-      <c r="D674" s="41" t="s">
+      <c r="D674" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E674" s="41" t="s">
@@ -27386,17 +27394,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A675" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B675" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="C675" s="41" t="s">
+      <c r="C675" s="50" t="s">
         <v>2644</v>
       </c>
-      <c r="D675" s="41" t="s">
+      <c r="D675" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E675" s="41" t="s">
@@ -27409,17 +27417,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A676" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B676" s="41" t="s">
         <v>835</v>
       </c>
-      <c r="C676" s="41" t="s">
+      <c r="C676" s="50" t="s">
         <v>2645</v>
       </c>
-      <c r="D676" s="41" t="s">
+      <c r="D676" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E676" s="41" t="s">
@@ -27432,17 +27440,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B677" s="41" t="s">
         <v>836</v>
       </c>
-      <c r="C677" s="41" t="s">
+      <c r="C677" s="50" t="s">
         <v>2647</v>
       </c>
-      <c r="D677" s="41" t="s">
+      <c r="D677" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E677" s="41" t="s">
@@ -27478,17 +27486,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A679" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B679" s="41" t="s">
         <v>838</v>
       </c>
-      <c r="C679" s="41" t="s">
+      <c r="C679" s="50" t="s">
         <v>839</v>
       </c>
-      <c r="D679" s="41" t="s">
+      <c r="D679" s="50" t="s">
         <v>2649</v>
       </c>
       <c r="E679" s="41" t="s">
@@ -27606,17 +27614,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A685" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B685" s="41" t="s">
         <v>841</v>
       </c>
-      <c r="C685" s="41" t="s">
+      <c r="C685" s="50" t="s">
         <v>1945</v>
       </c>
-      <c r="D685" s="41" t="s">
+      <c r="D685" s="50" t="s">
         <v>842</v>
       </c>
       <c r="E685" s="41" t="s">
@@ -27629,17 +27637,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B686" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="C686" s="41" t="s">
+      <c r="C686" s="50" t="s">
         <v>2650</v>
       </c>
-      <c r="D686" s="41" t="s">
+      <c r="D686" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E686" s="41" t="s">
@@ -27652,17 +27660,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B687" s="41" t="s">
         <v>844</v>
       </c>
-      <c r="C687" s="41" t="s">
+      <c r="C687" s="50" t="s">
         <v>2651</v>
       </c>
-      <c r="D687" s="41" t="s">
+      <c r="D687" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E687" s="41" t="s">
@@ -27675,17 +27683,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A688" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B688" s="41" t="s">
         <v>845</v>
       </c>
-      <c r="C688" s="41" t="s">
+      <c r="C688" s="50" t="s">
         <v>2652</v>
       </c>
-      <c r="D688" s="41" t="s">
+      <c r="D688" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E688" s="41" t="s">
@@ -27698,17 +27706,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B689" s="41" t="s">
         <v>846</v>
       </c>
-      <c r="C689" s="41" t="s">
+      <c r="C689" s="50" t="s">
         <v>2653</v>
       </c>
-      <c r="D689" s="41" t="s">
+      <c r="D689" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E689" s="41" t="s">
@@ -27721,17 +27729,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B690" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="C690" s="41" t="s">
+      <c r="C690" s="50" t="s">
         <v>2654</v>
       </c>
-      <c r="D690" s="41" t="s">
+      <c r="D690" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E690" s="41" t="s">
@@ -27744,17 +27752,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B691" s="41" t="s">
         <v>848</v>
       </c>
-      <c r="C691" s="41" t="s">
+      <c r="C691" s="50" t="s">
         <v>2655</v>
       </c>
-      <c r="D691" s="41" t="s">
+      <c r="D691" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E691" s="41" t="s">
@@ -27767,17 +27775,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B692" s="41" t="s">
         <v>849</v>
       </c>
-      <c r="C692" s="41" t="s">
+      <c r="C692" s="50" t="s">
         <v>2656</v>
       </c>
-      <c r="D692" s="41" t="s">
+      <c r="D692" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E692" s="41" t="s">
@@ -27790,17 +27798,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B693" s="41" t="s">
         <v>850</v>
       </c>
-      <c r="C693" s="41" t="s">
+      <c r="C693" s="50" t="s">
         <v>2657</v>
       </c>
-      <c r="D693" s="41" t="s">
+      <c r="D693" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E693" s="41" t="s">
@@ -27813,17 +27821,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A694" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B694" s="41" t="s">
         <v>851</v>
       </c>
-      <c r="C694" s="41" t="s">
+      <c r="C694" s="50" t="s">
         <v>1946</v>
       </c>
-      <c r="D694" s="41" t="s">
+      <c r="D694" s="50" t="s">
         <v>852</v>
       </c>
       <c r="E694" s="41" t="s">
@@ -27836,17 +27844,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A695" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B695" s="41" t="s">
         <v>853</v>
       </c>
-      <c r="C695" s="41" t="s">
+      <c r="C695" s="50" t="s">
         <v>1947</v>
       </c>
-      <c r="D695" s="41" t="s">
+      <c r="D695" s="50" t="s">
         <v>854</v>
       </c>
       <c r="E695" s="41" t="s">
@@ -27859,17 +27867,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" s="42" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A696" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B696" s="41" t="s">
         <v>855</v>
       </c>
-      <c r="C696" s="41" t="s">
+      <c r="C696" s="50" t="s">
         <v>1948</v>
       </c>
-      <c r="D696" s="41" t="s">
+      <c r="D696" s="50" t="s">
         <v>856</v>
       </c>
       <c r="E696" s="41" t="s">
@@ -27882,17 +27890,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B697" s="41" t="s">
         <v>857</v>
       </c>
-      <c r="C697" s="41" t="s">
+      <c r="C697" s="50" t="s">
         <v>2659</v>
       </c>
-      <c r="D697" s="41" t="s">
+      <c r="D697" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E697" s="41" t="s">
@@ -27905,17 +27913,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B698" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C698" s="41" t="s">
+      <c r="C698" s="50" t="s">
         <v>2660</v>
       </c>
-      <c r="D698" s="41" t="s">
+      <c r="D698" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E698" s="41" t="s">
@@ -27928,17 +27936,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B699" s="41" t="s">
         <v>859</v>
       </c>
-      <c r="C699" s="41" t="s">
+      <c r="C699" s="50" t="s">
         <v>2661</v>
       </c>
-      <c r="D699" s="41" t="s">
+      <c r="D699" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E699" s="41" t="s">
@@ -27951,17 +27959,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B700" s="41" t="s">
         <v>860</v>
       </c>
-      <c r="C700" s="41" t="s">
+      <c r="C700" s="50" t="s">
         <v>2662</v>
       </c>
-      <c r="D700" s="41" t="s">
+      <c r="D700" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E700" s="41" t="s">
@@ -27974,17 +27982,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B701" s="41" t="s">
         <v>861</v>
       </c>
-      <c r="C701" s="41" t="s">
+      <c r="C701" s="50" t="s">
         <v>2658</v>
       </c>
-      <c r="D701" s="41" t="s">
+      <c r="D701" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E701" s="41" t="s">
@@ -27997,17 +28005,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B702" s="41" t="s">
         <v>862</v>
       </c>
-      <c r="C702" s="41" t="s">
+      <c r="C702" s="50" t="s">
         <v>2663</v>
       </c>
-      <c r="D702" s="41" t="s">
+      <c r="D702" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E702" s="41" t="s">
@@ -28020,17 +28028,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A703" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B703" s="41" t="s">
         <v>863</v>
       </c>
-      <c r="C703" s="41" t="s">
+      <c r="C703" s="50" t="s">
         <v>2664</v>
       </c>
-      <c r="D703" s="41" t="s">
+      <c r="D703" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E703" s="41" t="s">
@@ -28043,17 +28051,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A704" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B704" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="C704" s="41" t="s">
+      <c r="C704" s="50" t="s">
         <v>2665</v>
       </c>
-      <c r="D704" s="41" t="s">
+      <c r="D704" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E704" s="41" t="s">
@@ -28066,17 +28074,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A705" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B705" s="41" t="s">
         <v>865</v>
       </c>
-      <c r="C705" s="41" t="s">
+      <c r="C705" s="50" t="s">
         <v>2666</v>
       </c>
-      <c r="D705" s="41" t="s">
+      <c r="D705" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E705" s="41" t="s">
@@ -28089,17 +28097,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B706" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="C706" s="41" t="s">
+      <c r="C706" s="50" t="s">
         <v>2667</v>
       </c>
-      <c r="D706" s="41" t="s">
+      <c r="D706" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E706" s="41" t="s">
@@ -28112,17 +28120,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B707" s="41" t="s">
         <v>867</v>
       </c>
-      <c r="C707" s="41" t="s">
+      <c r="C707" s="50" t="s">
         <v>2668</v>
       </c>
-      <c r="D707" s="41" t="s">
+      <c r="D707" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E707" s="41" t="s">
@@ -28135,17 +28143,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A708" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B708" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="C708" s="41" t="s">
+      <c r="C708" s="50" t="s">
         <v>2669</v>
       </c>
-      <c r="D708" s="41" t="s">
+      <c r="D708" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E708" s="41" t="s">
@@ -28158,17 +28166,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B709" s="41" t="s">
         <v>869</v>
       </c>
-      <c r="C709" s="41" t="s">
+      <c r="C709" s="50" t="s">
         <v>2670</v>
       </c>
-      <c r="D709" s="41" t="s">
+      <c r="D709" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E709" s="41" t="s">
@@ -28181,17 +28189,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A710" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B710" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="C710" s="41" t="s">
+      <c r="C710" s="50" t="s">
         <v>2671</v>
       </c>
-      <c r="D710" s="41" t="s">
+      <c r="D710" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E710" s="41" t="s">
@@ -28204,17 +28212,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B711" s="41" t="s">
         <v>871</v>
       </c>
-      <c r="C711" s="41" t="s">
+      <c r="C711" s="50" t="s">
         <v>2672</v>
       </c>
-      <c r="D711" s="41" t="s">
+      <c r="D711" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E711" s="41" t="s">
@@ -28227,17 +28235,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B712" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="C712" s="41" t="s">
+      <c r="C712" s="50" t="s">
         <v>2673</v>
       </c>
-      <c r="D712" s="41" t="s">
+      <c r="D712" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E712" s="41" t="s">
@@ -28250,17 +28258,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B713" s="41" t="s">
         <v>873</v>
       </c>
-      <c r="C713" s="41" t="s">
+      <c r="C713" s="50" t="s">
         <v>2674</v>
       </c>
-      <c r="D713" s="41" t="s">
+      <c r="D713" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E713" s="41" t="s">
@@ -28273,17 +28281,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B714" s="41" t="s">
         <v>874</v>
       </c>
-      <c r="C714" s="41" t="s">
+      <c r="C714" s="50" t="s">
         <v>2675</v>
       </c>
-      <c r="D714" s="41" t="s">
+      <c r="D714" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E714" s="41" t="s">
@@ -28296,17 +28304,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B715" s="41" t="s">
         <v>875</v>
       </c>
-      <c r="C715" s="41" t="s">
+      <c r="C715" s="50" t="s">
         <v>2676</v>
       </c>
-      <c r="D715" s="41" t="s">
+      <c r="D715" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E715" s="41" t="s">
@@ -28319,17 +28327,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A716" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B716" s="41" t="s">
         <v>876</v>
       </c>
-      <c r="C716" s="41" t="s">
+      <c r="C716" s="50" t="s">
         <v>2677</v>
       </c>
-      <c r="D716" s="41" t="s">
+      <c r="D716" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E716" s="41" t="s">
@@ -28342,17 +28350,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A717" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B717" s="41" t="s">
         <v>877</v>
       </c>
-      <c r="C717" s="41" t="s">
+      <c r="C717" s="50" t="s">
         <v>2678</v>
       </c>
-      <c r="D717" s="41" t="s">
+      <c r="D717" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E717" s="41" t="s">
@@ -28365,17 +28373,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B718" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="C718" s="41" t="s">
+      <c r="C718" s="50" t="s">
         <v>2679</v>
       </c>
-      <c r="D718" s="41" t="s">
+      <c r="D718" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E718" s="41" t="s">
@@ -28388,17 +28396,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B719" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="C719" s="41" t="s">
+      <c r="C719" s="50" t="s">
         <v>2680</v>
       </c>
-      <c r="D719" s="41" t="s">
+      <c r="D719" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E719" s="41" t="s">
@@ -28411,17 +28419,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B720" s="41" t="s">
         <v>880</v>
       </c>
-      <c r="C720" s="41" t="s">
+      <c r="C720" s="50" t="s">
         <v>2681</v>
       </c>
-      <c r="D720" s="41" t="s">
+      <c r="D720" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E720" s="41" t="s">
@@ -28434,17 +28442,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B721" s="41" t="s">
         <v>881</v>
       </c>
-      <c r="C721" s="41" t="s">
+      <c r="C721" s="50" t="s">
         <v>2682</v>
       </c>
-      <c r="D721" s="41" t="s">
+      <c r="D721" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E721" s="41" t="s">
@@ -28457,17 +28465,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B722" s="41" t="s">
         <v>882</v>
       </c>
-      <c r="C722" s="41" t="s">
+      <c r="C722" s="50" t="s">
         <v>2683</v>
       </c>
-      <c r="D722" s="41" t="s">
+      <c r="D722" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E722" s="41" t="s">
@@ -28480,17 +28488,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B723" s="41" t="s">
         <v>883</v>
       </c>
-      <c r="C723" s="41" t="s">
+      <c r="C723" s="50" t="s">
         <v>2684</v>
       </c>
-      <c r="D723" s="41" t="s">
+      <c r="D723" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E723" s="41" t="s">
@@ -28503,17 +28511,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A724" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B724" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="C724" s="41" t="s">
+      <c r="C724" s="50" t="s">
         <v>885</v>
       </c>
-      <c r="D724" s="41" t="s">
+      <c r="D724" s="50" t="s">
         <v>2685</v>
       </c>
       <c r="E724" s="41" t="s">
@@ -28526,17 +28534,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A725" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B725" s="41" t="s">
         <v>886</v>
       </c>
-      <c r="C725" s="41" t="s">
+      <c r="C725" s="50" t="s">
         <v>2686</v>
       </c>
-      <c r="D725" s="41" t="s">
+      <c r="D725" s="50" t="s">
         <v>405</v>
       </c>
       <c r="E725" s="41" t="s">
@@ -28549,17 +28557,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A726" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B726" s="41" t="s">
         <v>887</v>
       </c>
-      <c r="C726" s="41" t="s">
+      <c r="C726" s="50" t="s">
         <v>2688</v>
       </c>
-      <c r="D726" s="41"/>
+      <c r="D726" s="50"/>
       <c r="E726" s="41" t="s">
         <v>8</v>
       </c>
@@ -28570,17 +28578,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A727" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B727" s="41" t="s">
         <v>888</v>
       </c>
-      <c r="C727" s="41" t="s">
+      <c r="C727" s="50" t="s">
         <v>2687</v>
       </c>
-      <c r="D727" s="41"/>
+      <c r="D727" s="50"/>
       <c r="E727" s="41" t="s">
         <v>8</v>
       </c>
@@ -28591,17 +28599,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A728" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B728" s="41" t="s">
         <v>889</v>
       </c>
-      <c r="C728" s="41" t="s">
+      <c r="C728" s="50" t="s">
         <v>2689</v>
       </c>
-      <c r="D728" s="41"/>
+      <c r="D728" s="50"/>
       <c r="E728" s="41" t="s">
         <v>8</v>
       </c>
@@ -28612,17 +28620,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B729" s="41" t="s">
         <v>890</v>
       </c>
-      <c r="C729" s="41" t="s">
+      <c r="C729" s="50" t="s">
         <v>1949</v>
       </c>
-      <c r="D729" s="41" t="s">
+      <c r="D729" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E729" s="41" t="s">
@@ -28635,17 +28643,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B730" s="41" t="s">
         <v>891</v>
       </c>
-      <c r="C730" s="41" t="s">
+      <c r="C730" s="50" t="s">
         <v>892</v>
       </c>
-      <c r="D730" s="41" t="s">
+      <c r="D730" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E730" s="41" t="s">
@@ -28658,17 +28666,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B731" s="41" t="s">
         <v>893</v>
       </c>
-      <c r="C731" s="41" t="s">
+      <c r="C731" s="50" t="s">
         <v>894</v>
       </c>
-      <c r="D731" s="41" t="s">
+      <c r="D731" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E731" s="41" t="s">
@@ -28681,17 +28689,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B732" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="C732" s="42" t="s">
+      <c r="C732" s="51" t="s">
         <v>2691</v>
       </c>
-      <c r="D732" s="41" t="s">
+      <c r="D732" s="50" t="s">
         <v>2690</v>
       </c>
       <c r="E732" s="41" t="s">
@@ -28704,17 +28712,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B733" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="C733" s="42" t="s">
+      <c r="C733" s="51" t="s">
         <v>2692</v>
       </c>
-      <c r="D733" s="41" t="s">
+      <c r="D733" s="50" t="s">
         <v>2690</v>
       </c>
       <c r="E733" s="41" t="s">
@@ -28727,17 +28735,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A734" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B734" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="C734" s="41" t="s">
+      <c r="C734" s="50" t="s">
         <v>1950</v>
       </c>
-      <c r="D734" s="41" t="s">
+      <c r="D734" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E734" s="41" t="s">
@@ -28750,17 +28758,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B735" s="41" t="s">
         <v>898</v>
       </c>
-      <c r="C735" s="41" t="s">
+      <c r="C735" s="50" t="s">
         <v>1951</v>
       </c>
-      <c r="D735" s="41" t="s">
+      <c r="D735" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E735" s="41" t="s">
@@ -28773,17 +28781,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A736" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B736" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="C736" s="41" t="s">
+      <c r="C736" s="50" t="s">
         <v>1952</v>
       </c>
-      <c r="D736" s="41" t="s">
+      <c r="D736" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E736" s="41" t="s">
@@ -28796,17 +28804,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A737" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B737" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="C737" s="41" t="s">
+      <c r="C737" s="50" t="s">
         <v>2693</v>
       </c>
-      <c r="D737" s="41" t="s">
+      <c r="D737" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E737" s="41" t="s">
@@ -28819,17 +28827,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B738" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="C738" s="41" t="s">
+      <c r="C738" s="50" t="s">
         <v>2694</v>
       </c>
-      <c r="D738" s="41" t="s">
+      <c r="D738" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E738" s="41" t="s">
@@ -28842,7 +28850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:7" s="42" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A739" s="41" t="s">
         <v>840</v>
       </c>
@@ -28852,7 +28860,7 @@
       <c r="C739" s="49" t="s">
         <v>2695</v>
       </c>
-      <c r="D739" s="41" t="s">
+      <c r="D739" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E739" s="41" t="s">
@@ -28865,7 +28873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:7" s="42" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A740" s="41" t="s">
         <v>840</v>
       </c>
@@ -28875,7 +28883,7 @@
       <c r="C740" s="49" t="s">
         <v>2696</v>
       </c>
-      <c r="D740" s="41" t="s">
+      <c r="D740" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E740" s="41" t="s">
@@ -28888,7 +28896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:7" s="42" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A741" s="41" t="s">
         <v>840</v>
       </c>
@@ -28898,7 +28906,7 @@
       <c r="C741" s="49" t="s">
         <v>2697</v>
       </c>
-      <c r="D741" s="41" t="s">
+      <c r="D741" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E741" s="41" t="s">
@@ -28911,17 +28919,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A742" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B742" s="41" t="s">
         <v>905</v>
       </c>
-      <c r="C742" s="41" t="s">
+      <c r="C742" s="50" t="s">
         <v>2698</v>
       </c>
-      <c r="D742" s="41" t="s">
+      <c r="D742" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E742" s="41" t="s">
@@ -28934,17 +28942,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A743" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B743" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="C743" s="41" t="s">
+      <c r="C743" s="50" t="s">
         <v>2699</v>
       </c>
-      <c r="D743" s="41" t="s">
+      <c r="D743" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E743" s="41" t="s">
@@ -28957,17 +28965,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A744" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B744" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="C744" s="41" t="s">
+      <c r="C744" s="50" t="s">
         <v>2700</v>
       </c>
-      <c r="D744" s="41" t="s">
+      <c r="D744" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E744" s="41" t="s">
@@ -28980,17 +28988,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A745" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B745" s="41" t="s">
         <v>908</v>
       </c>
-      <c r="C745" s="41" t="s">
+      <c r="C745" s="50" t="s">
         <v>2701</v>
       </c>
-      <c r="D745" s="41" t="s">
+      <c r="D745" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E745" s="41" t="s">
@@ -29003,17 +29011,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A746" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B746" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="C746" s="41" t="s">
+      <c r="C746" s="50" t="s">
         <v>2702</v>
       </c>
-      <c r="D746" s="41" t="s">
+      <c r="D746" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E746" s="41" t="s">
@@ -29026,17 +29034,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B747" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="C747" s="41" t="s">
+      <c r="C747" s="50" t="s">
         <v>2703</v>
       </c>
-      <c r="D747" s="41" t="s">
+      <c r="D747" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E747" s="41" t="s">
@@ -29049,17 +29057,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A748" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B748" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="C748" s="41" t="s">
+      <c r="C748" s="50" t="s">
         <v>2704</v>
       </c>
-      <c r="D748" s="41" t="s">
+      <c r="D748" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E748" s="41" t="s">
@@ -29072,7 +29080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="50" t="s">
         <v>840</v>
       </c>
@@ -29095,7 +29103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="50" t="s">
         <v>840</v>
       </c>
@@ -29118,7 +29126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="50" t="s">
         <v>840</v>
       </c>
@@ -29141,7 +29149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="50" t="s">
         <v>840</v>
       </c>
@@ -29164,7 +29172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="50" t="s">
         <v>840</v>
       </c>
@@ -29187,7 +29195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="50" t="s">
         <v>840</v>
       </c>
@@ -29210,7 +29218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="50" t="s">
         <v>840</v>
       </c>
@@ -29233,7 +29241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="50" t="s">
         <v>840</v>
       </c>
@@ -29256,7 +29264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="50" t="s">
         <v>840</v>
       </c>
@@ -29279,7 +29287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="50" t="s">
         <v>840</v>
       </c>
@@ -29302,7 +29310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="50" t="s">
         <v>840</v>
       </c>
@@ -29325,7 +29333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="50" t="s">
         <v>840</v>
       </c>
@@ -29348,7 +29356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:7" s="51" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="50" t="s">
         <v>840</v>
       </c>
@@ -29476,17 +29484,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7" s="42" customFormat="1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" s="42" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B767" s="41" t="s">
         <v>939</v>
       </c>
-      <c r="C767" s="41" t="s">
+      <c r="C767" s="50" t="s">
         <v>2717</v>
       </c>
-      <c r="D767" s="41"/>
+      <c r="D767" s="50"/>
       <c r="E767" s="41" t="s">
         <v>8</v>
       </c>
@@ -29902,17 +29910,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7" s="42" customFormat="1" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" s="42" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B787" s="41" t="s">
         <v>947</v>
       </c>
-      <c r="C787" s="41" t="s">
+      <c r="C787" s="50" t="s">
         <v>948</v>
       </c>
-      <c r="D787" s="41" t="s">
+      <c r="D787" s="50" t="s">
         <v>2736</v>
       </c>
       <c r="E787" s="41" t="s">
@@ -29925,17 +29933,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A788" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B788" s="41" t="s">
         <v>949</v>
       </c>
-      <c r="C788" s="41" t="s">
+      <c r="C788" s="50" t="s">
         <v>2737</v>
       </c>
-      <c r="D788" s="41"/>
+      <c r="D788" s="50"/>
       <c r="E788" s="41" t="s">
         <v>8</v>
       </c>
@@ -29946,17 +29954,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:7" s="42" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" s="42" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B789" s="41" t="s">
         <v>950</v>
       </c>
-      <c r="C789" s="41" t="s">
+      <c r="C789" s="50" t="s">
         <v>2738</v>
       </c>
-      <c r="D789" s="41"/>
+      <c r="D789" s="50"/>
       <c r="E789" s="41" t="s">
         <v>8</v>
       </c>
@@ -29967,17 +29975,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:7" s="42" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" s="42" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B790" s="41" t="s">
         <v>951</v>
       </c>
-      <c r="C790" s="41" t="s">
+      <c r="C790" s="50" t="s">
         <v>2739</v>
       </c>
-      <c r="D790" s="41"/>
+      <c r="D790" s="50"/>
       <c r="E790" s="41" t="s">
         <v>8</v>
       </c>
@@ -29988,17 +29996,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B791" s="41" t="s">
         <v>952</v>
       </c>
-      <c r="C791" s="41" t="s">
+      <c r="C791" s="50" t="s">
         <v>2740</v>
       </c>
-      <c r="D791" s="41"/>
+      <c r="D791" s="50"/>
       <c r="E791" s="41" t="s">
         <v>8</v>
       </c>
@@ -30009,17 +30017,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B792" s="41" t="s">
         <v>953</v>
       </c>
-      <c r="C792" s="41" t="s">
+      <c r="C792" s="50" t="s">
         <v>2741</v>
       </c>
-      <c r="D792" s="41"/>
+      <c r="D792" s="50"/>
       <c r="E792" s="41" t="s">
         <v>8</v>
       </c>
@@ -30030,17 +30038,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A793" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B793" s="41" t="s">
         <v>954</v>
       </c>
-      <c r="C793" s="41" t="s">
+      <c r="C793" s="50" t="s">
         <v>2742</v>
       </c>
-      <c r="D793" s="41"/>
+      <c r="D793" s="50"/>
       <c r="E793" s="41" t="s">
         <v>8</v>
       </c>
@@ -30051,17 +30059,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A794" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B794" s="41" t="s">
         <v>955</v>
       </c>
-      <c r="C794" s="41" t="s">
+      <c r="C794" s="50" t="s">
         <v>2743</v>
       </c>
-      <c r="D794" s="41"/>
+      <c r="D794" s="50"/>
       <c r="E794" s="41" t="s">
         <v>8</v>
       </c>
@@ -30072,17 +30080,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A795" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B795" s="41" t="s">
         <v>956</v>
       </c>
-      <c r="C795" s="41" t="s">
+      <c r="C795" s="50" t="s">
         <v>2744</v>
       </c>
-      <c r="D795" s="41"/>
+      <c r="D795" s="50"/>
       <c r="E795" s="41" t="s">
         <v>8</v>
       </c>
@@ -30093,17 +30101,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B796" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C796" s="41" t="s">
+      <c r="C796" s="50" t="s">
         <v>2745</v>
       </c>
-      <c r="D796" s="41"/>
+      <c r="D796" s="50"/>
       <c r="E796" s="41" t="s">
         <v>8</v>
       </c>
@@ -30114,17 +30122,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A797" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B797" s="41" t="s">
         <v>958</v>
       </c>
-      <c r="C797" s="41" t="s">
+      <c r="C797" s="50" t="s">
         <v>2746</v>
       </c>
-      <c r="D797" s="41"/>
+      <c r="D797" s="50"/>
       <c r="E797" s="41" t="s">
         <v>8</v>
       </c>
@@ -30135,17 +30143,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A798" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B798" s="41" t="s">
         <v>959</v>
       </c>
-      <c r="C798" s="41" t="s">
+      <c r="C798" s="50" t="s">
         <v>2747</v>
       </c>
-      <c r="D798" s="41"/>
+      <c r="D798" s="50"/>
       <c r="E798" s="41" t="s">
         <v>8</v>
       </c>
@@ -30156,17 +30164,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A799" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B799" s="41" t="s">
         <v>960</v>
       </c>
-      <c r="C799" s="41" t="s">
+      <c r="C799" s="50" t="s">
         <v>2748</v>
       </c>
-      <c r="D799" s="41"/>
+      <c r="D799" s="50"/>
       <c r="E799" s="41" t="s">
         <v>8</v>
       </c>
@@ -30177,17 +30185,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B800" s="41" t="s">
         <v>961</v>
       </c>
-      <c r="C800" s="41" t="s">
+      <c r="C800" s="50" t="s">
         <v>2749</v>
       </c>
-      <c r="D800" s="41"/>
+      <c r="D800" s="50"/>
       <c r="E800" s="41" t="s">
         <v>8</v>
       </c>
@@ -30198,17 +30206,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B801" s="41" t="s">
         <v>962</v>
       </c>
-      <c r="C801" s="41" t="s">
+      <c r="C801" s="50" t="s">
         <v>2750</v>
       </c>
-      <c r="D801" s="41"/>
+      <c r="D801" s="50"/>
       <c r="E801" s="41" t="s">
         <v>8</v>
       </c>
@@ -30219,17 +30227,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B802" s="41" t="s">
         <v>963</v>
       </c>
-      <c r="C802" s="41" t="s">
+      <c r="C802" s="50" t="s">
         <v>2751</v>
       </c>
-      <c r="D802" s="41"/>
+      <c r="D802" s="50"/>
       <c r="E802" s="41" t="s">
         <v>8</v>
       </c>
@@ -30240,17 +30248,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B803" s="41" t="s">
         <v>964</v>
       </c>
-      <c r="C803" s="41" t="s">
+      <c r="C803" s="50" t="s">
         <v>2752</v>
       </c>
-      <c r="D803" s="41"/>
+      <c r="D803" s="50"/>
       <c r="E803" s="41" t="s">
         <v>8</v>
       </c>
@@ -30261,17 +30269,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B804" s="41" t="s">
         <v>965</v>
       </c>
-      <c r="C804" s="41" t="s">
+      <c r="C804" s="50" t="s">
         <v>2753</v>
       </c>
-      <c r="D804" s="41"/>
+      <c r="D804" s="50"/>
       <c r="E804" s="41" t="s">
         <v>8</v>
       </c>
@@ -30282,17 +30290,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A805" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B805" s="41" t="s">
         <v>966</v>
       </c>
-      <c r="C805" s="41" t="s">
+      <c r="C805" s="50" t="s">
         <v>2754</v>
       </c>
-      <c r="D805" s="41"/>
+      <c r="D805" s="50"/>
       <c r="E805" s="41" t="s">
         <v>8</v>
       </c>
@@ -30303,17 +30311,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B806" s="41" t="s">
         <v>967</v>
       </c>
-      <c r="C806" s="41" t="s">
+      <c r="C806" s="50" t="s">
         <v>2755</v>
       </c>
-      <c r="D806" s="41" t="s">
+      <c r="D806" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E806" s="41" t="s">
@@ -30326,17 +30334,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B807" s="41" t="s">
         <v>969</v>
       </c>
-      <c r="C807" s="41" t="s">
+      <c r="C807" s="50" t="s">
         <v>2756</v>
       </c>
-      <c r="D807" s="41" t="s">
+      <c r="D807" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E807" s="41" t="s">
@@ -30349,17 +30357,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B808" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C808" s="41" t="s">
+      <c r="C808" s="50" t="s">
         <v>2757</v>
       </c>
-      <c r="D808" s="41" t="s">
+      <c r="D808" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E808" s="41" t="s">
@@ -30372,17 +30380,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B809" s="41" t="s">
         <v>971</v>
       </c>
-      <c r="C809" s="41" t="s">
+      <c r="C809" s="50" t="s">
         <v>2758</v>
       </c>
-      <c r="D809" s="41" t="s">
+      <c r="D809" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E809" s="41" t="s">
@@ -30395,17 +30403,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B810" s="41" t="s">
         <v>972</v>
       </c>
-      <c r="C810" s="41" t="s">
+      <c r="C810" s="50" t="s">
         <v>2767</v>
       </c>
-      <c r="D810" s="41" t="s">
+      <c r="D810" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E810" s="41" t="s">
@@ -30418,17 +30426,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B811" s="41" t="s">
         <v>973</v>
       </c>
-      <c r="C811" s="41" t="s">
+      <c r="C811" s="50" t="s">
         <v>2759</v>
       </c>
-      <c r="D811" s="41" t="s">
+      <c r="D811" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E811" s="41" t="s">
@@ -30441,17 +30449,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B812" s="41" t="s">
         <v>974</v>
       </c>
-      <c r="C812" s="41" t="s">
+      <c r="C812" s="50" t="s">
         <v>2760</v>
       </c>
-      <c r="D812" s="41" t="s">
+      <c r="D812" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E812" s="41" t="s">
@@ -30464,17 +30472,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B813" s="41" t="s">
         <v>975</v>
       </c>
-      <c r="C813" s="41" t="s">
+      <c r="C813" s="50" t="s">
         <v>2761</v>
       </c>
-      <c r="D813" s="41" t="s">
+      <c r="D813" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E813" s="41" t="s">
@@ -30487,17 +30495,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B814" s="41" t="s">
         <v>976</v>
       </c>
-      <c r="C814" s="41" t="s">
+      <c r="C814" s="50" t="s">
         <v>2762</v>
       </c>
-      <c r="D814" s="41" t="s">
+      <c r="D814" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E814" s="41" t="s">
@@ -30510,17 +30518,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B815" s="41" t="s">
         <v>977</v>
       </c>
-      <c r="C815" s="41" t="s">
+      <c r="C815" s="50" t="s">
         <v>2763</v>
       </c>
-      <c r="D815" s="41" t="s">
+      <c r="D815" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E815" s="41" t="s">
@@ -30533,17 +30541,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B816" s="41" t="s">
         <v>978</v>
       </c>
-      <c r="C816" s="41" t="s">
+      <c r="C816" s="50" t="s">
         <v>2764</v>
       </c>
-      <c r="D816" s="41" t="s">
+      <c r="D816" s="50" t="s">
         <v>968</v>
       </c>
       <c r="E816" s="41" t="s">
@@ -30556,17 +30564,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B817" s="41" t="s">
         <v>979</v>
       </c>
-      <c r="C817" s="41" t="s">
+      <c r="C817" s="50" t="s">
         <v>980</v>
       </c>
-      <c r="D817" s="41" t="s">
+      <c r="D817" s="50" t="s">
         <v>981</v>
       </c>
       <c r="E817" s="41" t="s">
@@ -30579,17 +30587,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B818" s="41" t="s">
         <v>982</v>
       </c>
-      <c r="C818" s="41" t="s">
+      <c r="C818" s="50" t="s">
         <v>983</v>
       </c>
-      <c r="D818" s="42" t="s">
+      <c r="D818" s="51" t="s">
         <v>984</v>
       </c>
       <c r="E818" s="41" t="s">
@@ -30602,17 +30610,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B819" s="41" t="s">
         <v>985</v>
       </c>
-      <c r="C819" s="41" t="s">
+      <c r="C819" s="50" t="s">
         <v>986</v>
       </c>
-      <c r="D819" s="41" t="s">
+      <c r="D819" s="50" t="s">
         <v>987</v>
       </c>
       <c r="E819" s="41" t="s">
@@ -30625,17 +30633,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:7" s="42" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" s="42" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="41" t="s">
         <v>925</v>
       </c>
       <c r="B820" s="41" t="s">
         <v>988</v>
       </c>
-      <c r="C820" s="41" t="s">
+      <c r="C820" s="50" t="s">
         <v>2765</v>
       </c>
-      <c r="D820" s="41" t="s">
+      <c r="D820" s="50" t="s">
         <v>2766</v>
       </c>
       <c r="E820" s="41" t="s">
@@ -30753,17 +30761,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:7" s="42" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" s="42" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B826" s="41" t="s">
         <v>990</v>
       </c>
-      <c r="C826" s="41" t="s">
+      <c r="C826" s="50" t="s">
         <v>1955</v>
       </c>
-      <c r="D826" s="41" t="s">
+      <c r="D826" s="50" t="s">
         <v>991</v>
       </c>
       <c r="E826" s="41" t="s">
@@ -30868,17 +30876,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7" s="42" customFormat="1" ht="134.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" s="42" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B831" s="41" t="s">
         <v>996</v>
       </c>
-      <c r="C831" s="41" t="s">
+      <c r="C831" s="50" t="s">
         <v>1960</v>
       </c>
-      <c r="D831" s="41" t="s">
+      <c r="D831" s="50" t="s">
         <v>2768</v>
       </c>
       <c r="E831" s="41" t="s">
@@ -30891,17 +30899,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B832" s="41" t="s">
         <v>997</v>
       </c>
-      <c r="C832" s="41" t="s">
+      <c r="C832" s="50" t="s">
         <v>1961</v>
       </c>
-      <c r="D832" s="41" t="s">
+      <c r="D832" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E832" s="41" t="s">
@@ -30914,17 +30922,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:7" s="42" customFormat="1" ht="249" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" s="42" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B833" s="41" t="s">
         <v>998</v>
       </c>
-      <c r="C833" s="41" t="s">
+      <c r="C833" s="50" t="s">
         <v>1962</v>
       </c>
-      <c r="D833" s="41" t="s">
+      <c r="D833" s="50" t="s">
         <v>2769</v>
       </c>
       <c r="E833" s="41" t="s">
@@ -30937,17 +30945,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B834" s="41" t="s">
         <v>999</v>
       </c>
-      <c r="C834" s="41" t="s">
+      <c r="C834" s="50" t="s">
         <v>1963</v>
       </c>
-      <c r="D834" s="41" t="s">
+      <c r="D834" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E834" s="41" t="s">
@@ -30960,17 +30968,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B835" s="41" t="s">
         <v>1000</v>
       </c>
-      <c r="C835" s="41" t="s">
+      <c r="C835" s="50" t="s">
         <v>1964</v>
       </c>
-      <c r="D835" s="41" t="s">
+      <c r="D835" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E835" s="41" t="s">
@@ -30983,17 +30991,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B836" s="41" t="s">
         <v>1001</v>
       </c>
-      <c r="C836" s="41" t="s">
+      <c r="C836" s="50" t="s">
         <v>1965</v>
       </c>
-      <c r="D836" s="41" t="s">
+      <c r="D836" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E836" s="41" t="s">
@@ -31098,17 +31106,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:7" s="42" customFormat="1" ht="202.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" s="42" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B841" s="41" t="s">
         <v>1004</v>
       </c>
-      <c r="C841" s="41" t="s">
+      <c r="C841" s="50" t="s">
         <v>1968</v>
       </c>
-      <c r="D841" s="41" t="s">
+      <c r="D841" s="50" t="s">
         <v>2770</v>
       </c>
       <c r="E841" s="41" t="s">
@@ -31236,17 +31244,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:7" s="42" customFormat="1" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" s="42" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B847" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="C847" s="41" t="s">
+      <c r="C847" s="50" t="s">
         <v>1971</v>
       </c>
-      <c r="D847" s="41" t="s">
+      <c r="D847" s="50" t="s">
         <v>2773</v>
       </c>
       <c r="E847" s="41" t="s">
@@ -31489,17 +31497,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B858" s="41" t="s">
         <v>1028</v>
       </c>
-      <c r="C858" s="41" t="s">
+      <c r="C858" s="50" t="s">
         <v>1976</v>
       </c>
-      <c r="D858" s="41" t="s">
+      <c r="D858" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E858" s="41" t="s">
@@ -32570,17 +32578,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B905" s="41" t="s">
         <v>1083</v>
       </c>
-      <c r="C905" s="41" t="s">
+      <c r="C905" s="50" t="s">
         <v>2784</v>
       </c>
-      <c r="D905" s="41" t="s">
+      <c r="D905" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E905" s="41" t="s">
@@ -32593,17 +32601,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B906" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="C906" s="41" t="s">
+      <c r="C906" s="50" t="s">
         <v>2785</v>
       </c>
-      <c r="D906" s="41" t="s">
+      <c r="D906" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E906" s="41" t="s">
@@ -32616,17 +32624,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B907" s="41" t="s">
         <v>1085</v>
       </c>
-      <c r="C907" s="41" t="s">
+      <c r="C907" s="50" t="s">
         <v>2786</v>
       </c>
-      <c r="D907" s="41" t="s">
+      <c r="D907" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E907" s="41" t="s">
@@ -32639,17 +32647,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B908" s="41" t="s">
         <v>1086</v>
       </c>
-      <c r="C908" s="41" t="s">
+      <c r="C908" s="50" t="s">
         <v>2787</v>
       </c>
-      <c r="D908" s="41" t="s">
+      <c r="D908" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E908" s="41" t="s">
@@ -32662,17 +32670,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B909" s="41" t="s">
         <v>1087</v>
       </c>
-      <c r="C909" s="41" t="s">
+      <c r="C909" s="50" t="s">
         <v>2788</v>
       </c>
-      <c r="D909" s="41" t="s">
+      <c r="D909" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E909" s="41" t="s">
@@ -32685,17 +32693,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B910" s="41" t="s">
         <v>1088</v>
       </c>
-      <c r="C910" s="41" t="s">
+      <c r="C910" s="50" t="s">
         <v>2789</v>
       </c>
-      <c r="D910" s="41" t="s">
+      <c r="D910" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E910" s="41" t="s">
@@ -32708,17 +32716,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B911" s="41" t="s">
         <v>1089</v>
       </c>
-      <c r="C911" s="41" t="s">
+      <c r="C911" s="50" t="s">
         <v>2790</v>
       </c>
-      <c r="D911" s="41" t="s">
+      <c r="D911" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E911" s="41" t="s">
@@ -32731,17 +32739,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B912" s="41" t="s">
         <v>1090</v>
       </c>
-      <c r="C912" s="41" t="s">
+      <c r="C912" s="50" t="s">
         <v>2791</v>
       </c>
-      <c r="D912" s="41" t="s">
+      <c r="D912" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E912" s="41" t="s">
@@ -32754,17 +32762,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B913" s="41" t="s">
         <v>1091</v>
       </c>
-      <c r="C913" s="41" t="s">
+      <c r="C913" s="50" t="s">
         <v>2792</v>
       </c>
-      <c r="D913" s="41" t="s">
+      <c r="D913" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E913" s="41" t="s">
@@ -32777,17 +32785,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B914" s="41" t="s">
         <v>1092</v>
       </c>
-      <c r="C914" s="41" t="s">
+      <c r="C914" s="50" t="s">
         <v>2793</v>
       </c>
-      <c r="D914" s="41" t="s">
+      <c r="D914" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E914" s="41" t="s">
@@ -32800,17 +32808,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B915" s="41" t="s">
         <v>1093</v>
       </c>
-      <c r="C915" s="41" t="s">
+      <c r="C915" s="50" t="s">
         <v>2794</v>
       </c>
-      <c r="D915" s="41" t="s">
+      <c r="D915" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E915" s="41" t="s">
@@ -32823,17 +32831,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B916" s="41" t="s">
         <v>1094</v>
       </c>
-      <c r="C916" s="41" t="s">
+      <c r="C916" s="50" t="s">
         <v>2795</v>
       </c>
-      <c r="D916" s="41" t="s">
+      <c r="D916" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E916" s="41" t="s">
@@ -32846,17 +32854,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B917" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="C917" s="41" t="s">
+      <c r="C917" s="50" t="s">
         <v>2796</v>
       </c>
-      <c r="D917" s="41" t="s">
+      <c r="D917" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E917" s="41" t="s">
@@ -32869,17 +32877,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B918" s="41" t="s">
         <v>1096</v>
       </c>
-      <c r="C918" s="41" t="s">
+      <c r="C918" s="50" t="s">
         <v>2797</v>
       </c>
-      <c r="D918" s="41" t="s">
+      <c r="D918" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E918" s="41" t="s">
@@ -32892,17 +32900,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B919" s="41" t="s">
         <v>1097</v>
       </c>
-      <c r="C919" s="41" t="s">
+      <c r="C919" s="50" t="s">
         <v>2798</v>
       </c>
-      <c r="D919" s="41" t="s">
+      <c r="D919" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E919" s="41" t="s">
@@ -32915,17 +32923,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A920" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B920" s="41" t="s">
         <v>1098</v>
       </c>
-      <c r="C920" s="41" t="s">
+      <c r="C920" s="50" t="s">
         <v>2799</v>
       </c>
-      <c r="D920" s="41" t="s">
+      <c r="D920" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E920" s="41" t="s">
@@ -32938,17 +32946,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B921" s="41" t="s">
         <v>1099</v>
       </c>
-      <c r="C921" s="41" t="s">
+      <c r="C921" s="50" t="s">
         <v>1992</v>
       </c>
-      <c r="D921" s="41" t="s">
+      <c r="D921" s="50" t="s">
         <v>2802</v>
       </c>
       <c r="E921" s="41" t="s">
@@ -32961,17 +32969,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A922" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B922" s="41" t="s">
         <v>1100</v>
       </c>
-      <c r="C922" s="41" t="s">
+      <c r="C922" s="50" t="s">
         <v>2800</v>
       </c>
-      <c r="D922" s="41"/>
+      <c r="D922" s="50"/>
       <c r="E922" s="41" t="s">
         <v>8</v>
       </c>
@@ -32982,17 +32990,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A923" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B923" s="41" t="s">
         <v>1101</v>
       </c>
-      <c r="C923" s="41" t="s">
+      <c r="C923" s="50" t="s">
         <v>2801</v>
       </c>
-      <c r="D923" s="41"/>
+      <c r="D923" s="50"/>
       <c r="E923" s="41" t="s">
         <v>8</v>
       </c>
@@ -33049,17 +33057,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B926" s="42" t="s">
         <v>2823</v>
       </c>
-      <c r="C926" s="41" t="s">
+      <c r="C926" s="50" t="s">
         <v>1105</v>
       </c>
-      <c r="D926" s="41" t="s">
+      <c r="D926" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E926" s="41" t="s">
@@ -33072,17 +33080,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B927" s="42" t="s">
         <v>2824</v>
       </c>
-      <c r="C927" s="41" t="s">
+      <c r="C927" s="50" t="s">
         <v>1106</v>
       </c>
-      <c r="D927" s="41" t="s">
+      <c r="D927" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E927" s="41" t="s">
@@ -33095,17 +33103,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B928" s="42" t="s">
         <v>2825</v>
       </c>
-      <c r="C928" s="41" t="s">
+      <c r="C928" s="50" t="s">
         <v>1107</v>
       </c>
-      <c r="D928" s="41" t="s">
+      <c r="D928" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E928" s="41" t="s">
@@ -33118,17 +33126,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:7" s="42" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B929" s="42" t="s">
         <v>2826</v>
       </c>
-      <c r="C929" s="41" t="s">
+      <c r="C929" s="50" t="s">
         <v>1108</v>
       </c>
-      <c r="D929" s="41" t="s">
+      <c r="D929" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E929" s="41" t="s">
@@ -33141,17 +33149,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A930" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B930" s="42" t="s">
         <v>2827</v>
       </c>
-      <c r="C930" s="41" t="s">
+      <c r="C930" s="50" t="s">
         <v>1109</v>
       </c>
-      <c r="D930" s="41" t="s">
+      <c r="D930" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E930" s="41" t="s">
@@ -33164,17 +33172,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A931" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B931" s="42" t="s">
         <v>2828</v>
       </c>
-      <c r="C931" s="41" t="s">
+      <c r="C931" s="50" t="s">
         <v>1110</v>
       </c>
-      <c r="D931" s="41" t="s">
+      <c r="D931" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E931" s="41" t="s">
@@ -33555,17 +33563,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A948" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B948" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="C948" s="41" t="s">
+      <c r="C948" s="50" t="s">
         <v>2806</v>
       </c>
-      <c r="D948" s="41" t="s">
+      <c r="D948" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E948" s="41" t="s">
@@ -33578,17 +33586,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:7" s="42" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" s="42" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B949" s="42" t="s">
         <v>1127</v>
       </c>
-      <c r="C949" s="41" t="s">
+      <c r="C949" s="50" t="s">
         <v>1128</v>
       </c>
-      <c r="D949" s="41" t="s">
+      <c r="D949" s="50" t="s">
         <v>2808</v>
       </c>
       <c r="E949" s="41" t="s">
@@ -33601,17 +33609,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B950" s="42" t="s">
         <v>1129</v>
       </c>
-      <c r="C950" s="41" t="s">
+      <c r="C950" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="D950" s="41" t="s">
+      <c r="D950" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E950" s="41" t="s">
@@ -33624,17 +33632,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A951" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B951" s="42" t="s">
         <v>1131</v>
       </c>
-      <c r="C951" s="41" t="s">
+      <c r="C951" s="50" t="s">
         <v>2003</v>
       </c>
-      <c r="D951" s="41" t="s">
+      <c r="D951" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E951" s="41" t="s">
@@ -33647,17 +33655,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B952" s="42" t="s">
         <v>1132</v>
       </c>
-      <c r="C952" s="41" t="s">
+      <c r="C952" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D952" s="41" t="s">
+      <c r="D952" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E952" s="41" t="s">
@@ -33670,17 +33678,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A953" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B953" s="42" t="s">
         <v>1133</v>
       </c>
-      <c r="C953" s="41" t="s">
+      <c r="C953" s="50" t="s">
         <v>2004</v>
       </c>
-      <c r="D953" s="41" t="s">
+      <c r="D953" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E953" s="41" t="s">
@@ -33693,17 +33701,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B954" s="42" t="s">
         <v>1134</v>
       </c>
-      <c r="C954" s="41" t="s">
+      <c r="C954" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D954" s="41" t="s">
+      <c r="D954" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E954" s="41" t="s">
@@ -33762,17 +33770,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A957" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B957" s="42" t="s">
         <v>1137</v>
       </c>
-      <c r="C957" s="41" t="s">
+      <c r="C957" s="50" t="s">
         <v>2809</v>
       </c>
-      <c r="D957" s="41" t="s">
+      <c r="D957" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E957" s="41" t="s">
@@ -33785,17 +33793,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A958" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B958" s="42" t="s">
         <v>1138</v>
       </c>
-      <c r="C958" s="41" t="s">
+      <c r="C958" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D958" s="41" t="s">
+      <c r="D958" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E958" s="41" t="s">
@@ -33808,17 +33816,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:7" s="42" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" s="42" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B959" s="42" t="s">
         <v>1140</v>
       </c>
-      <c r="C959" s="41" t="s">
+      <c r="C959" s="50" t="s">
         <v>2810</v>
       </c>
-      <c r="D959" s="41" t="s">
+      <c r="D959" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E959" s="41" t="s">
@@ -33831,17 +33839,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B960" s="42" t="s">
         <v>1141</v>
       </c>
-      <c r="C960" s="41" t="s">
+      <c r="C960" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D960" s="41" t="s">
+      <c r="D960" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E960" s="41" t="s">
@@ -33854,17 +33862,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:7" s="42" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" s="42" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B961" s="42" t="s">
         <v>1142</v>
       </c>
-      <c r="C961" s="41" t="s">
+      <c r="C961" s="50" t="s">
         <v>2811</v>
       </c>
-      <c r="D961" s="41" t="s">
+      <c r="D961" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E961" s="41" t="s">
@@ -33877,17 +33885,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B962" s="42" t="s">
         <v>1143</v>
       </c>
-      <c r="C962" s="41" t="s">
+      <c r="C962" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D962" s="41" t="s">
+      <c r="D962" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E962" s="41" t="s">
@@ -33900,17 +33908,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:7" s="42" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" s="42" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B963" s="42" t="s">
         <v>1144</v>
       </c>
-      <c r="C963" s="41" t="s">
+      <c r="C963" s="50" t="s">
         <v>2812</v>
       </c>
-      <c r="D963" s="41" t="s">
+      <c r="D963" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E963" s="41" t="s">
@@ -33923,17 +33931,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B964" s="42" t="s">
         <v>1145</v>
       </c>
-      <c r="C964" s="41" t="s">
+      <c r="C964" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D964" s="41" t="s">
+      <c r="D964" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E964" s="41" t="s">
@@ -33946,17 +33954,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:7" s="42" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" s="42" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B965" s="42" t="s">
         <v>1146</v>
       </c>
-      <c r="C965" s="41" t="s">
+      <c r="C965" s="50" t="s">
         <v>2813</v>
       </c>
-      <c r="D965" s="41" t="s">
+      <c r="D965" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E965" s="41" t="s">
@@ -33969,17 +33977,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B966" s="42" t="s">
         <v>1147</v>
       </c>
-      <c r="C966" s="41" t="s">
+      <c r="C966" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D966" s="41" t="s">
+      <c r="D966" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E966" s="41" t="s">
@@ -33992,17 +34000,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:7" s="42" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" s="42" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B967" s="42" t="s">
         <v>1148</v>
       </c>
-      <c r="C967" s="41" t="s">
+      <c r="C967" s="50" t="s">
         <v>2814</v>
       </c>
-      <c r="D967" s="41" t="s">
+      <c r="D967" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E967" s="41" t="s">
@@ -34015,17 +34023,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B968" s="42" t="s">
         <v>1149</v>
       </c>
-      <c r="C968" s="41" t="s">
+      <c r="C968" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D968" s="41" t="s">
+      <c r="D968" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E968" s="41" t="s">
@@ -34038,17 +34046,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:7" s="42" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" s="42" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B969" s="42" t="s">
         <v>1150</v>
       </c>
-      <c r="C969" s="41" t="s">
+      <c r="C969" s="50" t="s">
         <v>2815</v>
       </c>
-      <c r="D969" s="41" t="s">
+      <c r="D969" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E969" s="41" t="s">
@@ -34061,17 +34069,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B970" s="42" t="s">
         <v>1151</v>
       </c>
-      <c r="C970" s="41" t="s">
+      <c r="C970" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D970" s="41" t="s">
+      <c r="D970" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E970" s="41" t="s">
@@ -34084,17 +34092,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:7" s="42" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" s="42" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B971" s="42" t="s">
         <v>1152</v>
       </c>
-      <c r="C971" s="41" t="s">
+      <c r="C971" s="50" t="s">
         <v>2816</v>
       </c>
-      <c r="D971" s="41" t="s">
+      <c r="D971" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E971" s="41" t="s">
@@ -34107,17 +34115,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:7" s="42" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B972" s="42" t="s">
         <v>1153</v>
       </c>
-      <c r="C972" s="41" t="s">
+      <c r="C972" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D972" s="41" t="s">
+      <c r="D972" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E972" s="41" t="s">
@@ -34130,17 +34138,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A973" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B973" s="42" t="s">
         <v>2817</v>
       </c>
-      <c r="C973" s="41" t="s">
+      <c r="C973" s="50" t="s">
         <v>2006</v>
       </c>
-      <c r="D973" s="41" t="s">
+      <c r="D973" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E973" s="41" t="s">
@@ -34153,17 +34161,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A974" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B974" s="42" t="s">
         <v>2818</v>
       </c>
-      <c r="C974" s="41" t="s">
+      <c r="C974" s="50" t="s">
         <v>2007</v>
       </c>
-      <c r="D974" s="41" t="s">
+      <c r="D974" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E974" s="41" t="s">
@@ -34176,17 +34184,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A975" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B975" s="42" t="s">
         <v>2819</v>
       </c>
-      <c r="C975" s="41" t="s">
+      <c r="C975" s="50" t="s">
         <v>2008</v>
       </c>
-      <c r="D975" s="41" t="s">
+      <c r="D975" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E975" s="41" t="s">
@@ -34199,17 +34207,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A976" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B976" s="42" t="s">
         <v>2820</v>
       </c>
-      <c r="C976" s="41" t="s">
+      <c r="C976" s="50" t="s">
         <v>2009</v>
       </c>
-      <c r="D976" s="41" t="s">
+      <c r="D976" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E976" s="41" t="s">
@@ -34222,17 +34230,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A977" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B977" s="42" t="s">
         <v>2821</v>
       </c>
-      <c r="C977" s="41" t="s">
+      <c r="C977" s="50" t="s">
         <v>2010</v>
       </c>
-      <c r="D977" s="41" t="s">
+      <c r="D977" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E977" s="41" t="s">
@@ -34245,17 +34253,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:7" s="42" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A978" s="41" t="s">
         <v>989</v>
       </c>
       <c r="B978" s="42" t="s">
         <v>2822</v>
       </c>
-      <c r="C978" s="41" t="s">
+      <c r="C978" s="50" t="s">
         <v>2011</v>
       </c>
-      <c r="D978" s="41" t="s">
+      <c r="D978" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="E978" s="41" t="s">
@@ -34585,7 +34593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34608,7 +34616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34631,7 +34639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34654,7 +34662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34677,7 +34685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34700,7 +34708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:7" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" s="23" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34723,7 +34731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34746,7 +34754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" s="23" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34815,7 +34823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34953,7 +34961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1010" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34976,7 +34984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1011" s="32" t="s">
         <v>1154</v>
       </c>
@@ -34999,7 +35007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1012" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35022,7 +35030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1013" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35045,7 +35053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1014" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35068,7 +35076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35091,7 +35099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35114,7 +35122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1017" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35137,7 +35145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1018" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35160,7 +35168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35183,7 +35191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" s="23" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35689,7 +35697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35712,7 +35720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35735,7 +35743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35758,7 +35766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35781,7 +35789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35804,7 +35812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35827,7 +35835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35850,7 +35858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35873,7 +35881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35896,7 +35904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35919,7 +35927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" s="23" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" s="23" customFormat="1" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1052" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35942,7 +35950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35965,7 +35973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" s="23" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:7" s="23" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1054" s="32" t="s">
         <v>1154</v>
       </c>
@@ -35988,7 +35996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" s="23" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1055" s="32" t="s">
         <v>1154</v>
       </c>
@@ -36609,7 +36617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" s="23" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" s="23" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" s="32" t="s">
         <v>1154</v>
       </c>
@@ -36632,7 +36640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" s="23" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" s="23" customFormat="1" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1083" s="32" t="s">
         <v>1154</v>
       </c>
@@ -36655,7 +36663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084" s="32" t="s">
         <v>1154</v>
       </c>
@@ -36678,7 +36686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085" s="32" t="s">
         <v>1154</v>
       </c>
@@ -36701,7 +36709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086" s="32" t="s">
         <v>1154</v>
       </c>
@@ -36724,7 +36732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" s="32" t="s">
         <v>1154</v>
       </c>
@@ -36747,7 +36755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" s="23" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1088" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37023,7 +37031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37322,7 +37330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1113" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37345,7 +37353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" s="23" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1114" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37368,7 +37376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" s="23" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1115" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37389,7 +37397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" s="23" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1116" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37410,7 +37418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" s="23" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1117" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37431,7 +37439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" s="23" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1118" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37452,7 +37460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1119" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:7" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1119" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37475,7 +37483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:7" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1120" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37498,7 +37506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1121" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37521,7 +37529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1122" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37590,7 +37598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1125" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37613,7 +37621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1126" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:7" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1126" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37636,7 +37644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1127" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37705,7 +37713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1130" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37843,7 +37851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1136" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37958,7 +37966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1141" s="32" t="s">
         <v>1154</v>
       </c>
@@ -37979,7 +37987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1142" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38000,7 +38008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1143" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38021,7 +38029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1144" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38042,7 +38050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1145" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1145" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38063,7 +38071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1146" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38084,7 +38092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1147" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38105,7 +38113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1148" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38126,7 +38134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1149" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1149" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38147,7 +38155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1150" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38168,7 +38176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1151" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38189,7 +38197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1152" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38348,7 +38356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" s="23" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1159" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38371,7 +38379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" s="23" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1160" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38394,7 +38402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:7" s="23" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1161" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38417,7 +38425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" s="23" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" s="23" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1162" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38440,7 +38448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1163" spans="1:7" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:7" s="23" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1163" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38463,7 +38471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" s="23" customFormat="1" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1164" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38486,7 +38494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" s="23" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" s="23" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1165" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38509,7 +38517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1166" s="32" t="s">
         <v>1154</v>
       </c>
@@ -38532,7 +38540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" s="23" customFormat="1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1167" s="32" t="s">
         <v>1154</v>
       </c>
